--- a/NombreDeCas.xlsx
+++ b/NombreDeCas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Cas supplémentaires ajoutés après coup</t>
+  </si>
+  <si>
+    <t>alt 58</t>
+  </si>
+  <si>
+    <t>alt 176</t>
   </si>
 </sst>
 </file>
@@ -192,10 +198,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$11:$A$126</c:f>
+              <c:f>Feuil1!$A$11:$A$207</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="116"/>
+                <c:ptCount val="197"/>
                 <c:pt idx="0">
                   <c:v>43913</c:v>
                 </c:pt>
@@ -543,16 +549,259 @@
                 </c:pt>
                 <c:pt idx="115">
                   <c:v>44028</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44031</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44032</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$D$11:$D$126</c:f>
+              <c:f>Feuil1!$D$11:$D$207</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="116"/>
+                <c:ptCount val="197"/>
                 <c:pt idx="0">
                   <c:v>628</c:v>
                 </c:pt>
@@ -854,52 +1103,295 @@
                   <c:v>55458</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>55524</c:v>
+                  <c:v>55525.414634146342</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>55593</c:v>
+                  <c:v>55595.829268292684</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>55682</c:v>
+                  <c:v>55686.243902439026</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>55784</c:v>
+                  <c:v>55789.658536585368</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>55863</c:v>
+                  <c:v>55870.07317073171</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>55937</c:v>
+                  <c:v>55945.487804878052</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>55997</c:v>
+                  <c:v>56006.902439024394</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>56079</c:v>
+                  <c:v>56090.317073170736</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>56216</c:v>
+                  <c:v>56228.731707317078</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>56316</c:v>
+                  <c:v>56330.14634146342</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>56407</c:v>
+                  <c:v>56422.560975609762</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>56521</c:v>
+                  <c:v>56537.975609756104</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>56621</c:v>
+                  <c:v>56639.390243902446</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>56730</c:v>
+                  <c:v>56749.804878048788</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>56859</c:v>
+                  <c:v>56880.21951219513</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>57001</c:v>
+                  <c:v>57023.634146341472</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>57166.048780487814</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>57325.463414634156</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>57492.878048780498</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>57644.29268292684</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>57825.707317073182</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>57969.121951219524</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>58112.536585365866</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>58276.951219512208</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>58449.36585365855</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>58619.780487804892</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>58766.195121951234</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>58936.609756097576</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>59050.024390243918</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>59173.43902439026</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>59355.853658536602</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>59503.268292682944</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>59645.682926829286</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>59770.097560975628</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>59894.51219512197</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>60050.926829268312</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>60185.341463414654</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>60294.756097560996</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>60422.170731707338</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>60527.58536585368</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>60627.000000000022</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>60718</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>60813</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>60917</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>61004</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>61084</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>61151</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>61206</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>61252</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>61316</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>61402</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>61495</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>61599</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>61673</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>61741</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>61803</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>61945</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>62056</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>62124</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>62232</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>62352</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>62492</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>62614</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>62746</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>62933</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>63117</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>63292</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>63497</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>63713</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>63876</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>64056</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>64244</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>64463</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>64707</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>64986</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>65262</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>65554</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>65857</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>66356</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>66653</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>67080</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>67542</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>68128</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>68617</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>69088</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>69670</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>70307</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>71005</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>71901</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>72651</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>73450</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>74288</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>75221</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>76273</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>77380</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>78459</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>79650</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1166,10 +1658,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$3:$A$126</c:f>
+              <c:f>Feuil1!$A$3:$A$207</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="124"/>
+                <c:ptCount val="205"/>
                 <c:pt idx="0">
                   <c:v>43905</c:v>
                 </c:pt>
@@ -1541,16 +2033,259 @@
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>44028</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44031</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44032</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$E$3:$E$126</c:f>
+              <c:f>Feuil1!$E$3:$E$207</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="124"/>
+                <c:ptCount val="205"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -1876,52 +2611,295 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>66</c:v>
+                  <c:v>67.414634146341996</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>69</c:v>
+                  <c:v>70.414634146341996</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>89</c:v>
+                  <c:v>90.414634146341996</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>102</c:v>
+                  <c:v>103.414634146342</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>79</c:v>
+                  <c:v>80.414634146341996</c:v>
                 </c:pt>
                 <c:pt idx="113">
+                  <c:v>75.414634146341996</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>61.414634146341996</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>83.414634146341996</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>138.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>101.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>92.414634146341996</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>115.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>101.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>110.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>130.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>143.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>142.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>159.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>167.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>151.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>181.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>143.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>143.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>164.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>172.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>170.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>146.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>170.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>113.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>123.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>182.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>147.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>142.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>124.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>124.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>156.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>134.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>109.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>127.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>105.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>99.414634146341996</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>90.999999999978172</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="161">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="114">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="162">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="164">
                   <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1052</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1107</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1079</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2194,10 +3172,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$5:$A$126</c:f>
+              <c:f>Feuil1!$A$5:$A$207</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="122"/>
+                <c:ptCount val="203"/>
                 <c:pt idx="0">
                   <c:v>43907</c:v>
                 </c:pt>
@@ -2563,16 +3541,259 @@
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>44028</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44031</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44032</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$5:$F$126</c:f>
+              <c:f>Feuil1!$F$5:$F$207</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="122"/>
+                <c:ptCount val="203"/>
                 <c:pt idx="0">
                   <c:v>16.666666666666668</c:v>
                 </c:pt>
@@ -2892,52 +4113,295 @@
                   <c:v>74.5</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>70.583333333333329</c:v>
+                  <c:v>71.054878048780665</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>67.666666666666671</c:v>
+                  <c:v>68.609756097561331</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>74.666666666666671</c:v>
+                  <c:v>76.081300813008667</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>86.666666666666671</c:v>
+                  <c:v>88.081300813008667</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>90</c:v>
+                  <c:v>91.414634146341996</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>85</c:v>
+                  <c:v>86.414634146341996</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>71</c:v>
+                  <c:v>72.414634146341996</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>72</c:v>
+                  <c:v>73.414634146341996</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>93</c:v>
+                  <c:v>94.414634146341996</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>106.33333333333333</c:v>
+                  <c:v>107.74796747967532</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>109.33333333333333</c:v>
+                  <c:v>110.74796747967532</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>101.66666666666667</c:v>
+                  <c:v>103.08130081300867</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>101.66666666666667</c:v>
+                  <c:v>103.08130081300867</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>107.66666666666667</c:v>
+                  <c:v>109.08130081300867</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>112.66666666666667</c:v>
+                  <c:v>114.08130081300867</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>126.66666666666667</c:v>
+                  <c:v>128.08130081300865</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>138.74796747967534</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>148.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>156.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>159.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>166.74796747967534</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>158.74796747967534</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>156.08130081300865</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>150.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>160.08130081300865</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>169.08130081300865</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>163.08130081300865</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>162.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>143.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135.74796747967534</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>139.74796747967534</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>151.08130081300865</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>157.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>138.08130081300865</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>130.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>135.08130081300865</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>138.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>133.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>123.74796747967532</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>114.08130081300867</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>110.74796747967532</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>98.609756097554055</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>95.138211382106718</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>96.666666666659395</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>95.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>90.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>67.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>65.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>94.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>90.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>90.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>95.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>98.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>122.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>127.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>131.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>167.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>198.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>194.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>186.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>195.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>247.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>266.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>282.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>290.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>364.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>366.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>407.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>395.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>491.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>512.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>515.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>563.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>743.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>781.33333333333337</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>795.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>856.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1030.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1079.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1125.6666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3219,10 +4683,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$9:$A$126</c:f>
+              <c:f>Feuil1!$A$9:$A$207</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="118"/>
+                <c:ptCount val="199"/>
                 <c:pt idx="0">
                   <c:v>43911</c:v>
                 </c:pt>
@@ -3576,16 +5040,259 @@
                 </c:pt>
                 <c:pt idx="117">
                   <c:v>44028</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44031</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44032</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44033</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44039</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44085</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$G$9:$G$126</c:f>
+              <c:f>Feuil1!$G$9:$G$207</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="118"/>
+                <c:ptCount val="199"/>
                 <c:pt idx="0">
                   <c:v>22.428571428571427</c:v>
                 </c:pt>
@@ -3893,52 +5600,295 @@
                   <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>83.857142857142861</c:v>
+                  <c:v>84.059233449477432</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>73.428571428571431</c:v>
+                  <c:v>73.832752613240572</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>75.035714285714292</c:v>
+                  <c:v>75.641986062718004</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>78.5</c:v>
+                  <c:v>79.308362369338283</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>78.678571428571431</c:v>
+                  <c:v>79.689024390244285</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>78.142857142857139</c:v>
+                  <c:v>79.355400696864564</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>77</c:v>
+                  <c:v>78.414634146341996</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>79.285714285714292</c:v>
+                  <c:v>80.700348432056288</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>89</c:v>
+                  <c:v>90.414634146341996</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>90.571428571428569</c:v>
+                  <c:v>91.986062717770565</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>89</c:v>
+                  <c:v>90.414634146341996</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>94</c:v>
+                  <c:v>95.414634146341996</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>97.714285714285708</c:v>
+                  <c:v>99.128919860627704</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>104.71428571428571</c:v>
+                  <c:v>106.1289198606277</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>111.42857142857143</c:v>
+                  <c:v>112.84320557491343</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>112.14285714285714</c:v>
+                  <c:v>113.55749128919913</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>128.98606271777058</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>136.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>143.55749128919913</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>153.70034843205627</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>155.55749128919913</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>155.55749128919913</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>158.70034843205627</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>160.55749128919913</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>160.98606271777058</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>160.27177700348486</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>158.70034843205627</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>154.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>151.55749128919913</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>154.12891986062772</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>150.55749128919913</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>146.55749128919913</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>143.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136.84320557491341</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>142.98606271777058</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>144.55749128919913</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>134.12891986062772</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>131.27177700348486</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>125.98606271777057</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>122.414634146342</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>117.64111498257573</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>108.86759581881259</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>104.52264808362088</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>101.32055749128631</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>94.547038327523168</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>89.059233449474306</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>82.714285714282596</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>76.285714285714292</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>71.857142857142861</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>69.285714285714292</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>70.142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>73.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>74.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>76.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>78.714285714285708</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>89.857142857142861</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>93.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>89.857142857142861</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>90.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>107.28571428571429</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>115.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>114.42857142857143</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>125.28571428571429</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>141.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>151.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>163.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>174.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>180.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>187.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>187.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>192.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>202.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>212.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>221.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>239.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>257.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>301.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>312.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>365.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>409.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>437.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>461.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>473.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>560.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>622.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>646.14285714285711</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>690.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>742.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>852.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>910.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>936.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>999.85714285714289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6357,8 +8307,8 @@
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>750794</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
@@ -6389,8 +8339,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>739588</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -6679,10 +8629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:J300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L67" sqref="L67"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8914,7 +10864,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <f t="shared" ref="A88:A142" si="10">$A87+1</f>
+        <f t="shared" ref="A88:A151" si="10">$A87+1</f>
         <v>43990</v>
       </c>
       <c r="B88">
@@ -9510,21 +11460,25 @@
       <c r="B111">
         <v>55524</v>
       </c>
+      <c r="C111">
+        <f>((B152-B151)-91)/(A152-A111)</f>
+        <v>1.4146341463414633</v>
+      </c>
       <c r="D111">
         <f t="shared" si="7"/>
-        <v>55524</v>
+        <v>55525.414634146342</v>
       </c>
       <c r="E111">
         <f t="shared" si="8"/>
-        <v>66</v>
+        <v>67.414634146341996</v>
       </c>
       <c r="F111">
         <f t="shared" si="9"/>
-        <v>70.583333333333329</v>
+        <v>71.054878048780665</v>
       </c>
       <c r="G111">
         <f t="shared" si="6"/>
-        <v>83.857142857142861</v>
+        <v>84.059233449477432</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -9535,24 +11489,28 @@
       <c r="B112">
         <v>55593</v>
       </c>
+      <c r="C112">
+        <f>C111+(D111-B111)</f>
+        <v>2.8292682926834591</v>
+      </c>
       <c r="D112">
         <f t="shared" si="7"/>
-        <v>55593</v>
+        <v>55595.829268292684</v>
       </c>
       <c r="E112">
         <f t="shared" si="8"/>
-        <v>69</v>
+        <v>70.414634146341996</v>
       </c>
       <c r="F112">
         <f t="shared" si="9"/>
-        <v>67.666666666666671</v>
+        <v>68.609756097561331</v>
       </c>
       <c r="G112">
         <f t="shared" si="6"/>
-        <v>73.428571428571431</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73.832752613240572</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <f t="shared" si="10"/>
         <v>44015</v>
@@ -9560,24 +11518,32 @@
       <c r="B113">
         <v>55682</v>
       </c>
+      <c r="C113">
+        <f>C111+(D112-B112)</f>
+        <v>4.2439024390254545</v>
+      </c>
       <c r="D113">
         <f t="shared" si="7"/>
-        <v>55682</v>
+        <v>55686.243902439026</v>
       </c>
       <c r="E113">
         <f t="shared" ref="E113:E142" si="11">D113-D112</f>
-        <v>89</v>
+        <v>90.414634146341996</v>
       </c>
       <c r="F113">
         <f t="shared" ref="F113:F142" si="12">(E111+E112+E113)/3</f>
-        <v>74.666666666666671</v>
+        <v>76.081300813008667</v>
       </c>
       <c r="G113">
         <f t="shared" ref="G113:G142" si="13">(E107+E108+E109+E110+E111+E112+E113)/7</f>
-        <v>75.035714285714292</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75.641986062718004</v>
+      </c>
+      <c r="I113">
+        <f>A152-A111</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <f t="shared" si="10"/>
         <v>44016</v>
@@ -9585,24 +11551,28 @@
       <c r="B114">
         <v>55784</v>
       </c>
+      <c r="C114">
+        <f>C111+(D113-B113)</f>
+        <v>5.6585365853674503</v>
+      </c>
       <c r="D114">
         <f t="shared" si="7"/>
-        <v>55784</v>
+        <v>55789.658536585368</v>
       </c>
       <c r="E114">
         <f t="shared" si="11"/>
-        <v>102</v>
+        <v>103.414634146342</v>
       </c>
       <c r="F114">
         <f t="shared" si="12"/>
-        <v>86.666666666666671</v>
+        <v>88.081300813008667</v>
       </c>
       <c r="G114">
         <f t="shared" si="13"/>
-        <v>78.5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79.308362369338283</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <f t="shared" si="10"/>
         <v>44017</v>
@@ -9610,24 +11580,28 @@
       <c r="B115">
         <v>55863</v>
       </c>
+      <c r="C115">
+        <f>C111+(D114-B114)</f>
+        <v>7.0731707317094461</v>
+      </c>
       <c r="D115">
         <f t="shared" si="7"/>
-        <v>55863</v>
+        <v>55870.07317073171</v>
       </c>
       <c r="E115">
         <f t="shared" si="11"/>
-        <v>79</v>
+        <v>80.414634146341996</v>
       </c>
       <c r="F115">
         <f t="shared" si="12"/>
-        <v>90</v>
+        <v>91.414634146341996</v>
       </c>
       <c r="G115">
         <f t="shared" si="13"/>
-        <v>78.678571428571431</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79.689024390244285</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <f t="shared" si="10"/>
         <v>44018</v>
@@ -9635,24 +11609,28 @@
       <c r="B116">
         <v>55937</v>
       </c>
+      <c r="C116">
+        <f>C111+(D115-B115)</f>
+        <v>8.4878048780514419</v>
+      </c>
       <c r="D116">
         <f t="shared" si="7"/>
-        <v>55937</v>
+        <v>55945.487804878052</v>
       </c>
       <c r="E116">
         <f t="shared" si="11"/>
-        <v>74</v>
+        <v>75.414634146341996</v>
       </c>
       <c r="F116">
         <f t="shared" si="12"/>
-        <v>85</v>
+        <v>86.414634146341996</v>
       </c>
       <c r="G116">
         <f t="shared" si="13"/>
-        <v>78.142857142857139</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79.355400696864564</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <f t="shared" si="10"/>
         <v>44019</v>
@@ -9660,24 +11638,28 @@
       <c r="B117">
         <v>55997</v>
       </c>
+      <c r="C117">
+        <f>C111+(D116-B116)</f>
+        <v>9.9024390243934377</v>
+      </c>
       <c r="D117">
         <f t="shared" si="7"/>
-        <v>55997</v>
+        <v>56006.902439024394</v>
       </c>
       <c r="E117">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>61.414634146341996</v>
       </c>
       <c r="F117">
         <f t="shared" si="12"/>
-        <v>71</v>
+        <v>72.414634146341996</v>
       </c>
       <c r="G117">
         <f t="shared" si="13"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78.414634146341996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <f t="shared" si="10"/>
         <v>44020</v>
@@ -9685,24 +11667,28 @@
       <c r="B118">
         <v>56079</v>
       </c>
+      <c r="C118">
+        <f>C111+(D117-B117)</f>
+        <v>11.317073170735434</v>
+      </c>
       <c r="D118">
         <f t="shared" si="7"/>
-        <v>56079</v>
+        <v>56090.317073170736</v>
       </c>
       <c r="E118">
         <f t="shared" si="11"/>
-        <v>82</v>
+        <v>83.414634146341996</v>
       </c>
       <c r="F118">
         <f t="shared" si="12"/>
-        <v>72</v>
+        <v>73.414634146341996</v>
       </c>
       <c r="G118">
         <f t="shared" si="13"/>
-        <v>79.285714285714292</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>80.700348432056288</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <f t="shared" si="10"/>
         <v>44021</v>
@@ -9710,24 +11696,28 @@
       <c r="B119">
         <v>56216</v>
       </c>
+      <c r="C119">
+        <f>C111+(D118-B118)</f>
+        <v>12.731707317077429</v>
+      </c>
       <c r="D119">
         <f t="shared" si="7"/>
-        <v>56216</v>
+        <v>56228.731707317078</v>
       </c>
       <c r="E119">
         <f t="shared" si="11"/>
-        <v>137</v>
+        <v>138.414634146342</v>
       </c>
       <c r="F119">
         <f t="shared" si="12"/>
-        <v>93</v>
+        <v>94.414634146341996</v>
       </c>
       <c r="G119">
         <f t="shared" si="13"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90.414634146341996</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <f t="shared" si="10"/>
         <v>44022</v>
@@ -9735,24 +11725,28 @@
       <c r="B120">
         <v>56316</v>
       </c>
+      <c r="C120">
+        <f>C111+(D119-B119)</f>
+        <v>14.146341463419425</v>
+      </c>
       <c r="D120">
         <f t="shared" si="7"/>
-        <v>56316</v>
+        <v>56330.14634146342</v>
       </c>
       <c r="E120">
         <f t="shared" si="11"/>
-        <v>100</v>
+        <v>101.414634146342</v>
       </c>
       <c r="F120">
         <f t="shared" si="12"/>
-        <v>106.33333333333333</v>
+        <v>107.74796747967532</v>
       </c>
       <c r="G120">
         <f t="shared" si="13"/>
-        <v>90.571428571428569</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91.986062717770565</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <f t="shared" si="10"/>
         <v>44023</v>
@@ -9760,24 +11754,28 @@
       <c r="B121">
         <v>56407</v>
       </c>
+      <c r="C121">
+        <f>C111+(D120-B120)</f>
+        <v>15.560975609761421</v>
+      </c>
       <c r="D121">
         <f t="shared" si="7"/>
-        <v>56407</v>
+        <v>56422.560975609762</v>
       </c>
       <c r="E121">
         <f t="shared" si="11"/>
-        <v>91</v>
+        <v>92.414634146341996</v>
       </c>
       <c r="F121">
         <f t="shared" si="12"/>
-        <v>109.33333333333333</v>
+        <v>110.74796747967532</v>
       </c>
       <c r="G121">
         <f t="shared" si="13"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>90.414634146341996</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <f t="shared" si="10"/>
         <v>44024</v>
@@ -9785,24 +11783,28 @@
       <c r="B122">
         <v>56521</v>
       </c>
+      <c r="C122">
+        <f>C111+(D121-B121)</f>
+        <v>16.975609756103417</v>
+      </c>
       <c r="D122">
         <f t="shared" si="7"/>
-        <v>56521</v>
+        <v>56537.975609756104</v>
       </c>
       <c r="E122">
         <f t="shared" si="11"/>
-        <v>114</v>
+        <v>115.414634146342</v>
       </c>
       <c r="F122">
         <f t="shared" si="12"/>
-        <v>101.66666666666667</v>
+        <v>103.08130081300867</v>
       </c>
       <c r="G122">
         <f t="shared" si="13"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95.414634146341996</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <f t="shared" si="10"/>
         <v>44025</v>
@@ -9810,24 +11812,28 @@
       <c r="B123">
         <v>56621</v>
       </c>
+      <c r="C123">
+        <f>C111+(D122-B122)</f>
+        <v>18.390243902445413</v>
+      </c>
       <c r="D123">
         <f t="shared" si="7"/>
-        <v>56621</v>
+        <v>56639.390243902446</v>
       </c>
       <c r="E123">
         <f t="shared" si="11"/>
-        <v>100</v>
+        <v>101.414634146342</v>
       </c>
       <c r="F123">
         <f t="shared" si="12"/>
-        <v>101.66666666666667</v>
+        <v>103.08130081300867</v>
       </c>
       <c r="G123">
         <f t="shared" si="13"/>
-        <v>97.714285714285708</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>99.128919860627704</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <f t="shared" si="10"/>
         <v>44026</v>
@@ -9835,24 +11841,28 @@
       <c r="B124">
         <v>56730</v>
       </c>
+      <c r="C124">
+        <f>C111+(D123-B123)</f>
+        <v>19.804878048787408</v>
+      </c>
       <c r="D124">
         <f t="shared" si="7"/>
-        <v>56730</v>
+        <v>56749.804878048788</v>
       </c>
       <c r="E124">
         <f t="shared" si="11"/>
-        <v>109</v>
+        <v>110.414634146342</v>
       </c>
       <c r="F124">
         <f t="shared" si="12"/>
-        <v>107.66666666666667</v>
+        <v>109.08130081300867</v>
       </c>
       <c r="G124">
         <f t="shared" si="13"/>
-        <v>104.71428571428571</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106.1289198606277</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <f t="shared" si="10"/>
         <v>44027</v>
@@ -9860,24 +11870,28 @@
       <c r="B125">
         <v>56859</v>
       </c>
+      <c r="C125">
+        <f>C111+(D124-B124)</f>
+        <v>21.219512195129404</v>
+      </c>
       <c r="D125">
         <f t="shared" si="7"/>
-        <v>56859</v>
+        <v>56880.21951219513</v>
       </c>
       <c r="E125">
         <f t="shared" si="11"/>
-        <v>129</v>
+        <v>130.414634146342</v>
       </c>
       <c r="F125">
         <f t="shared" si="12"/>
-        <v>112.66666666666667</v>
+        <v>114.08130081300867</v>
       </c>
       <c r="G125">
         <f t="shared" si="13"/>
-        <v>111.42857142857143</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>112.84320557491343</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <f t="shared" si="10"/>
         <v>44028</v>
@@ -9885,372 +11899,4212 @@
       <c r="B126">
         <v>57001</v>
       </c>
+      <c r="C126">
+        <f>C111+(D125-B125)</f>
+        <v>22.6341463414714</v>
+      </c>
       <c r="D126">
         <f t="shared" si="7"/>
-        <v>57001</v>
+        <v>57023.634146341472</v>
       </c>
       <c r="E126">
         <f t="shared" si="11"/>
-        <v>142</v>
+        <v>143.414634146342</v>
       </c>
       <c r="F126">
         <f t="shared" si="12"/>
-        <v>126.66666666666667</v>
+        <v>128.08130081300865</v>
       </c>
       <c r="G126">
         <f t="shared" si="13"/>
-        <v>112.14285714285714</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>113.55749128919913</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <f t="shared" si="10"/>
         <v>44029</v>
       </c>
+      <c r="B127">
+        <v>57142</v>
+      </c>
+      <c r="C127">
+        <f>C111+(D126-B126)</f>
+        <v>24.048780487813396</v>
+      </c>
       <c r="D127">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>57166.048780487814</v>
       </c>
       <c r="E127">
         <f t="shared" si="11"/>
-        <v>-57001</v>
+        <v>142.414634146342</v>
       </c>
       <c r="F127">
         <f t="shared" si="12"/>
-        <v>-18910</v>
+        <v>138.74796747967534</v>
       </c>
       <c r="G127">
         <f t="shared" si="13"/>
-        <v>-8045.1428571428569</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119.414634146342</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <f t="shared" si="10"/>
         <v>44030</v>
       </c>
+      <c r="B128">
+        <v>57300</v>
+      </c>
+      <c r="C128">
+        <f>C111+(D127-B127)</f>
+        <v>25.463414634155392</v>
+      </c>
       <c r="D128">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>57325.463414634156</v>
       </c>
       <c r="E128">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>159.414634146342</v>
       </c>
       <c r="F128">
         <f t="shared" si="12"/>
-        <v>-18953</v>
+        <v>148.414634146342</v>
       </c>
       <c r="G128">
         <f t="shared" si="13"/>
-        <v>-8058.1428571428569</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128.98606271777058</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <f t="shared" si="10"/>
         <v>44031</v>
       </c>
+      <c r="B129">
+        <v>57466</v>
+      </c>
+      <c r="C129">
+        <f>C111+(D128-B128)</f>
+        <v>26.878048780497387</v>
+      </c>
       <c r="D129">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>57492.878048780498</v>
       </c>
       <c r="E129">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>167.414634146342</v>
       </c>
       <c r="F129">
         <f t="shared" si="12"/>
-        <v>-19000.333333333332</v>
+        <v>156.414634146342</v>
       </c>
       <c r="G129">
         <f t="shared" si="13"/>
-        <v>-8074.4285714285716</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>136.414634146342</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <f t="shared" si="10"/>
         <v>44032</v>
       </c>
+      <c r="B130">
+        <v>57616</v>
+      </c>
+      <c r="C130">
+        <f>C111+(D129-B129)</f>
+        <v>28.292682926839383</v>
+      </c>
       <c r="D130">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>57644.29268292684</v>
       </c>
       <c r="E130">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>151.414634146342</v>
       </c>
       <c r="F130">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>159.414634146342</v>
       </c>
       <c r="G130">
         <f t="shared" si="13"/>
-        <v>-8088.7142857142853</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>143.55749128919913</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <f t="shared" si="10"/>
         <v>44033</v>
       </c>
+      <c r="B131">
+        <v>57796</v>
+      </c>
+      <c r="C131">
+        <f>C111+(D130-B130)</f>
+        <v>29.707317073181379</v>
+      </c>
       <c r="D131">
         <f t="shared" ref="D131:D142" si="14">B131+C131</f>
-        <v>0</v>
+        <v>57825.707317073182</v>
       </c>
       <c r="E131">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>181.414634146342</v>
       </c>
       <c r="F131">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>166.74796747967534</v>
       </c>
       <c r="G131">
         <f t="shared" si="13"/>
-        <v>-8104.2857142857147</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153.70034843205627</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <f t="shared" si="10"/>
         <v>44034</v>
       </c>
+      <c r="B132">
+        <v>57938</v>
+      </c>
+      <c r="C132">
+        <f>C111+(D131-B131)</f>
+        <v>31.121951219523375</v>
+      </c>
       <c r="D132">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>57969.121951219524</v>
       </c>
       <c r="E132">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>143.414634146342</v>
       </c>
       <c r="F132">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>158.74796747967534</v>
       </c>
       <c r="G132">
         <f t="shared" si="13"/>
-        <v>-8122.7142857142853</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>155.55749128919913</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <f t="shared" si="10"/>
         <v>44035</v>
       </c>
+      <c r="B133">
+        <v>58080</v>
+      </c>
+      <c r="C133">
+        <f>C111+(D132-B132)</f>
+        <v>32.536585365865371</v>
+      </c>
       <c r="D133">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>58112.536585365866</v>
       </c>
       <c r="E133">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>143.414634146342</v>
       </c>
       <c r="F133">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>156.08130081300865</v>
       </c>
       <c r="G133">
         <f t="shared" si="13"/>
-        <v>-8143</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>155.55749128919913</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <f t="shared" si="10"/>
         <v>44036</v>
       </c>
+      <c r="B134">
+        <v>58243</v>
+      </c>
+      <c r="C134">
+        <f>C111+(D133-B133)</f>
+        <v>33.951219512207366</v>
+      </c>
       <c r="D134">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>58276.951219512208</v>
       </c>
       <c r="E134">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>164.414634146342</v>
       </c>
       <c r="F134">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>150.414634146342</v>
       </c>
       <c r="G134">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158.70034843205627</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <f t="shared" si="10"/>
         <v>44037</v>
       </c>
+      <c r="B135">
+        <v>58414</v>
+      </c>
+      <c r="C135">
+        <f>C111+(D134-B134)</f>
+        <v>35.365853658549362</v>
+      </c>
       <c r="D135">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>58449.36585365855</v>
       </c>
       <c r="E135">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>172.414634146342</v>
       </c>
       <c r="F135">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>160.08130081300865</v>
       </c>
       <c r="G135">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160.55749128919913</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <f t="shared" si="10"/>
         <v>44038</v>
       </c>
+      <c r="B136">
+        <v>58583</v>
+      </c>
+      <c r="C136">
+        <f>C111+(D135-B135)</f>
+        <v>36.780487804891358</v>
+      </c>
       <c r="D136">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>58619.780487804892</v>
       </c>
       <c r="E136">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>170.414634146342</v>
       </c>
       <c r="F136">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>169.08130081300865</v>
       </c>
       <c r="G136">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160.98606271777058</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <f t="shared" si="10"/>
         <v>44039</v>
       </c>
+      <c r="B137">
+        <v>58728</v>
+      </c>
+      <c r="C137">
+        <f>C111+(D136-B136)</f>
+        <v>38.195121951233354</v>
+      </c>
       <c r="D137">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>58766.195121951234</v>
       </c>
       <c r="E137">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>146.414634146342</v>
       </c>
       <c r="F137">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>163.08130081300865</v>
       </c>
       <c r="G137">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160.27177700348486</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <f t="shared" si="10"/>
         <v>44040</v>
       </c>
+      <c r="B138">
+        <v>58897</v>
+      </c>
+      <c r="C138">
+        <f>C111+(D137-B137)</f>
+        <v>39.60975609757535</v>
+      </c>
       <c r="D138">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>58936.609756097576</v>
       </c>
       <c r="E138">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>170.414634146342</v>
       </c>
       <c r="F138">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>162.414634146342</v>
       </c>
       <c r="G138">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158.70034843205627</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <f t="shared" si="10"/>
         <v>44041</v>
       </c>
+      <c r="B139">
+        <v>59009</v>
+      </c>
+      <c r="C139">
+        <f>C111+(D138-B138)</f>
+        <v>41.024390243917345</v>
+      </c>
       <c r="D139">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>59050.024390243918</v>
       </c>
       <c r="E139">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>113.414634146342</v>
       </c>
       <c r="F139">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>143.414634146342</v>
       </c>
       <c r="G139">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154.414634146342</v>
+      </c>
+      <c r="H139" t="s">
+        <v>8</v>
+      </c>
+      <c r="J139">
+        <f>176+58</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <f t="shared" si="10"/>
         <v>44042</v>
       </c>
+      <c r="B140">
+        <v>59131</v>
+      </c>
+      <c r="C140">
+        <f>C111+(D139-B139)</f>
+        <v>42.439024390259341</v>
+      </c>
       <c r="D140">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>59173.43902439026</v>
       </c>
       <c r="E140">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>123.414634146342</v>
       </c>
       <c r="F140">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>135.74796747967534</v>
       </c>
       <c r="G140">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>151.55749128919913</v>
+      </c>
+      <c r="H140" t="s">
+        <v>7</v>
+      </c>
+      <c r="J140">
+        <f>112+122</f>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <f t="shared" si="10"/>
         <v>44043</v>
       </c>
+      <c r="B141">
+        <v>59312</v>
+      </c>
+      <c r="C141">
+        <f>C111+(D140-B140)</f>
+        <v>43.853658536601337</v>
+      </c>
       <c r="D141">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>59355.853658536602</v>
       </c>
       <c r="E141">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>182.414634146342</v>
       </c>
       <c r="F141">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>139.74796747967534</v>
       </c>
       <c r="G141">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <v>154.12891986062772</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <f t="shared" si="10"/>
         <v>44044</v>
       </c>
+      <c r="B142">
+        <v>59458</v>
+      </c>
+      <c r="C142">
+        <f>C111+(D141-B141)</f>
+        <v>45.268292682943333</v>
+      </c>
       <c r="D142">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>59503.268292682944</v>
       </c>
       <c r="E142">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>147.414634146342</v>
       </c>
       <c r="F142">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>151.08130081300865</v>
       </c>
       <c r="G142">
         <f t="shared" si="13"/>
+        <v>150.55749128919913</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <f t="shared" si="10"/>
+        <v>44045</v>
+      </c>
+      <c r="B143">
+        <v>59599</v>
+      </c>
+      <c r="C143">
+        <f>C111+(D142-B142)</f>
+        <v>46.682926829285329</v>
+      </c>
+      <c r="D143">
+        <f t="shared" ref="D143:D177" si="15">B143+C143</f>
+        <v>59645.682926829286</v>
+      </c>
+      <c r="E143">
+        <f t="shared" ref="E143:E177" si="16">D143-D142</f>
+        <v>142.414634146342</v>
+      </c>
+      <c r="F143">
+        <f t="shared" ref="F143:F177" si="17">(E141+E142+E143)/3</f>
+        <v>157.414634146342</v>
+      </c>
+      <c r="G143">
+        <f t="shared" ref="G143:G177" si="18">(E137+E138+E139+E140+E141+E142+E143)/7</f>
+        <v>146.55749128919913</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <f t="shared" si="10"/>
+        <v>44046</v>
+      </c>
+      <c r="B144">
+        <v>59722</v>
+      </c>
+      <c r="C144">
+        <f>C111+(D143-B143)</f>
+        <v>48.097560975627324</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="15"/>
+        <v>59770.097560975628</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="16"/>
+        <v>124.414634146342</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="17"/>
+        <v>138.08130081300865</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="18"/>
+        <v>143.414634146342</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <f t="shared" si="10"/>
+        <v>44047</v>
+      </c>
+      <c r="B145">
+        <v>59845</v>
+      </c>
+      <c r="C145">
+        <f>C111+(D144-B144)</f>
+        <v>49.51219512196932</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="15"/>
+        <v>59894.51219512197</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="16"/>
+        <v>124.414634146342</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="17"/>
+        <v>130.414634146342</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="18"/>
+        <v>136.84320557491341</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <f t="shared" si="10"/>
+        <v>44048</v>
+      </c>
+      <c r="B146">
+        <v>60000</v>
+      </c>
+      <c r="C146">
+        <f>C111+(D145-B145)</f>
+        <v>50.926829268311316</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="15"/>
+        <v>60050.926829268312</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="16"/>
+        <v>156.414634146342</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="17"/>
+        <v>135.08130081300865</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="18"/>
+        <v>142.98606271777058</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <f t="shared" si="10"/>
+        <v>44049</v>
+      </c>
+      <c r="B147">
+        <v>60133</v>
+      </c>
+      <c r="C147">
+        <f>C111+(D146-B146)</f>
+        <v>52.341463414653312</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="15"/>
+        <v>60185.341463414654</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="16"/>
+        <v>134.414634146342</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="17"/>
+        <v>138.414634146342</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="18"/>
+        <v>144.55749128919913</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <f t="shared" si="10"/>
+        <v>44050</v>
+      </c>
+      <c r="B148">
+        <v>60241</v>
+      </c>
+      <c r="C148">
+        <f>C111+(D147-B147)</f>
+        <v>53.756097560995308</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="15"/>
+        <v>60294.756097560996</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="16"/>
+        <v>109.414634146342</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="17"/>
+        <v>133.414634146342</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="18"/>
+        <v>134.12891986062772</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <f t="shared" si="10"/>
+        <v>44051</v>
+      </c>
+      <c r="B149">
+        <v>60367</v>
+      </c>
+      <c r="C149">
+        <f>C111+(D148-B148)</f>
+        <v>55.170731707337303</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="15"/>
+        <v>60422.170731707338</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="16"/>
+        <v>127.414634146342</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="17"/>
+        <v>123.74796747967532</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="18"/>
+        <v>131.27177700348486</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <f t="shared" si="10"/>
+        <v>44052</v>
+      </c>
+      <c r="B150">
+        <v>60471</v>
+      </c>
+      <c r="C150">
+        <f>C111+(D149-B149)</f>
+        <v>56.585365853679299</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="15"/>
+        <v>60527.58536585368</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="16"/>
+        <v>105.414634146342</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="17"/>
+        <v>114.08130081300867</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="18"/>
+        <v>125.98606271777057</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <f t="shared" si="10"/>
+        <v>44053</v>
+      </c>
+      <c r="B151">
+        <v>60569</v>
+      </c>
+      <c r="C151">
+        <f>C111+(D150-B150)</f>
+        <v>58.000000000021295</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="15"/>
+        <v>60627.000000000022</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="16"/>
+        <v>99.414634146341996</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="17"/>
+        <v>110.74796747967532</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="18"/>
+        <v>122.414634146342</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <f t="shared" ref="A152:A215" si="19">$A151+1</f>
+        <v>44054</v>
+      </c>
+      <c r="B152">
+        <v>60718</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="15"/>
+        <v>60718</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="16"/>
+        <v>90.999999999978172</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="17"/>
+        <v>98.609756097554055</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="18"/>
+        <v>117.64111498257573</v>
+      </c>
+      <c r="H152">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <f t="shared" si="19"/>
+        <v>44055</v>
+      </c>
+      <c r="B153">
+        <v>60813</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="15"/>
+        <v>60813</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="16"/>
+        <v>95</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="17"/>
+        <v>95.138211382106718</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="18"/>
+        <v>108.86759581881259</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <f t="shared" si="19"/>
+        <v>44056</v>
+      </c>
+      <c r="B154">
+        <v>60917</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="15"/>
+        <v>60917</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="16"/>
+        <v>104</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="17"/>
+        <v>96.666666666659395</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="18"/>
+        <v>104.52264808362088</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <f t="shared" si="19"/>
+        <v>44057</v>
+      </c>
+      <c r="B155">
+        <v>61004</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="15"/>
+        <v>61004</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="16"/>
+        <v>87</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="17"/>
+        <v>95.333333333333329</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="18"/>
+        <v>101.32055749128631</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <f t="shared" si="19"/>
+        <v>44058</v>
+      </c>
+      <c r="B156">
+        <v>61084</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="15"/>
+        <v>61084</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="17"/>
+        <v>90.333333333333329</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="18"/>
+        <v>94.547038327523168</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <f t="shared" si="19"/>
+        <v>44059</v>
+      </c>
+      <c r="B157">
+        <v>61151</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="15"/>
+        <v>61151</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="16"/>
+        <v>67</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="17"/>
+        <v>78</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="18"/>
+        <v>89.059233449474306</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <f t="shared" si="19"/>
+        <v>44060</v>
+      </c>
+      <c r="B158">
+        <v>61206</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="15"/>
+        <v>61206</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="16"/>
+        <v>55</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="17"/>
+        <v>67.333333333333329</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="18"/>
+        <v>82.714285714282596</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <f t="shared" si="19"/>
+        <v>44061</v>
+      </c>
+      <c r="B159">
+        <v>61252</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="15"/>
+        <v>61252</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="16"/>
+        <v>46</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="17"/>
+        <v>56</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="18"/>
+        <v>76.285714285714292</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <f t="shared" si="19"/>
+        <v>44062</v>
+      </c>
+      <c r="B160">
+        <v>61316</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="15"/>
+        <v>61316</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="16"/>
+        <v>64</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="17"/>
+        <v>55</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="18"/>
+        <v>71.857142857142861</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <f t="shared" si="19"/>
+        <v>44063</v>
+      </c>
+      <c r="B161">
+        <v>61402</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="15"/>
+        <v>61402</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="16"/>
+        <v>86</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="17"/>
+        <v>65.333333333333329</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="18"/>
+        <v>69.285714285714292</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <f t="shared" si="19"/>
+        <v>44064</v>
+      </c>
+      <c r="B162">
+        <v>61495</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="15"/>
+        <v>61495</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="16"/>
+        <v>93</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="17"/>
+        <v>81</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="18"/>
+        <v>70.142857142857139</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <f t="shared" si="19"/>
+        <v>44065</v>
+      </c>
+      <c r="B163">
+        <v>61599</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="15"/>
+        <v>61599</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="16"/>
+        <v>104</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="17"/>
+        <v>94.333333333333329</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="18"/>
+        <v>73.571428571428569</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <f t="shared" si="19"/>
+        <v>44066</v>
+      </c>
+      <c r="B164">
+        <v>61673</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="15"/>
+        <v>61673</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="16"/>
+        <v>74</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="17"/>
+        <v>90.333333333333329</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="18"/>
+        <v>74.571428571428569</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <f t="shared" si="19"/>
+        <v>44067</v>
+      </c>
+      <c r="B165">
+        <v>61741</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="15"/>
+        <v>61741</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="16"/>
+        <v>68</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="17"/>
+        <v>82</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="18"/>
+        <v>76.428571428571431</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <f t="shared" si="19"/>
+        <v>44068</v>
+      </c>
+      <c r="B166">
+        <v>61803</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="15"/>
+        <v>61803</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="16"/>
+        <v>62</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="17"/>
+        <v>68</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="18"/>
+        <v>78.714285714285708</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <f t="shared" si="19"/>
+        <v>44069</v>
+      </c>
+      <c r="B167">
+        <v>61945</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="15"/>
+        <v>61945</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="16"/>
+        <v>142</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="17"/>
+        <v>90.666666666666671</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="18"/>
+        <v>89.857142857142861</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <f t="shared" si="19"/>
+        <v>44070</v>
+      </c>
+      <c r="B168">
+        <v>62056</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="15"/>
+        <v>62056</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="16"/>
+        <v>111</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="17"/>
+        <v>105</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="18"/>
+        <v>93.428571428571431</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <f t="shared" si="19"/>
+        <v>44071</v>
+      </c>
+      <c r="B169">
+        <v>62124</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="15"/>
+        <v>62124</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="16"/>
+        <v>68</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="17"/>
+        <v>107</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="18"/>
+        <v>89.857142857142861</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <f t="shared" si="19"/>
+        <v>44072</v>
+      </c>
+      <c r="B170">
+        <v>62232</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="15"/>
+        <v>62232</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="16"/>
+        <v>108</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="17"/>
+        <v>95.666666666666671</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="18"/>
+        <v>90.428571428571431</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <f t="shared" si="19"/>
+        <v>44073</v>
+      </c>
+      <c r="B171">
+        <v>62352</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="15"/>
+        <v>62352</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="16"/>
+        <v>120</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="17"/>
+        <v>98.666666666666671</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="18"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <f t="shared" si="19"/>
+        <v>44074</v>
+      </c>
+      <c r="B172">
+        <v>62492</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="15"/>
+        <v>62492</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="16"/>
+        <v>140</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="17"/>
+        <v>122.66666666666667</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="18"/>
+        <v>107.28571428571429</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <f t="shared" si="19"/>
+        <v>44075</v>
+      </c>
+      <c r="B173">
+        <v>62614</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="15"/>
+        <v>62614</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="16"/>
+        <v>122</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="17"/>
+        <v>127.33333333333333</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="18"/>
+        <v>115.85714285714286</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <f t="shared" si="19"/>
+        <v>44076</v>
+      </c>
+      <c r="B174">
+        <v>62746</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="15"/>
+        <v>62746</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="16"/>
+        <v>132</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="17"/>
+        <v>131.33333333333334</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="18"/>
+        <v>114.42857142857143</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <f t="shared" si="19"/>
+        <v>44077</v>
+      </c>
+      <c r="B175">
+        <v>62933</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="15"/>
+        <v>62933</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="16"/>
+        <v>187</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="17"/>
+        <v>147</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="18"/>
+        <v>125.28571428571429</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <f t="shared" si="19"/>
+        <v>44078</v>
+      </c>
+      <c r="B176">
+        <v>63117</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="15"/>
+        <v>63117</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="16"/>
+        <v>184</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="17"/>
+        <v>167.66666666666666</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="18"/>
+        <v>141.85714285714286</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <f t="shared" si="19"/>
+        <v>44079</v>
+      </c>
+      <c r="B177">
+        <v>63292</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="15"/>
+        <v>63292</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="16"/>
+        <v>175</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="17"/>
+        <v>182</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="18"/>
+        <v>151.42857142857142</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <f t="shared" si="19"/>
+        <v>44080</v>
+      </c>
+      <c r="B178">
+        <v>63497</v>
+      </c>
+      <c r="D178">
+        <f t="shared" ref="D178" si="20">B178+C178</f>
+        <v>63497</v>
+      </c>
+      <c r="E178">
+        <f t="shared" ref="E178" si="21">D178-D177</f>
+        <v>205</v>
+      </c>
+      <c r="F178">
+        <f t="shared" ref="F178" si="22">(E176+E177+E178)/3</f>
+        <v>188</v>
+      </c>
+      <c r="G178">
+        <f t="shared" ref="G178" si="23">(E172+E173+E174+E175+E176+E177+E178)/7</f>
+        <v>163.57142857142858</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <f t="shared" si="19"/>
+        <v>44081</v>
+      </c>
+      <c r="B179">
+        <v>63713</v>
+      </c>
+      <c r="D179">
+        <f t="shared" ref="D179:D242" si="24">B179+C179</f>
+        <v>63713</v>
+      </c>
+      <c r="E179">
+        <f t="shared" ref="E179:E242" si="25">D179-D178</f>
+        <v>216</v>
+      </c>
+      <c r="F179">
+        <f t="shared" ref="F179:F242" si="26">(E177+E178+E179)/3</f>
+        <v>198.66666666666666</v>
+      </c>
+      <c r="G179">
+        <f t="shared" ref="G179:G242" si="27">(E173+E174+E175+E176+E177+E178+E179)/7</f>
+        <v>174.42857142857142</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <f t="shared" si="19"/>
+        <v>44082</v>
+      </c>
+      <c r="B180">
+        <v>63876</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="24"/>
+        <v>63876</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="25"/>
+        <v>163</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="26"/>
+        <v>194.66666666666666</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="27"/>
+        <v>180.28571428571428</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <f t="shared" si="19"/>
+        <v>44083</v>
+      </c>
+      <c r="B181">
+        <v>64056</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="24"/>
+        <v>64056</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="25"/>
+        <v>180</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="26"/>
+        <v>186.33333333333334</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="27"/>
+        <v>187.14285714285714</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <f t="shared" si="19"/>
+        <v>44084</v>
+      </c>
+      <c r="B182">
+        <v>64244</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="24"/>
+        <v>64244</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="25"/>
+        <v>188</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="26"/>
+        <v>177</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="27"/>
+        <v>187.28571428571428</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <f t="shared" si="19"/>
+        <v>44085</v>
+      </c>
+      <c r="B183">
+        <v>64463</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="24"/>
+        <v>64463</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="25"/>
+        <v>219</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="26"/>
+        <v>195.66666666666666</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="27"/>
+        <v>192.28571428571428</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <f t="shared" si="19"/>
+        <v>44086</v>
+      </c>
+      <c r="B184">
+        <v>64707</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="24"/>
+        <v>64707</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="25"/>
+        <v>244</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="26"/>
+        <v>217</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="27"/>
+        <v>202.14285714285714</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <f t="shared" si="19"/>
+        <v>44087</v>
+      </c>
+      <c r="B185">
+        <v>64986</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="24"/>
+        <v>64986</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="25"/>
+        <v>279</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="26"/>
+        <v>247.33333333333334</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="27"/>
+        <v>212.71428571428572</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <f t="shared" si="19"/>
+        <v>44088</v>
+      </c>
+      <c r="B186">
+        <v>65262</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="24"/>
+        <v>65262</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="25"/>
+        <v>276</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="26"/>
+        <v>266.33333333333331</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="27"/>
+        <v>221.28571428571428</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <f t="shared" si="19"/>
+        <v>44089</v>
+      </c>
+      <c r="B187">
+        <v>65554</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="24"/>
+        <v>65554</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="25"/>
+        <v>292</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="26"/>
+        <v>282.33333333333331</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="27"/>
+        <v>239.71428571428572</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <f t="shared" si="19"/>
+        <v>44090</v>
+      </c>
+      <c r="B188">
+        <v>65857</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="24"/>
+        <v>65857</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="25"/>
+        <v>303</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="26"/>
+        <v>290.33333333333331</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="27"/>
+        <v>257.28571428571428</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <f t="shared" si="19"/>
+        <v>44091</v>
+      </c>
+      <c r="B189">
+        <v>66356</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="24"/>
+        <v>66356</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="25"/>
+        <v>499</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="26"/>
+        <v>364.66666666666669</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="27"/>
+        <v>301.71428571428572</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <f t="shared" si="19"/>
+        <v>44092</v>
+      </c>
+      <c r="B190">
+        <v>66653</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="24"/>
+        <v>66653</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="25"/>
+        <v>297</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="26"/>
+        <v>366.33333333333331</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="27"/>
+        <v>312.85714285714283</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <f t="shared" si="19"/>
+        <v>44093</v>
+      </c>
+      <c r="B191">
+        <v>67080</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="24"/>
+        <v>67080</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="25"/>
+        <v>427</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="26"/>
+        <v>407.66666666666669</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="27"/>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <f t="shared" si="19"/>
+        <v>44094</v>
+      </c>
+      <c r="B192">
+        <v>67542</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="24"/>
+        <v>67542</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="25"/>
+        <v>462</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="26"/>
+        <v>395.33333333333331</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="27"/>
+        <v>365.14285714285717</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <f t="shared" si="19"/>
+        <v>44095</v>
+      </c>
+      <c r="B193">
+        <v>68128</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="24"/>
+        <v>68128</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="25"/>
+        <v>586</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="26"/>
+        <v>491.66666666666669</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="27"/>
+        <v>409.42857142857144</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <f t="shared" si="19"/>
+        <v>44096</v>
+      </c>
+      <c r="B194">
+        <v>68617</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="24"/>
+        <v>68617</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="25"/>
+        <v>489</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="26"/>
+        <v>512.33333333333337</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="27"/>
+        <v>437.57142857142856</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <f t="shared" si="19"/>
+        <v>44097</v>
+      </c>
+      <c r="B195">
+        <v>69088</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="24"/>
+        <v>69088</v>
+      </c>
+      <c r="E195">
+        <f t="shared" si="25"/>
+        <v>471</v>
+      </c>
+      <c r="F195">
+        <f t="shared" si="26"/>
+        <v>515.33333333333337</v>
+      </c>
+      <c r="G195">
+        <f t="shared" si="27"/>
+        <v>461.57142857142856</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <f t="shared" si="19"/>
+        <v>44098</v>
+      </c>
+      <c r="B196">
+        <v>69670</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="24"/>
+        <v>69670</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="25"/>
+        <v>582</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="26"/>
+        <v>514</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="27"/>
+        <v>473.42857142857144</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <f t="shared" si="19"/>
+        <v>44099</v>
+      </c>
+      <c r="B197">
+        <v>70307</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="24"/>
+        <v>70307</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="25"/>
+        <v>637</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="26"/>
+        <v>563.33333333333337</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="27"/>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <f t="shared" si="19"/>
+        <v>44100</v>
+      </c>
+      <c r="B198">
+        <v>71005</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="24"/>
+        <v>71005</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="25"/>
+        <v>698</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="26"/>
+        <v>639</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="27"/>
+        <v>560.71428571428567</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <f t="shared" si="19"/>
+        <v>44101</v>
+      </c>
+      <c r="B199">
+        <v>71901</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="24"/>
+        <v>71901</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="25"/>
+        <v>896</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="26"/>
+        <v>743.66666666666663</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="27"/>
+        <v>622.71428571428567</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <f t="shared" si="19"/>
+        <v>44102</v>
+      </c>
+      <c r="B200">
+        <v>72651</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="24"/>
+        <v>72651</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="25"/>
+        <v>750</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="26"/>
+        <v>781.33333333333337</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="27"/>
+        <v>646.14285714285711</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <f t="shared" si="19"/>
+        <v>44103</v>
+      </c>
+      <c r="B201">
+        <v>73450</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="24"/>
+        <v>73450</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="25"/>
+        <v>799</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="26"/>
+        <v>815</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="27"/>
+        <v>690.42857142857144</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <f t="shared" si="19"/>
+        <v>44104</v>
+      </c>
+      <c r="B202">
+        <v>74288</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="24"/>
+        <v>74288</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="25"/>
+        <v>838</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="26"/>
+        <v>795.66666666666663</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="27"/>
+        <v>742.85714285714289</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <f t="shared" si="19"/>
+        <v>44105</v>
+      </c>
+      <c r="B203">
+        <v>75221</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="24"/>
+        <v>75221</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="25"/>
+        <v>933</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="26"/>
+        <v>856.66666666666663</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="27"/>
+        <v>793</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <f t="shared" si="19"/>
+        <v>44106</v>
+      </c>
+      <c r="B204">
+        <v>76273</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="24"/>
+        <v>76273</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="25"/>
+        <v>1052</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="26"/>
+        <v>941</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="27"/>
+        <v>852.28571428571433</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <f t="shared" si="19"/>
+        <v>44107</v>
+      </c>
+      <c r="B205">
+        <v>77380</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="24"/>
+        <v>77380</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="25"/>
+        <v>1107</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="26"/>
+        <v>1030.6666666666667</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="27"/>
+        <v>910.71428571428567</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <f t="shared" si="19"/>
+        <v>44108</v>
+      </c>
+      <c r="B206">
+        <v>78459</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="24"/>
+        <v>78459</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="25"/>
+        <v>1079</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="26"/>
+        <v>1079.3333333333333</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="27"/>
+        <v>936.85714285714289</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <f t="shared" si="19"/>
+        <v>44109</v>
+      </c>
+      <c r="B207">
+        <v>79650</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="24"/>
+        <v>79650</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="25"/>
+        <v>1191</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="26"/>
+        <v>1125.6666666666667</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="27"/>
+        <v>999.85714285714289</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <f t="shared" si="19"/>
+        <v>44110</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="25"/>
+        <v>-79650</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="26"/>
+        <v>-25793.333333333332</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="27"/>
+        <v>-10492.857142857143</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <f t="shared" si="19"/>
+        <v>44111</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="26"/>
+        <v>-26153</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="27"/>
+        <v>-10612.571428571429</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <f t="shared" si="19"/>
+        <v>44112</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="26"/>
+        <v>-26550</v>
+      </c>
+      <c r="G210">
+        <f t="shared" si="27"/>
+        <v>-10745.857142857143</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <f t="shared" si="19"/>
+        <v>44113</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="27"/>
+        <v>-10896.142857142857</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <f t="shared" si="19"/>
+        <v>44114</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="27"/>
+        <v>-11054.285714285714</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <f t="shared" si="19"/>
+        <v>44115</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="27"/>
+        <v>-11208.428571428571</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <f t="shared" si="19"/>
+        <v>44116</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="27"/>
+        <v>-11378.571428571429</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <f t="shared" si="19"/>
+        <v>44117</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <f t="shared" ref="A216:A279" si="28">$A215+1</f>
+        <v>44118</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <f t="shared" si="28"/>
+        <v>44119</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <f t="shared" si="28"/>
+        <v>44120</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <f t="shared" si="28"/>
+        <v>44121</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <f t="shared" si="28"/>
+        <v>44122</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <f t="shared" si="28"/>
+        <v>44123</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <f t="shared" si="28"/>
+        <v>44124</v>
+      </c>
+      <c r="D222">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <f t="shared" si="28"/>
+        <v>44125</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <f t="shared" si="28"/>
+        <v>44126</v>
+      </c>
+      <c r="D224">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <f t="shared" si="28"/>
+        <v>44127</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <f t="shared" si="28"/>
+        <v>44128</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <f t="shared" si="28"/>
+        <v>44129</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <f t="shared" si="28"/>
+        <v>44130</v>
+      </c>
+      <c r="D228">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <f t="shared" si="28"/>
+        <v>44131</v>
+      </c>
+      <c r="D229">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <f t="shared" si="28"/>
+        <v>44132</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <f t="shared" si="28"/>
+        <v>44133</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <f t="shared" si="28"/>
+        <v>44134</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <f t="shared" si="28"/>
+        <v>44135</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <f t="shared" si="28"/>
+        <v>44136</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <f t="shared" si="28"/>
+        <v>44137</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <f t="shared" si="28"/>
+        <v>44138</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <f t="shared" si="28"/>
+        <v>44139</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <f t="shared" si="28"/>
+        <v>44140</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <f t="shared" si="28"/>
+        <v>44141</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <f t="shared" si="28"/>
+        <v>44142</v>
+      </c>
+      <c r="D240">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <f t="shared" si="28"/>
+        <v>44143</v>
+      </c>
+      <c r="D241">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <f t="shared" si="28"/>
+        <v>44144</v>
+      </c>
+      <c r="D242">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <f t="shared" si="28"/>
+        <v>44145</v>
+      </c>
+      <c r="D243">
+        <f t="shared" ref="D243:D300" si="29">B243+C243</f>
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <f t="shared" ref="E243:E300" si="30">D243-D242</f>
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <f t="shared" ref="F243:F300" si="31">(E241+E242+E243)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <f t="shared" ref="G243:G300" si="32">(E237+E238+E239+E240+E241+E242+E243)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <f t="shared" si="28"/>
+        <v>44146</v>
+      </c>
+      <c r="D244">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F244">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <f t="shared" si="28"/>
+        <v>44147</v>
+      </c>
+      <c r="D245">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <f t="shared" si="28"/>
+        <v>44148</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F246">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <f t="shared" si="28"/>
+        <v>44149</v>
+      </c>
+      <c r="D247">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F247">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <f t="shared" si="28"/>
+        <v>44150</v>
+      </c>
+      <c r="D248">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F248">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <f t="shared" si="28"/>
+        <v>44151</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F249">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <f t="shared" si="28"/>
+        <v>44152</v>
+      </c>
+      <c r="D250">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <f t="shared" si="28"/>
+        <v>44153</v>
+      </c>
+      <c r="D251">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <f t="shared" si="28"/>
+        <v>44154</v>
+      </c>
+      <c r="D252">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <f t="shared" si="28"/>
+        <v>44155</v>
+      </c>
+      <c r="D253">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F253">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <f t="shared" si="28"/>
+        <v>44156</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <f t="shared" si="28"/>
+        <v>44157</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <f t="shared" si="28"/>
+        <v>44158</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <f t="shared" si="28"/>
+        <v>44159</v>
+      </c>
+      <c r="D257">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <f t="shared" si="28"/>
+        <v>44160</v>
+      </c>
+      <c r="D258">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <f t="shared" si="28"/>
+        <v>44161</v>
+      </c>
+      <c r="D259">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <f t="shared" si="28"/>
+        <v>44162</v>
+      </c>
+      <c r="D260">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <f t="shared" si="28"/>
+        <v>44163</v>
+      </c>
+      <c r="D261">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <f t="shared" si="28"/>
+        <v>44164</v>
+      </c>
+      <c r="D262">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <f t="shared" si="28"/>
+        <v>44165</v>
+      </c>
+      <c r="D263">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <f t="shared" si="28"/>
+        <v>44166</v>
+      </c>
+      <c r="D264">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <f t="shared" si="28"/>
+        <v>44167</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <f t="shared" si="28"/>
+        <v>44168</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <f t="shared" si="28"/>
+        <v>44169</v>
+      </c>
+      <c r="D267">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <f t="shared" si="28"/>
+        <v>44170</v>
+      </c>
+      <c r="D268">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <f t="shared" si="28"/>
+        <v>44171</v>
+      </c>
+      <c r="D269">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <f t="shared" si="28"/>
+        <v>44172</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F270">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <f t="shared" si="28"/>
+        <v>44173</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <f t="shared" si="28"/>
+        <v>44174</v>
+      </c>
+      <c r="D272">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E272">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <f t="shared" si="28"/>
+        <v>44175</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <f t="shared" si="28"/>
+        <v>44176</v>
+      </c>
+      <c r="D274">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <f t="shared" si="28"/>
+        <v>44177</v>
+      </c>
+      <c r="D275">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <f t="shared" si="28"/>
+        <v>44178</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <f t="shared" si="28"/>
+        <v>44179</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <f t="shared" si="28"/>
+        <v>44180</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <f t="shared" si="28"/>
+        <v>44181</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <f t="shared" ref="A280:A300" si="33">$A279+1</f>
+        <v>44182</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <f t="shared" si="33"/>
+        <v>44183</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <f t="shared" si="33"/>
+        <v>44184</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <f t="shared" si="33"/>
+        <v>44185</v>
+      </c>
+      <c r="D283">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <f t="shared" si="33"/>
+        <v>44186</v>
+      </c>
+      <c r="D284">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <f t="shared" si="33"/>
+        <v>44187</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <f t="shared" si="33"/>
+        <v>44188</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <f t="shared" si="33"/>
+        <v>44189</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E287">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <f t="shared" si="33"/>
+        <v>44190</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <f t="shared" si="33"/>
+        <v>44191</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <f t="shared" si="33"/>
+        <v>44192</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <f t="shared" si="33"/>
+        <v>44193</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E291">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <f t="shared" si="33"/>
+        <v>44194</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <f t="shared" si="33"/>
+        <v>44195</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <f t="shared" si="33"/>
+        <v>44196</v>
+      </c>
+      <c r="D294">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <f t="shared" si="33"/>
+        <v>44197</v>
+      </c>
+      <c r="D295">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G295">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <f t="shared" si="33"/>
+        <v>44198</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <f t="shared" si="33"/>
+        <v>44199</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <f t="shared" si="33"/>
+        <v>44200</v>
+      </c>
+      <c r="D298">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <f t="shared" si="33"/>
+        <v>44201</v>
+      </c>
+      <c r="D299">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <f t="shared" si="33"/>
+        <v>44202</v>
+      </c>
+      <c r="D300">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="F300">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="G300">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>

--- a/NombreDeCas.xlsx
+++ b/NombreDeCas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jos\Documents\Viviane\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jos\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -198,10 +198,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$11:$A$207</c:f>
+              <c:f>Feuil1!$A$11:$A$211</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="201"/>
                 <c:pt idx="0">
                   <c:v>43913</c:v>
                 </c:pt>
@@ -792,16 +792,28 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$D$11:$D$207</c:f>
+              <c:f>Feuil1!$D$11:$D$211</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="197"/>
+                <c:ptCount val="201"/>
                 <c:pt idx="0">
                   <c:v>628</c:v>
                 </c:pt>
@@ -1392,6 +1404,18 @@
                 </c:pt>
                 <c:pt idx="196">
                   <c:v>79650</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>81014</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>81914</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>82992</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>84094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1658,10 +1682,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$3:$A$207</c:f>
+              <c:f>Feuil1!$A$3:$A$211</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="205"/>
+                <c:ptCount val="209"/>
                 <c:pt idx="0">
                   <c:v>43905</c:v>
                 </c:pt>
@@ -2276,16 +2300,28 @@
                 </c:pt>
                 <c:pt idx="204">
                   <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$E$3:$E$207</c:f>
+              <c:f>Feuil1!$E$3:$E$211</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="205"/>
+                <c:ptCount val="209"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -2900,6 +2936,18 @@
                 </c:pt>
                 <c:pt idx="204">
                   <c:v>1191</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1364</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1078</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3172,10 +3220,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$5:$A$207</c:f>
+              <c:f>Feuil1!$A$5:$A$211</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="203"/>
+                <c:ptCount val="207"/>
                 <c:pt idx="0">
                   <c:v>43907</c:v>
                 </c:pt>
@@ -3784,16 +3832,28 @@
                 </c:pt>
                 <c:pt idx="202">
                   <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$5:$F$207</c:f>
+              <c:f>Feuil1!$F$5:$F$211</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="203"/>
+                <c:ptCount val="207"/>
                 <c:pt idx="0">
                   <c:v>16.666666666666668</c:v>
                 </c:pt>
@@ -4402,6 +4462,18 @@
                 </c:pt>
                 <c:pt idx="202">
                   <c:v>1125.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1211.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1151.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1114</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1026.6666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4683,10 +4755,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$9:$A$207</c:f>
+              <c:f>Feuil1!$A$9:$A$211</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="199"/>
+                <c:ptCount val="203"/>
                 <c:pt idx="0">
                   <c:v>43911</c:v>
                 </c:pt>
@@ -5283,16 +5355,28 @@
                 </c:pt>
                 <c:pt idx="198">
                   <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$G$9:$G$207</c:f>
+              <c:f>Feuil1!$G$9:$G$211</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="199"/>
+                <c:ptCount val="203"/>
                 <c:pt idx="0">
                   <c:v>22.428571428571427</c:v>
                 </c:pt>
@@ -5889,6 +5973,18 @@
                 </c:pt>
                 <c:pt idx="198">
                   <c:v>999.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1080.5714285714287</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1089.4285714285713</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1110.1428571428571</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1117.2857142857142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8631,8 +8727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B212" sqref="B212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14067,21 +14163,24 @@
         <f t="shared" si="19"/>
         <v>44110</v>
       </c>
+      <c r="B208">
+        <v>81014</v>
+      </c>
       <c r="D208">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>81014</v>
       </c>
       <c r="E208">
         <f t="shared" si="25"/>
-        <v>-79650</v>
+        <v>1364</v>
       </c>
       <c r="F208">
         <f t="shared" si="26"/>
-        <v>-25793.333333333332</v>
+        <v>1211.3333333333333</v>
       </c>
       <c r="G208">
         <f t="shared" si="27"/>
-        <v>-10492.857142857143</v>
+        <v>1080.5714285714287</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -14089,21 +14188,24 @@
         <f t="shared" si="19"/>
         <v>44111</v>
       </c>
+      <c r="B209">
+        <v>81914</v>
+      </c>
       <c r="D209">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>81914</v>
       </c>
       <c r="E209">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="F209">
         <f t="shared" si="26"/>
-        <v>-26153</v>
+        <v>1151.6666666666667</v>
       </c>
       <c r="G209">
         <f t="shared" si="27"/>
-        <v>-10612.571428571429</v>
+        <v>1089.4285714285713</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -14111,21 +14213,24 @@
         <f t="shared" si="19"/>
         <v>44112</v>
       </c>
+      <c r="B210">
+        <v>82992</v>
+      </c>
       <c r="D210">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>82992</v>
       </c>
       <c r="E210">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1078</v>
       </c>
       <c r="F210">
         <f t="shared" si="26"/>
-        <v>-26550</v>
+        <v>1114</v>
       </c>
       <c r="G210">
         <f t="shared" si="27"/>
-        <v>-10745.857142857143</v>
+        <v>1110.1428571428571</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -14133,21 +14238,24 @@
         <f t="shared" si="19"/>
         <v>44113</v>
       </c>
+      <c r="B211">
+        <v>84094</v>
+      </c>
       <c r="D211">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>84094</v>
       </c>
       <c r="E211">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1102</v>
       </c>
       <c r="F211">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1026.6666666666667</v>
       </c>
       <c r="G211">
         <f t="shared" si="27"/>
-        <v>-10896.142857142857</v>
+        <v>1117.2857142857142</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -14161,11 +14269,11 @@
       </c>
       <c r="E212">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>-84094</v>
       </c>
       <c r="F212">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>-27304.666666666668</v>
       </c>
       <c r="G212">
         <f t="shared" si="27"/>
@@ -14187,7 +14295,7 @@
       </c>
       <c r="F213">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>-27664</v>
       </c>
       <c r="G213">
         <f t="shared" si="27"/>
@@ -14209,7 +14317,7 @@
       </c>
       <c r="F214">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>-28031.333333333332</v>
       </c>
       <c r="G214">
         <f t="shared" si="27"/>
@@ -14235,7 +14343,7 @@
       </c>
       <c r="G215">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-11573.428571428571</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -14257,7 +14365,7 @@
       </c>
       <c r="G216">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-11702</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -14279,7 +14387,7 @@
       </c>
       <c r="G217">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-11856</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -14301,7 +14409,7 @@
       </c>
       <c r="G218">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-12013.428571428571</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">

--- a/NombreDeCas.xlsx
+++ b/NombreDeCas.xlsx
@@ -223,7 +223,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -342,9 +342,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$11:$A$243</c:f>
+              <c:f>Feuil1!$A$11:$A$298</c:f>
               <c:strCache>
-                <c:ptCount val="233"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>23-mars</c:v>
                 </c:pt>
@@ -1043,16 +1043,181 @@
                 </c:pt>
                 <c:pt idx="232">
                   <c:v>10-nov.</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>11-nov.</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>12-nov.</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>13-nov.</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>14-nov.</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>15-nov.</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>16-nov.</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>17-nov.</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>18-nov.</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>19-nov.</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>20-nov.</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>21-nov.</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>22-nov.</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>23-nov.</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>24-nov.</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>25-nov.</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>26-nov.</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>27-nov.</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>28-nov.</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>29-nov.</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>30-nov.</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>01-déc.</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>02-déc.</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>03-déc.</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>04-déc.</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>05-déc.</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>06-déc.</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>07-déc.</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>08-déc.</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>09-déc.</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>10-déc.</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>11-déc.</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>12-déc.</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>13-déc.</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>14-déc.</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>15-déc.</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>16-déc.</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>17-déc.</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>18-déc.</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>19-déc.</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>20-déc.</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>21-déc.</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>22-déc.</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>23-déc.</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>24-déc.</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>25-déc.</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>26-déc.</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>27-déc.</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>28-déc.</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>29-déc.</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>30-déc.</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>31-déc.</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>01-janv.</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>02-janv.</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>03-janv.</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>04-janv.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$D$11:$D$243</c:f>
+              <c:f>Feuil1!$D$11:$D$298</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="233"/>
+                <c:ptCount val="288"/>
                 <c:pt idx="0">
                   <c:v>628</c:v>
                 </c:pt>
@@ -1751,6 +1916,171 @@
                 </c:pt>
                 <c:pt idx="232">
                   <c:v>117151</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>118529</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>119894</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>121195</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>122643</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>123854</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>125072</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>126054</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>127233</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>128440</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>129699</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>130888</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>132042</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>133206</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>134330</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>135430</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>136894</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>138163</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>139643</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>141038</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>142371</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>143548</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>145062</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>146532</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>147877</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>149908</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>151599</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>153176</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>154740</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>156468</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>158310</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>160023</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>161921</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>163915</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>165535</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>167276</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>169173</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>171028</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>172801</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>174839</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>176985</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>179093</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>181276</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>183523</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>185872</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>188118</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>190364</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>192655</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>194930</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>197311</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>199822</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>202641</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>205449</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>207435</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>210304</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>212850</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1758,11 +2088,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="61700767"/>
-        <c:axId val="11778487"/>
+        <c:axId val="5257190"/>
+        <c:axId val="79032723"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61700767"/>
+        <c:axId val="5257190"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1794,7 +2124,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11778487"/>
+        <c:crossAx val="79032723"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1802,7 +2132,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11778487"/>
+        <c:axId val="79032723"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1841,7 +2171,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61700767"/>
+        <c:crossAx val="5257190"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1869,7 +2199,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1952,9 +2282,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$3:$A$243</c:f>
+              <c:f>Feuil1!$A$3:$A$298</c:f>
               <c:strCache>
-                <c:ptCount val="241"/>
+                <c:ptCount val="296"/>
                 <c:pt idx="0">
                   <c:v>15-mars</c:v>
                 </c:pt>
@@ -2677,16 +3007,181 @@
                 </c:pt>
                 <c:pt idx="240">
                   <c:v>10-nov.</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>11-nov.</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>12-nov.</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>13-nov.</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>14-nov.</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>15-nov.</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>16-nov.</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>17-nov.</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>18-nov.</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>19-nov.</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>20-nov.</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>21-nov.</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>22-nov.</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>23-nov.</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>24-nov.</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>25-nov.</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>26-nov.</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>27-nov.</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>28-nov.</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>29-nov.</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>30-nov.</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>01-déc.</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>02-déc.</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>03-déc.</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>04-déc.</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>05-déc.</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>06-déc.</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>07-déc.</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>08-déc.</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>09-déc.</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>10-déc.</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>11-déc.</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>12-déc.</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>13-déc.</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>14-déc.</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>15-déc.</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>16-déc.</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>17-déc.</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>18-déc.</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>19-déc.</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>20-déc.</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>21-déc.</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>22-déc.</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>23-déc.</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>24-déc.</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>25-déc.</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>26-déc.</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>27-déc.</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>28-déc.</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>29-déc.</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>30-déc.</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>31-déc.</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>01-janv.</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>02-janv.</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>03-janv.</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>04-janv.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$E$3:$E$243</c:f>
+              <c:f>Feuil1!$E$3:$E$298</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="241"/>
+                <c:ptCount val="296"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -3409,6 +3904,171 @@
                 </c:pt>
                 <c:pt idx="240">
                   <c:v>1162</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1378</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1365</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1448</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1211</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1218</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>982</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1207</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1259</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1189</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1154</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1164</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1124</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1269</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1395</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1333</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1177</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1514</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1470</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1345</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1691</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1577</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1564</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1728</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1842</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1713</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1898</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1620</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1741</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1897</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1855</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1773</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2146</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2108</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2183</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2247</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2349</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2246</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2246</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2291</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2275</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2381</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2511</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2819</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2808</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2869</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3416,11 +4076,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="39698773"/>
-        <c:axId val="49683796"/>
+        <c:axId val="86187282"/>
+        <c:axId val="49761413"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39698773"/>
+        <c:axId val="86187282"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3452,7 +4112,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49683796"/>
+        <c:crossAx val="49761413"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3460,7 +4120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49683796"/>
+        <c:axId val="49761413"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3499,7 +4159,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39698773"/>
+        <c:crossAx val="86187282"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3527,7 +4187,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3611,9 +4271,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$5:$A$243</c:f>
+              <c:f>Feuil1!$A$5:$A$298</c:f>
               <c:strCache>
-                <c:ptCount val="239"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>17-mars</c:v>
                 </c:pt>
@@ -4330,16 +4990,181 @@
                 </c:pt>
                 <c:pt idx="238">
                   <c:v>10-nov.</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>11-nov.</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>12-nov.</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>13-nov.</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>14-nov.</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>15-nov.</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>16-nov.</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>17-nov.</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>18-nov.</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>19-nov.</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>20-nov.</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>21-nov.</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>22-nov.</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>23-nov.</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>24-nov.</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>25-nov.</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>26-nov.</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>27-nov.</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>28-nov.</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>29-nov.</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>30-nov.</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>01-déc.</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>02-déc.</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>03-déc.</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>04-déc.</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>05-déc.</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>06-déc.</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>07-déc.</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>08-déc.</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>09-déc.</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>10-déc.</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>11-déc.</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>12-déc.</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>13-déc.</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>14-déc.</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>15-déc.</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>16-déc.</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>17-déc.</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>18-déc.</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>19-déc.</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>20-déc.</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>21-déc.</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>22-déc.</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>23-déc.</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>24-déc.</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>25-déc.</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>26-déc.</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>27-déc.</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>28-déc.</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>29-déc.</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>30-déc.</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>31-déc.</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>01-janv.</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>02-janv.</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>03-janv.</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>04-janv.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$5:$F$243</c:f>
+              <c:f>Feuil1!$F$5:$F$298</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="239"/>
+                <c:ptCount val="294"/>
                 <c:pt idx="0">
                   <c:v>16.6666666666667</c:v>
                 </c:pt>
@@ -5056,6 +5881,171 @@
                 </c:pt>
                 <c:pt idx="238">
                   <c:v>1242.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1236.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1301.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1348</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1371.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1292.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1137</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1126.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1122.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1218.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1200.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1169</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1147.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1129.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1229.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1277.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1404.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1381.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1402.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1301.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1341.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1387</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1615.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1689</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1766.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1610.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1623</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1711.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1761</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1817.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1868.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1837.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1785</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1752.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1831</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1841.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1888.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1985.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2097.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2145.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2179.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2259.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2280.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2280.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2261</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2270.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2315.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2389</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2570.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2712.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2537.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2554.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5063,11 +6053,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="21666693"/>
-        <c:axId val="98560636"/>
+        <c:axId val="78820550"/>
+        <c:axId val="8332950"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="21666693"/>
+        <c:axId val="78820550"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5099,7 +6089,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98560636"/>
+        <c:crossAx val="8332950"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5107,7 +6097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98560636"/>
+        <c:axId val="8332950"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5146,7 +6136,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21666693"/>
+        <c:crossAx val="78820550"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5174,7 +6164,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5295,9 +6285,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$9:$A$243</c:f>
+              <c:f>Feuil1!$A$9:$A$298</c:f>
               <c:strCache>
-                <c:ptCount val="235"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>21-mars</c:v>
                 </c:pt>
@@ -6002,16 +6992,181 @@
                 </c:pt>
                 <c:pt idx="234">
                   <c:v>10-nov.</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>11-nov.</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>12-nov.</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>13-nov.</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>14-nov.</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>15-nov.</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>16-nov.</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>17-nov.</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>18-nov.</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>19-nov.</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>20-nov.</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>21-nov.</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>22-nov.</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>23-nov.</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>24-nov.</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>25-nov.</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>26-nov.</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>27-nov.</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>28-nov.</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>29-nov.</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>30-nov.</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>01-déc.</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>02-déc.</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>03-déc.</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>04-déc.</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>05-déc.</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>06-déc.</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>07-déc.</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>08-déc.</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>09-déc.</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>10-déc.</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>11-déc.</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>12-déc.</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>13-déc.</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>14-déc.</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>15-déc.</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>16-déc.</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>17-déc.</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>18-déc.</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>19-déc.</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>20-déc.</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>21-déc.</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>22-déc.</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>23-déc.</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>24-déc.</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>25-déc.</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>26-déc.</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>27-déc.</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>28-déc.</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>29-déc.</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>30-déc.</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>31-déc.</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>01-janv.</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>02-janv.</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>03-janv.</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>04-janv.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$G$9:$G$243</c:f>
+              <c:f>Feuil1!$G$9:$G$298</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="235"/>
+                <c:ptCount val="290"/>
                 <c:pt idx="0">
                   <c:v>22.4285714285714</c:v>
                 </c:pt>
@@ -6716,6 +7871,171 @@
                 </c:pt>
                 <c:pt idx="234">
                   <c:v>1180.28571428571</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1230.14285714286</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1262.57142857143</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1286.57142857143</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1317.14285714286</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1290.57142857143</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1297.57142857143</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1271.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1243.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1220.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1214.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1177.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1169.71428571429</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1162</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1182.28571428571</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1171</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1207.71428571429</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1209.14285714286</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1250.71428571429</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1285.14285714286</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1309.28571428571</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1316.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1376</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1376.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1387.71428571429</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1466.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1508.71428571429</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1543.57142857143</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1598.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1629.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1682.57142857143</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1735.14285714286</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1716.14285714286</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1759.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1765.57142857143</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1790.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1816.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1825.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1845.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1867.14285714286</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1936.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2120.57142857143</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2188.14285714286</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2217.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2238.57142857143</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2262.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2290.71428571429</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2328.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2395.57142857143</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2475.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2438.71428571429</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2521.28571428571</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2560</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6723,11 +8043,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="81107285"/>
-        <c:axId val="8969373"/>
+        <c:axId val="27955286"/>
+        <c:axId val="58841941"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81107285"/>
+        <c:axId val="27955286"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6759,7 +8079,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8969373"/>
+        <c:crossAx val="58841941"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6767,7 +8087,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8969373"/>
+        <c:axId val="58841941"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6806,7 +8126,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81107285"/>
+        <c:crossAx val="27955286"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6841,13 +8161,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>428760</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>3600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>419400</xdr:colOff>
+      <xdr:colOff>402840</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6855,8 +8175,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7926840" y="1716840"/>
-        <a:ext cx="5614200" cy="2733840"/>
+        <a:off x="7926840" y="1717920"/>
+        <a:ext cx="5597640" cy="2717280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6871,13 +8191,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>647640</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>638280</xdr:colOff>
+      <xdr:colOff>621720</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6885,8 +8205,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13769280" y="1726200"/>
-        <a:ext cx="5614200" cy="2733840"/>
+        <a:off x="13769280" y="1727280"/>
+        <a:ext cx="5597640" cy="2717280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6899,15 +8219,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2520</xdr:colOff>
+      <xdr:colOff>3600</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>3600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>744120</xdr:colOff>
+      <xdr:colOff>728640</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6915,8 +8235,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8437680" y="5145840"/>
-        <a:ext cx="10114200" cy="3143520"/>
+        <a:off x="8438760" y="5146920"/>
+        <a:ext cx="10097640" cy="3126960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6929,15 +8249,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2520</xdr:colOff>
+      <xdr:colOff>3600</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>3600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>732600</xdr:colOff>
+      <xdr:colOff>717120</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6945,8 +8265,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8437680" y="8574840"/>
-        <a:ext cx="10102680" cy="3143520"/>
+        <a:off x="8438760" y="8575920"/>
+        <a:ext cx="10086120" cy="3126960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6964,10 +8284,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J300"/>
+  <dimension ref="A1:J330"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C34" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R72" activeCellId="0" sqref="R72"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A301" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B315" activeCellId="0" sqref="B315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13546,21 +14866,24 @@
         <f aca="false">$A243+1</f>
         <v>44146</v>
       </c>
+      <c r="B244" s="0" t="n">
+        <v>118529</v>
+      </c>
       <c r="D244" s="1" t="n">
         <f aca="false">B244+C244</f>
-        <v>0</v>
+        <v>118529</v>
       </c>
       <c r="E244" s="1" t="n">
         <f aca="false">D244-D243</f>
-        <v>-117151</v>
+        <v>1378</v>
       </c>
       <c r="F244" s="1" t="n">
         <f aca="false">(E242+E243+E244)/3</f>
-        <v>-38273.3333333333</v>
+        <v>1236.33333333333</v>
       </c>
       <c r="G244" s="1" t="n">
         <f aca="false">(E238+E239+E240+E241+E242+E243+E244)/7</f>
-        <v>-15702.5714285714</v>
+        <v>1230.14285714286</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13568,21 +14891,24 @@
         <f aca="false">$A244+1</f>
         <v>44147</v>
       </c>
+      <c r="B245" s="0" t="n">
+        <v>119894</v>
+      </c>
       <c r="D245" s="1" t="n">
         <f aca="false">B245+C245</f>
-        <v>0</v>
+        <v>119894</v>
       </c>
       <c r="E245" s="1" t="n">
         <f aca="false">D245-D244</f>
-        <v>0</v>
+        <v>1365</v>
       </c>
       <c r="F245" s="1" t="n">
         <f aca="false">(E243+E244+E245)/3</f>
-        <v>-38663</v>
+        <v>1301.66666666667</v>
       </c>
       <c r="G245" s="1" t="n">
         <f aca="false">(E239+E240+E241+E242+E243+E244+E245)/7</f>
-        <v>-15865.1428571429</v>
+        <v>1262.57142857143</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13590,21 +14916,24 @@
         <f aca="false">$A245+1</f>
         <v>44148</v>
       </c>
+      <c r="B246" s="0" t="n">
+        <v>121195</v>
+      </c>
       <c r="D246" s="1" t="n">
         <f aca="false">B246+C246</f>
-        <v>0</v>
+        <v>121195</v>
       </c>
       <c r="E246" s="1" t="n">
         <f aca="false">D246-D245</f>
-        <v>0</v>
+        <v>1301</v>
       </c>
       <c r="F246" s="1" t="n">
         <f aca="false">(E244+E245+E246)/3</f>
-        <v>-39050.3333333333</v>
+        <v>1348</v>
       </c>
       <c r="G246" s="1" t="n">
         <f aca="false">(E240+E241+E242+E243+E244+E245+E246)/7</f>
-        <v>-16027</v>
+        <v>1286.57142857143</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13612,21 +14941,24 @@
         <f aca="false">$A246+1</f>
         <v>44149</v>
       </c>
+      <c r="B247" s="0" t="n">
+        <v>122643</v>
+      </c>
       <c r="D247" s="1" t="n">
         <f aca="false">B247+C247</f>
-        <v>0</v>
+        <v>122643</v>
       </c>
       <c r="E247" s="1" t="n">
         <f aca="false">D247-D246</f>
-        <v>0</v>
+        <v>1448</v>
       </c>
       <c r="F247" s="1" t="n">
         <f aca="false">(E245+E246+E247)/3</f>
-        <v>0</v>
+        <v>1371.33333333333</v>
       </c>
       <c r="G247" s="1" t="n">
         <f aca="false">(E241+E242+E243+E244+E245+E246+E247)/7</f>
-        <v>-16203.2857142857</v>
+        <v>1317.14285714286</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13634,43 +14966,49 @@
         <f aca="false">$A247+1</f>
         <v>44150</v>
       </c>
+      <c r="B248" s="0" t="n">
+        <v>123854</v>
+      </c>
       <c r="D248" s="1" t="n">
         <f aca="false">B248+C248</f>
-        <v>0</v>
+        <v>123854</v>
       </c>
       <c r="E248" s="1" t="n">
         <f aca="false">D248-D247</f>
-        <v>0</v>
+        <v>1211</v>
       </c>
       <c r="F248" s="1" t="n">
         <f aca="false">(E246+E247+E248)/3</f>
-        <v>0</v>
+        <v>1320</v>
       </c>
       <c r="G248" s="1" t="n">
         <f aca="false">(E242+E243+E244+E245+E246+E247+E248)/7</f>
-        <v>-16402.8571428571</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1290.57142857143</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="2" t="n">
         <f aca="false">$A248+1</f>
         <v>44151</v>
       </c>
+      <c r="B249" s="0" t="n">
+        <v>125072</v>
+      </c>
       <c r="D249" s="1" t="n">
         <f aca="false">B249+C249</f>
-        <v>0</v>
+        <v>125072</v>
       </c>
       <c r="E249" s="1" t="n">
         <f aca="false">D249-D248</f>
-        <v>0</v>
+        <v>1218</v>
       </c>
       <c r="F249" s="1" t="n">
         <f aca="false">(E247+E248+E249)/3</f>
-        <v>0</v>
+        <v>1292.33333333333</v>
       </c>
       <c r="G249" s="1" t="n">
         <f aca="false">(E243+E244+E245+E246+E247+E248+E249)/7</f>
-        <v>-16569.8571428571</v>
+        <v>1297.57142857143</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13678,21 +15016,24 @@
         <f aca="false">$A249+1</f>
         <v>44152</v>
       </c>
+      <c r="B250" s="0" t="n">
+        <v>126054</v>
+      </c>
       <c r="D250" s="1" t="n">
         <f aca="false">B250+C250</f>
-        <v>0</v>
+        <v>126054</v>
       </c>
       <c r="E250" s="1" t="n">
         <f aca="false">D250-D249</f>
-        <v>0</v>
+        <v>982</v>
       </c>
       <c r="F250" s="1" t="n">
         <f aca="false">(E248+E249+E250)/3</f>
-        <v>0</v>
+        <v>1137</v>
       </c>
       <c r="G250" s="1" t="n">
         <f aca="false">(E244+E245+E246+E247+E248+E249+E250)/7</f>
-        <v>-16735.8571428571</v>
+        <v>1271.85714285714</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13700,21 +15041,24 @@
         <f aca="false">$A250+1</f>
         <v>44153</v>
       </c>
+      <c r="B251" s="0" t="n">
+        <v>127233</v>
+      </c>
       <c r="D251" s="1" t="n">
         <f aca="false">B251+C251</f>
-        <v>0</v>
+        <v>127233</v>
       </c>
       <c r="E251" s="1" t="n">
         <f aca="false">D251-D250</f>
-        <v>0</v>
+        <v>1179</v>
       </c>
       <c r="F251" s="1" t="n">
         <f aca="false">(E249+E250+E251)/3</f>
-        <v>0</v>
+        <v>1126.33333333333</v>
       </c>
       <c r="G251" s="1" t="n">
         <f aca="false">(E245+E246+E247+E248+E249+E250+E251)/7</f>
-        <v>0</v>
+        <v>1243.42857142857</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13722,21 +15066,24 @@
         <f aca="false">$A251+1</f>
         <v>44154</v>
       </c>
+      <c r="B252" s="0" t="n">
+        <v>128440</v>
+      </c>
       <c r="D252" s="1" t="n">
         <f aca="false">B252+C252</f>
-        <v>0</v>
+        <v>128440</v>
       </c>
       <c r="E252" s="1" t="n">
         <f aca="false">D252-D251</f>
-        <v>0</v>
+        <v>1207</v>
       </c>
       <c r="F252" s="1" t="n">
         <f aca="false">(E250+E251+E252)/3</f>
-        <v>0</v>
+        <v>1122.66666666667</v>
       </c>
       <c r="G252" s="1" t="n">
         <f aca="false">(E246+E247+E248+E249+E250+E251+E252)/7</f>
-        <v>0</v>
+        <v>1220.85714285714</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13744,21 +15091,24 @@
         <f aca="false">$A252+1</f>
         <v>44155</v>
       </c>
+      <c r="B253" s="0" t="n">
+        <v>129699</v>
+      </c>
       <c r="D253" s="1" t="n">
         <f aca="false">B253+C253</f>
-        <v>0</v>
+        <v>129699</v>
       </c>
       <c r="E253" s="1" t="n">
         <f aca="false">D253-D252</f>
-        <v>0</v>
+        <v>1259</v>
       </c>
       <c r="F253" s="1" t="n">
         <f aca="false">(E251+E252+E253)/3</f>
-        <v>0</v>
+        <v>1215</v>
       </c>
       <c r="G253" s="1" t="n">
         <f aca="false">(E247+E248+E249+E250+E251+E252+E253)/7</f>
-        <v>0</v>
+        <v>1214.85714285714</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13766,21 +15116,24 @@
         <f aca="false">$A253+1</f>
         <v>44156</v>
       </c>
+      <c r="B254" s="0" t="n">
+        <v>130888</v>
+      </c>
       <c r="D254" s="1" t="n">
         <f aca="false">B254+C254</f>
-        <v>0</v>
+        <v>130888</v>
       </c>
       <c r="E254" s="1" t="n">
         <f aca="false">D254-D253</f>
-        <v>0</v>
+        <v>1189</v>
       </c>
       <c r="F254" s="1" t="n">
         <f aca="false">(E252+E253+E254)/3</f>
-        <v>0</v>
+        <v>1218.33333333333</v>
       </c>
       <c r="G254" s="1" t="n">
         <f aca="false">(E248+E249+E250+E251+E252+E253+E254)/7</f>
-        <v>0</v>
+        <v>1177.85714285714</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13788,21 +15141,24 @@
         <f aca="false">$A254+1</f>
         <v>44157</v>
       </c>
+      <c r="B255" s="0" t="n">
+        <v>132042</v>
+      </c>
       <c r="D255" s="1" t="n">
         <f aca="false">B255+C255</f>
-        <v>0</v>
+        <v>132042</v>
       </c>
       <c r="E255" s="1" t="n">
         <f aca="false">D255-D254</f>
-        <v>0</v>
+        <v>1154</v>
       </c>
       <c r="F255" s="1" t="n">
         <f aca="false">(E253+E254+E255)/3</f>
-        <v>0</v>
+        <v>1200.66666666667</v>
       </c>
       <c r="G255" s="1" t="n">
         <f aca="false">(E249+E250+E251+E252+E253+E254+E255)/7</f>
-        <v>0</v>
+        <v>1169.71428571429</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13810,21 +15166,24 @@
         <f aca="false">$A255+1</f>
         <v>44158</v>
       </c>
+      <c r="B256" s="0" t="n">
+        <v>133206</v>
+      </c>
       <c r="D256" s="1" t="n">
         <f aca="false">B256+C256</f>
-        <v>0</v>
+        <v>133206</v>
       </c>
       <c r="E256" s="1" t="n">
         <f aca="false">D256-D255</f>
-        <v>0</v>
+        <v>1164</v>
       </c>
       <c r="F256" s="1" t="n">
         <f aca="false">(E254+E255+E256)/3</f>
-        <v>0</v>
+        <v>1169</v>
       </c>
       <c r="G256" s="1" t="n">
         <f aca="false">(E250+E251+E252+E253+E254+E255+E256)/7</f>
-        <v>0</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13832,21 +15191,24 @@
         <f aca="false">$A256+1</f>
         <v>44159</v>
       </c>
+      <c r="B257" s="0" t="n">
+        <v>134330</v>
+      </c>
       <c r="D257" s="1" t="n">
         <f aca="false">B257+C257</f>
-        <v>0</v>
+        <v>134330</v>
       </c>
       <c r="E257" s="1" t="n">
         <f aca="false">D257-D256</f>
-        <v>0</v>
+        <v>1124</v>
       </c>
       <c r="F257" s="1" t="n">
         <f aca="false">(E255+E256+E257)/3</f>
-        <v>0</v>
+        <v>1147.33333333333</v>
       </c>
       <c r="G257" s="1" t="n">
         <f aca="false">(E251+E252+E253+E254+E255+E256+E257)/7</f>
-        <v>0</v>
+        <v>1182.28571428571</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13854,21 +15216,24 @@
         <f aca="false">$A257+1</f>
         <v>44160</v>
       </c>
+      <c r="B258" s="0" t="n">
+        <v>135430</v>
+      </c>
       <c r="D258" s="1" t="n">
         <f aca="false">B258+C258</f>
-        <v>0</v>
+        <v>135430</v>
       </c>
       <c r="E258" s="1" t="n">
         <f aca="false">D258-D257</f>
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="F258" s="1" t="n">
         <f aca="false">(E256+E257+E258)/3</f>
-        <v>0</v>
+        <v>1129.33333333333</v>
       </c>
       <c r="G258" s="1" t="n">
         <f aca="false">(E252+E253+E254+E255+E256+E257+E258)/7</f>
-        <v>0</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13876,21 +15241,24 @@
         <f aca="false">$A258+1</f>
         <v>44161</v>
       </c>
+      <c r="B259" s="0" t="n">
+        <v>136894</v>
+      </c>
       <c r="D259" s="1" t="n">
         <f aca="false">B259+C259</f>
-        <v>0</v>
+        <v>136894</v>
       </c>
       <c r="E259" s="1" t="n">
         <f aca="false">D259-D258</f>
-        <v>0</v>
+        <v>1464</v>
       </c>
       <c r="F259" s="1" t="n">
         <f aca="false">(E257+E258+E259)/3</f>
-        <v>0</v>
+        <v>1229.33333333333</v>
       </c>
       <c r="G259" s="1" t="n">
         <f aca="false">(E253+E254+E255+E256+E257+E258+E259)/7</f>
-        <v>0</v>
+        <v>1207.71428571429</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13898,21 +15266,24 @@
         <f aca="false">$A259+1</f>
         <v>44162</v>
       </c>
+      <c r="B260" s="0" t="n">
+        <v>138163</v>
+      </c>
       <c r="D260" s="1" t="n">
         <f aca="false">B260+C260</f>
-        <v>0</v>
+        <v>138163</v>
       </c>
       <c r="E260" s="1" t="n">
         <f aca="false">D260-D259</f>
-        <v>0</v>
+        <v>1269</v>
       </c>
       <c r="F260" s="1" t="n">
         <f aca="false">(E258+E259+E260)/3</f>
-        <v>0</v>
+        <v>1277.66666666667</v>
       </c>
       <c r="G260" s="1" t="n">
         <f aca="false">(E254+E255+E256+E257+E258+E259+E260)/7</f>
-        <v>0</v>
+        <v>1209.14285714286</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13920,21 +15291,24 @@
         <f aca="false">$A260+1</f>
         <v>44163</v>
       </c>
+      <c r="B261" s="0" t="n">
+        <v>139643</v>
+      </c>
       <c r="D261" s="1" t="n">
         <f aca="false">B261+C261</f>
-        <v>0</v>
+        <v>139643</v>
       </c>
       <c r="E261" s="1" t="n">
         <f aca="false">D261-D260</f>
-        <v>0</v>
+        <v>1480</v>
       </c>
       <c r="F261" s="1" t="n">
         <f aca="false">(E259+E260+E261)/3</f>
-        <v>0</v>
+        <v>1404.33333333333</v>
       </c>
       <c r="G261" s="1" t="n">
         <f aca="false">(E255+E256+E257+E258+E259+E260+E261)/7</f>
-        <v>0</v>
+        <v>1250.71428571429</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13942,43 +15316,49 @@
         <f aca="false">$A261+1</f>
         <v>44164</v>
       </c>
+      <c r="B262" s="0" t="n">
+        <v>141038</v>
+      </c>
       <c r="D262" s="1" t="n">
         <f aca="false">B262+C262</f>
-        <v>0</v>
+        <v>141038</v>
       </c>
       <c r="E262" s="1" t="n">
         <f aca="false">D262-D261</f>
-        <v>0</v>
+        <v>1395</v>
       </c>
       <c r="F262" s="1" t="n">
         <f aca="false">(E260+E261+E262)/3</f>
-        <v>0</v>
+        <v>1381.33333333333</v>
       </c>
       <c r="G262" s="1" t="n">
         <f aca="false">(E256+E257+E258+E259+E260+E261+E262)/7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1285.14285714286</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="2" t="n">
         <f aca="false">$A262+1</f>
         <v>44165</v>
       </c>
+      <c r="B263" s="0" t="n">
+        <v>142371</v>
+      </c>
       <c r="D263" s="1" t="n">
         <f aca="false">B263+C263</f>
-        <v>0</v>
+        <v>142371</v>
       </c>
       <c r="E263" s="1" t="n">
         <f aca="false">D263-D262</f>
-        <v>0</v>
+        <v>1333</v>
       </c>
       <c r="F263" s="1" t="n">
         <f aca="false">(E261+E262+E263)/3</f>
-        <v>0</v>
+        <v>1402.66666666667</v>
       </c>
       <c r="G263" s="1" t="n">
         <f aca="false">(E257+E258+E259+E260+E261+E262+E263)/7</f>
-        <v>0</v>
+        <v>1309.28571428571</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13986,21 +15366,24 @@
         <f aca="false">$A263+1</f>
         <v>44166</v>
       </c>
+      <c r="B264" s="0" t="n">
+        <v>143548</v>
+      </c>
       <c r="D264" s="1" t="n">
         <f aca="false">B264+C264</f>
-        <v>0</v>
+        <v>143548</v>
       </c>
       <c r="E264" s="1" t="n">
         <f aca="false">D264-D263</f>
-        <v>0</v>
+        <v>1177</v>
       </c>
       <c r="F264" s="1" t="n">
         <f aca="false">(E262+E263+E264)/3</f>
-        <v>0</v>
+        <v>1301.66666666667</v>
       </c>
       <c r="G264" s="1" t="n">
         <f aca="false">(E258+E259+E260+E261+E262+E263+E264)/7</f>
-        <v>0</v>
+        <v>1316.85714285714</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14008,21 +15391,24 @@
         <f aca="false">$A264+1</f>
         <v>44167</v>
       </c>
+      <c r="B265" s="0" t="n">
+        <v>145062</v>
+      </c>
       <c r="D265" s="1" t="n">
         <f aca="false">B265+C265</f>
-        <v>0</v>
+        <v>145062</v>
       </c>
       <c r="E265" s="1" t="n">
         <f aca="false">D265-D264</f>
-        <v>0</v>
+        <v>1514</v>
       </c>
       <c r="F265" s="1" t="n">
         <f aca="false">(E263+E264+E265)/3</f>
-        <v>0</v>
+        <v>1341.33333333333</v>
       </c>
       <c r="G265" s="1" t="n">
         <f aca="false">(E259+E260+E261+E262+E263+E264+E265)/7</f>
-        <v>0</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14030,21 +15416,24 @@
         <f aca="false">$A265+1</f>
         <v>44168</v>
       </c>
+      <c r="B266" s="0" t="n">
+        <v>146532</v>
+      </c>
       <c r="D266" s="1" t="n">
         <f aca="false">B266+C266</f>
-        <v>0</v>
+        <v>146532</v>
       </c>
       <c r="E266" s="1" t="n">
         <f aca="false">D266-D265</f>
-        <v>0</v>
+        <v>1470</v>
       </c>
       <c r="F266" s="1" t="n">
         <f aca="false">(E264+E265+E266)/3</f>
-        <v>0</v>
+        <v>1387</v>
       </c>
       <c r="G266" s="1" t="n">
         <f aca="false">(E260+E261+E262+E263+E264+E265+E266)/7</f>
-        <v>0</v>
+        <v>1376.85714285714</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14052,21 +15441,24 @@
         <f aca="false">$A266+1</f>
         <v>44169</v>
       </c>
+      <c r="B267" s="0" t="n">
+        <v>147877</v>
+      </c>
       <c r="D267" s="1" t="n">
         <f aca="false">B267+C267</f>
-        <v>0</v>
+        <v>147877</v>
       </c>
       <c r="E267" s="1" t="n">
         <f aca="false">D267-D266</f>
-        <v>0</v>
+        <v>1345</v>
       </c>
       <c r="F267" s="1" t="n">
         <f aca="false">(E265+E266+E267)/3</f>
-        <v>0</v>
+        <v>1443</v>
       </c>
       <c r="G267" s="1" t="n">
         <f aca="false">(E261+E262+E263+E264+E265+E266+E267)/7</f>
-        <v>0</v>
+        <v>1387.71428571429</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14074,21 +15466,24 @@
         <f aca="false">$A267+1</f>
         <v>44170</v>
       </c>
+      <c r="B268" s="0" t="n">
+        <v>149908</v>
+      </c>
       <c r="D268" s="1" t="n">
         <f aca="false">B268+C268</f>
-        <v>0</v>
+        <v>149908</v>
       </c>
       <c r="E268" s="1" t="n">
         <f aca="false">D268-D267</f>
-        <v>0</v>
+        <v>2031</v>
       </c>
       <c r="F268" s="1" t="n">
         <f aca="false">(E266+E267+E268)/3</f>
-        <v>0</v>
+        <v>1615.33333333333</v>
       </c>
       <c r="G268" s="1" t="n">
         <f aca="false">(E262+E263+E264+E265+E266+E267+E268)/7</f>
-        <v>0</v>
+        <v>1466.42857142857</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14096,21 +15491,24 @@
         <f aca="false">$A268+1</f>
         <v>44171</v>
       </c>
+      <c r="B269" s="0" t="n">
+        <v>151599</v>
+      </c>
       <c r="D269" s="1" t="n">
         <f aca="false">B269+C269</f>
-        <v>0</v>
+        <v>151599</v>
       </c>
       <c r="E269" s="1" t="n">
         <f aca="false">D269-D268</f>
-        <v>0</v>
+        <v>1691</v>
       </c>
       <c r="F269" s="1" t="n">
         <f aca="false">(E267+E268+E269)/3</f>
-        <v>0</v>
+        <v>1689</v>
       </c>
       <c r="G269" s="1" t="n">
         <f aca="false">(E263+E264+E265+E266+E267+E268+E269)/7</f>
-        <v>0</v>
+        <v>1508.71428571429</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14118,21 +15516,24 @@
         <f aca="false">$A269+1</f>
         <v>44172</v>
       </c>
+      <c r="B270" s="0" t="n">
+        <v>153176</v>
+      </c>
       <c r="D270" s="1" t="n">
         <f aca="false">B270+C270</f>
-        <v>0</v>
+        <v>153176</v>
       </c>
       <c r="E270" s="1" t="n">
         <f aca="false">D270-D269</f>
-        <v>0</v>
+        <v>1577</v>
       </c>
       <c r="F270" s="1" t="n">
         <f aca="false">(E268+E269+E270)/3</f>
-        <v>0</v>
+        <v>1766.33333333333</v>
       </c>
       <c r="G270" s="1" t="n">
         <f aca="false">(E264+E265+E266+E267+E268+E269+E270)/7</f>
-        <v>0</v>
+        <v>1543.57142857143</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14140,21 +15541,24 @@
         <f aca="false">$A270+1</f>
         <v>44173</v>
       </c>
+      <c r="B271" s="0" t="n">
+        <v>154740</v>
+      </c>
       <c r="D271" s="1" t="n">
         <f aca="false">B271+C271</f>
-        <v>0</v>
+        <v>154740</v>
       </c>
       <c r="E271" s="1" t="n">
         <f aca="false">D271-D270</f>
-        <v>0</v>
+        <v>1564</v>
       </c>
       <c r="F271" s="1" t="n">
         <f aca="false">(E269+E270+E271)/3</f>
-        <v>0</v>
+        <v>1610.66666666667</v>
       </c>
       <c r="G271" s="1" t="n">
         <f aca="false">(E265+E266+E267+E268+E269+E270+E271)/7</f>
-        <v>0</v>
+        <v>1598.85714285714</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14162,21 +15566,24 @@
         <f aca="false">$A271+1</f>
         <v>44174</v>
       </c>
+      <c r="B272" s="0" t="n">
+        <v>156468</v>
+      </c>
       <c r="D272" s="1" t="n">
         <f aca="false">B272+C272</f>
-        <v>0</v>
+        <v>156468</v>
       </c>
       <c r="E272" s="1" t="n">
         <f aca="false">D272-D271</f>
-        <v>0</v>
+        <v>1728</v>
       </c>
       <c r="F272" s="1" t="n">
         <f aca="false">(E270+E271+E272)/3</f>
-        <v>0</v>
+        <v>1623</v>
       </c>
       <c r="G272" s="1" t="n">
         <f aca="false">(E266+E267+E268+E269+E270+E271+E272)/7</f>
-        <v>0</v>
+        <v>1629.42857142857</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14184,21 +15591,24 @@
         <f aca="false">$A272+1</f>
         <v>44175</v>
       </c>
+      <c r="B273" s="0" t="n">
+        <v>158310</v>
+      </c>
       <c r="D273" s="1" t="n">
         <f aca="false">B273+C273</f>
-        <v>0</v>
+        <v>158310</v>
       </c>
       <c r="E273" s="1" t="n">
         <f aca="false">D273-D272</f>
-        <v>0</v>
+        <v>1842</v>
       </c>
       <c r="F273" s="1" t="n">
         <f aca="false">(E271+E272+E273)/3</f>
-        <v>0</v>
+        <v>1711.33333333333</v>
       </c>
       <c r="G273" s="1" t="n">
         <f aca="false">(E267+E268+E269+E270+E271+E272+E273)/7</f>
-        <v>0</v>
+        <v>1682.57142857143</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14206,21 +15616,24 @@
         <f aca="false">$A273+1</f>
         <v>44176</v>
       </c>
+      <c r="B274" s="0" t="n">
+        <v>160023</v>
+      </c>
       <c r="D274" s="1" t="n">
         <f aca="false">B274+C274</f>
-        <v>0</v>
+        <v>160023</v>
       </c>
       <c r="E274" s="1" t="n">
         <f aca="false">D274-D273</f>
-        <v>0</v>
+        <v>1713</v>
       </c>
       <c r="F274" s="1" t="n">
         <f aca="false">(E272+E273+E274)/3</f>
-        <v>0</v>
+        <v>1761</v>
       </c>
       <c r="G274" s="1" t="n">
         <f aca="false">(E268+E269+E270+E271+E272+E273+E274)/7</f>
-        <v>0</v>
+        <v>1735.14285714286</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14228,21 +15641,24 @@
         <f aca="false">$A274+1</f>
         <v>44177</v>
       </c>
+      <c r="B275" s="0" t="n">
+        <v>161921</v>
+      </c>
       <c r="D275" s="1" t="n">
         <f aca="false">B275+C275</f>
-        <v>0</v>
+        <v>161921</v>
       </c>
       <c r="E275" s="1" t="n">
         <f aca="false">D275-D274</f>
-        <v>0</v>
+        <v>1898</v>
       </c>
       <c r="F275" s="1" t="n">
         <f aca="false">(E273+E274+E275)/3</f>
-        <v>0</v>
+        <v>1817.66666666667</v>
       </c>
       <c r="G275" s="1" t="n">
         <f aca="false">(E269+E270+E271+E272+E273+E274+E275)/7</f>
-        <v>0</v>
+        <v>1716.14285714286</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14250,21 +15666,24 @@
         <f aca="false">$A275+1</f>
         <v>44178</v>
       </c>
+      <c r="B276" s="0" t="n">
+        <v>163915</v>
+      </c>
       <c r="D276" s="1" t="n">
         <f aca="false">B276+C276</f>
-        <v>0</v>
+        <v>163915</v>
       </c>
       <c r="E276" s="1" t="n">
         <f aca="false">D276-D275</f>
-        <v>0</v>
+        <v>1994</v>
       </c>
       <c r="F276" s="1" t="n">
         <f aca="false">(E274+E275+E276)/3</f>
-        <v>0</v>
+        <v>1868.33333333333</v>
       </c>
       <c r="G276" s="1" t="n">
         <f aca="false">(E270+E271+E272+E273+E274+E275+E276)/7</f>
-        <v>0</v>
+        <v>1759.42857142857</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14272,21 +15691,24 @@
         <f aca="false">$A276+1</f>
         <v>44179</v>
       </c>
+      <c r="B277" s="0" t="n">
+        <v>165535</v>
+      </c>
       <c r="D277" s="1" t="n">
         <f aca="false">B277+C277</f>
-        <v>0</v>
+        <v>165535</v>
       </c>
       <c r="E277" s="1" t="n">
         <f aca="false">D277-D276</f>
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="F277" s="1" t="n">
         <f aca="false">(E275+E276+E277)/3</f>
-        <v>0</v>
+        <v>1837.33333333333</v>
       </c>
       <c r="G277" s="1" t="n">
         <f aca="false">(E271+E272+E273+E274+E275+E276+E277)/7</f>
-        <v>0</v>
+        <v>1765.57142857143</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14294,21 +15716,24 @@
         <f aca="false">$A277+1</f>
         <v>44180</v>
       </c>
+      <c r="B278" s="0" t="n">
+        <v>167276</v>
+      </c>
       <c r="D278" s="1" t="n">
         <f aca="false">B278+C278</f>
-        <v>0</v>
+        <v>167276</v>
       </c>
       <c r="E278" s="1" t="n">
         <f aca="false">D278-D277</f>
-        <v>0</v>
+        <v>1741</v>
       </c>
       <c r="F278" s="1" t="n">
         <f aca="false">(E276+E277+E278)/3</f>
-        <v>0</v>
+        <v>1785</v>
       </c>
       <c r="G278" s="1" t="n">
         <f aca="false">(E272+E273+E274+E275+E276+E277+E278)/7</f>
-        <v>0</v>
+        <v>1790.85714285714</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14316,21 +15741,24 @@
         <f aca="false">$A278+1</f>
         <v>44181</v>
       </c>
+      <c r="B279" s="0" t="n">
+        <v>169173</v>
+      </c>
       <c r="D279" s="1" t="n">
         <f aca="false">B279+C279</f>
-        <v>0</v>
+        <v>169173</v>
       </c>
       <c r="E279" s="1" t="n">
         <f aca="false">D279-D278</f>
-        <v>0</v>
+        <v>1897</v>
       </c>
       <c r="F279" s="1" t="n">
         <f aca="false">(E277+E278+E279)/3</f>
-        <v>0</v>
+        <v>1752.66666666667</v>
       </c>
       <c r="G279" s="1" t="n">
         <f aca="false">(E273+E274+E275+E276+E277+E278+E279)/7</f>
-        <v>0</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14338,21 +15766,24 @@
         <f aca="false">$A279+1</f>
         <v>44182</v>
       </c>
+      <c r="B280" s="0" t="n">
+        <v>171028</v>
+      </c>
       <c r="D280" s="1" t="n">
         <f aca="false">B280+C280</f>
-        <v>0</v>
+        <v>171028</v>
       </c>
       <c r="E280" s="1" t="n">
         <f aca="false">D280-D279</f>
-        <v>0</v>
+        <v>1855</v>
       </c>
       <c r="F280" s="1" t="n">
         <f aca="false">(E278+E279+E280)/3</f>
-        <v>0</v>
+        <v>1831</v>
       </c>
       <c r="G280" s="1" t="n">
         <f aca="false">(E274+E275+E276+E277+E278+E279+E280)/7</f>
-        <v>0</v>
+        <v>1816.85714285714</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14360,21 +15791,24 @@
         <f aca="false">$A280+1</f>
         <v>44183</v>
       </c>
+      <c r="B281" s="0" t="n">
+        <v>172801</v>
+      </c>
       <c r="D281" s="1" t="n">
         <f aca="false">B281+C281</f>
-        <v>0</v>
+        <v>172801</v>
       </c>
       <c r="E281" s="1" t="n">
         <f aca="false">D281-D280</f>
-        <v>0</v>
+        <v>1773</v>
       </c>
       <c r="F281" s="1" t="n">
         <f aca="false">(E279+E280+E281)/3</f>
-        <v>0</v>
+        <v>1841.66666666667</v>
       </c>
       <c r="G281" s="1" t="n">
         <f aca="false">(E275+E276+E277+E278+E279+E280+E281)/7</f>
-        <v>0</v>
+        <v>1825.42857142857</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14382,21 +15816,24 @@
         <f aca="false">$A281+1</f>
         <v>44184</v>
       </c>
+      <c r="B282" s="0" t="n">
+        <v>174839</v>
+      </c>
       <c r="D282" s="1" t="n">
         <f aca="false">B282+C282</f>
-        <v>0</v>
+        <v>174839</v>
       </c>
       <c r="E282" s="1" t="n">
         <f aca="false">D282-D281</f>
-        <v>0</v>
+        <v>2038</v>
       </c>
       <c r="F282" s="1" t="n">
         <f aca="false">(E280+E281+E282)/3</f>
-        <v>0</v>
+        <v>1888.66666666667</v>
       </c>
       <c r="G282" s="1" t="n">
         <f aca="false">(E276+E277+E278+E279+E280+E281+E282)/7</f>
-        <v>0</v>
+        <v>1845.42857142857</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14404,21 +15841,24 @@
         <f aca="false">$A282+1</f>
         <v>44185</v>
       </c>
+      <c r="B283" s="0" t="n">
+        <v>176985</v>
+      </c>
       <c r="D283" s="1" t="n">
         <f aca="false">B283+C283</f>
-        <v>0</v>
+        <v>176985</v>
       </c>
       <c r="E283" s="1" t="n">
         <f aca="false">D283-D282</f>
-        <v>0</v>
+        <v>2146</v>
       </c>
       <c r="F283" s="1" t="n">
         <f aca="false">(E281+E282+E283)/3</f>
-        <v>0</v>
+        <v>1985.66666666667</v>
       </c>
       <c r="G283" s="1" t="n">
         <f aca="false">(E277+E278+E279+E280+E281+E282+E283)/7</f>
-        <v>0</v>
+        <v>1867.14285714286</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14426,21 +15866,24 @@
         <f aca="false">$A283+1</f>
         <v>44186</v>
       </c>
+      <c r="B284" s="0" t="n">
+        <v>179093</v>
+      </c>
       <c r="D284" s="1" t="n">
         <f aca="false">B284+C284</f>
-        <v>0</v>
+        <v>179093</v>
       </c>
       <c r="E284" s="1" t="n">
         <f aca="false">D284-D283</f>
-        <v>0</v>
+        <v>2108</v>
       </c>
       <c r="F284" s="1" t="n">
         <f aca="false">(E282+E283+E284)/3</f>
-        <v>0</v>
+        <v>2097.33333333333</v>
       </c>
       <c r="G284" s="1" t="n">
         <f aca="false">(E278+E279+E280+E281+E282+E283+E284)/7</f>
-        <v>0</v>
+        <v>1936.85714285714</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14448,21 +15891,24 @@
         <f aca="false">$A284+1</f>
         <v>44187</v>
       </c>
+      <c r="B285" s="0" t="n">
+        <v>181276</v>
+      </c>
       <c r="D285" s="1" t="n">
         <f aca="false">B285+C285</f>
-        <v>0</v>
+        <v>181276</v>
       </c>
       <c r="E285" s="1" t="n">
         <f aca="false">D285-D284</f>
-        <v>0</v>
+        <v>2183</v>
       </c>
       <c r="F285" s="1" t="n">
         <f aca="false">(E283+E284+E285)/3</f>
-        <v>0</v>
+        <v>2145.66666666667</v>
       </c>
       <c r="G285" s="1" t="n">
         <f aca="false">(E279+E280+E281+E282+E283+E284+E285)/7</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14470,21 +15916,24 @@
         <f aca="false">$A285+1</f>
         <v>44188</v>
       </c>
+      <c r="B286" s="0" t="n">
+        <v>183523</v>
+      </c>
       <c r="D286" s="1" t="n">
         <f aca="false">B286+C286</f>
-        <v>0</v>
+        <v>183523</v>
       </c>
       <c r="E286" s="1" t="n">
         <f aca="false">D286-D285</f>
-        <v>0</v>
+        <v>2247</v>
       </c>
       <c r="F286" s="1" t="n">
         <f aca="false">(E284+E285+E286)/3</f>
-        <v>0</v>
+        <v>2179.33333333333</v>
       </c>
       <c r="G286" s="1" t="n">
         <f aca="false">(E280+E281+E282+E283+E284+E285+E286)/7</f>
-        <v>0</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14492,65 +15941,82 @@
         <f aca="false">$A286+1</f>
         <v>44189</v>
       </c>
+      <c r="B287" s="0" t="n">
+        <v>185872</v>
+      </c>
       <c r="D287" s="1" t="n">
         <f aca="false">B287+C287</f>
-        <v>0</v>
+        <v>185872</v>
       </c>
       <c r="E287" s="1" t="n">
         <f aca="false">D287-D286</f>
-        <v>0</v>
+        <v>2349</v>
       </c>
       <c r="F287" s="1" t="n">
         <f aca="false">(E285+E286+E287)/3</f>
-        <v>0</v>
+        <v>2259.66666666667</v>
       </c>
       <c r="G287" s="1" t="n">
         <f aca="false">(E281+E282+E283+E284+E285+E286+E287)/7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2120.57142857143</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="2" t="n">
         <f aca="false">$A287+1</f>
         <v>44190</v>
       </c>
+      <c r="B288" s="0" t="n">
+        <v>185872</v>
+      </c>
+      <c r="C288" s="0" t="n">
+        <f aca="false">((B290-B287)-2291)/2</f>
+        <v>2246</v>
+      </c>
       <c r="D288" s="1" t="n">
         <f aca="false">B288+C288</f>
-        <v>0</v>
+        <v>188118</v>
       </c>
       <c r="E288" s="1" t="n">
         <f aca="false">D288-D287</f>
-        <v>0</v>
+        <v>2246</v>
       </c>
       <c r="F288" s="1" t="n">
         <f aca="false">(E286+E287+E288)/3</f>
-        <v>0</v>
+        <v>2280.66666666667</v>
       </c>
       <c r="G288" s="1" t="n">
         <f aca="false">(E282+E283+E284+E285+E286+E287+E288)/7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2188.14285714286</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="2" t="n">
         <f aca="false">$A288+1</f>
         <v>44191</v>
       </c>
+      <c r="B289" s="0" t="n">
+        <v>185872</v>
+      </c>
+      <c r="C289" s="0" t="n">
+        <f aca="false">(B290-B287)-2291</f>
+        <v>4492</v>
+      </c>
       <c r="D289" s="1" t="n">
         <f aca="false">B289+C289</f>
-        <v>0</v>
+        <v>190364</v>
       </c>
       <c r="E289" s="1" t="n">
         <f aca="false">D289-D288</f>
-        <v>0</v>
+        <v>2246</v>
       </c>
       <c r="F289" s="1" t="n">
         <f aca="false">(E287+E288+E289)/3</f>
-        <v>0</v>
+        <v>2280.33333333333</v>
       </c>
       <c r="G289" s="1" t="n">
         <f aca="false">(E283+E284+E285+E286+E287+E288+E289)/7</f>
-        <v>0</v>
+        <v>2217.85714285714</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14558,21 +16024,24 @@
         <f aca="false">$A289+1</f>
         <v>44192</v>
       </c>
+      <c r="B290" s="0" t="n">
+        <v>192655</v>
+      </c>
       <c r="D290" s="1" t="n">
         <f aca="false">B290+C290</f>
-        <v>0</v>
+        <v>192655</v>
       </c>
       <c r="E290" s="1" t="n">
         <f aca="false">D290-D289</f>
-        <v>0</v>
+        <v>2291</v>
       </c>
       <c r="F290" s="1" t="n">
         <f aca="false">(E288+E289+E290)/3</f>
-        <v>0</v>
+        <v>2261</v>
       </c>
       <c r="G290" s="1" t="n">
         <f aca="false">(E284+E285+E286+E287+E288+E289+E290)/7</f>
-        <v>0</v>
+        <v>2238.57142857143</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14580,43 +16049,52 @@
         <f aca="false">$A290+1</f>
         <v>44193</v>
       </c>
+      <c r="B291" s="0" t="n">
+        <v>194930</v>
+      </c>
       <c r="D291" s="1" t="n">
         <f aca="false">B291+C291</f>
-        <v>0</v>
+        <v>194930</v>
       </c>
       <c r="E291" s="1" t="n">
         <f aca="false">D291-D290</f>
-        <v>0</v>
+        <v>2275</v>
       </c>
       <c r="F291" s="1" t="n">
         <f aca="false">(E289+E290+E291)/3</f>
-        <v>0</v>
+        <v>2270.66666666667</v>
       </c>
       <c r="G291" s="1" t="n">
         <f aca="false">(E285+E286+E287+E288+E289+E290+E291)/7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2262.42857142857</v>
+      </c>
+      <c r="H291" s="0" t="n">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="2" t="n">
         <f aca="false">$A291+1</f>
         <v>44194</v>
       </c>
+      <c r="B292" s="0" t="n">
+        <v>197311</v>
+      </c>
       <c r="D292" s="1" t="n">
         <f aca="false">B292+C292</f>
-        <v>0</v>
+        <v>197311</v>
       </c>
       <c r="E292" s="1" t="n">
         <f aca="false">D292-D291</f>
-        <v>0</v>
+        <v>2381</v>
       </c>
       <c r="F292" s="1" t="n">
         <f aca="false">(E290+E291+E292)/3</f>
-        <v>0</v>
+        <v>2315.66666666667</v>
       </c>
       <c r="G292" s="1" t="n">
         <f aca="false">(E286+E287+E288+E289+E290+E291+E292)/7</f>
-        <v>0</v>
+        <v>2290.71428571429</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14624,21 +16102,24 @@
         <f aca="false">$A292+1</f>
         <v>44195</v>
       </c>
+      <c r="B293" s="0" t="n">
+        <v>199822</v>
+      </c>
       <c r="D293" s="1" t="n">
         <f aca="false">B293+C293</f>
-        <v>0</v>
+        <v>199822</v>
       </c>
       <c r="E293" s="1" t="n">
         <f aca="false">D293-D292</f>
-        <v>0</v>
+        <v>2511</v>
       </c>
       <c r="F293" s="1" t="n">
         <f aca="false">(E291+E292+E293)/3</f>
-        <v>0</v>
+        <v>2389</v>
       </c>
       <c r="G293" s="1" t="n">
         <f aca="false">(E287+E288+E289+E290+E291+E292+E293)/7</f>
-        <v>0</v>
+        <v>2328.42857142857</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14646,65 +16127,81 @@
         <f aca="false">$A293+1</f>
         <v>44196</v>
       </c>
+      <c r="B294" s="0" t="n">
+        <v>202641</v>
+      </c>
       <c r="D294" s="1" t="n">
         <f aca="false">B294+C294</f>
-        <v>0</v>
+        <v>202641</v>
       </c>
       <c r="E294" s="1" t="n">
         <f aca="false">D294-D293</f>
-        <v>0</v>
+        <v>2819</v>
       </c>
       <c r="F294" s="1" t="n">
         <f aca="false">(E292+E293+E294)/3</f>
-        <v>0</v>
+        <v>2570.33333333333</v>
       </c>
       <c r="G294" s="1" t="n">
         <f aca="false">(E288+E289+E290+E291+E292+E293+E294)/7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2395.57142857143</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="2" t="n">
         <f aca="false">$A294+1</f>
         <v>44197</v>
       </c>
+      <c r="B295" s="0" t="n">
+        <v>202641</v>
+      </c>
+      <c r="C295" s="0" t="n">
+        <v>2808</v>
+      </c>
       <c r="D295" s="1" t="n">
         <f aca="false">B295+C295</f>
-        <v>0</v>
+        <v>205449</v>
       </c>
       <c r="E295" s="1" t="n">
         <f aca="false">D295-D294</f>
-        <v>0</v>
+        <v>2808</v>
       </c>
       <c r="F295" s="1" t="n">
         <f aca="false">(E293+E294+E295)/3</f>
-        <v>0</v>
+        <v>2712.66666666667</v>
       </c>
       <c r="G295" s="1" t="n">
         <f aca="false">(E289+E290+E291+E292+E293+E294+E295)/7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2475.85714285714</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="2" t="n">
         <f aca="false">$A295+1</f>
         <v>44198</v>
       </c>
+      <c r="B296" s="0" t="n">
+        <v>202641</v>
+      </c>
+      <c r="C296" s="0" t="n">
+        <f aca="false">C295+1986</f>
+        <v>4794</v>
+      </c>
       <c r="D296" s="1" t="n">
         <f aca="false">B296+C296</f>
-        <v>0</v>
+        <v>207435</v>
       </c>
       <c r="E296" s="1" t="n">
         <f aca="false">D296-D295</f>
-        <v>0</v>
+        <v>1986</v>
       </c>
       <c r="F296" s="1" t="n">
         <f aca="false">(E294+E295+E296)/3</f>
-        <v>0</v>
+        <v>2537.66666666667</v>
       </c>
       <c r="G296" s="1" t="n">
         <f aca="false">(E290+E291+E292+E293+E294+E295+E296)/7</f>
-        <v>0</v>
+        <v>2438.71428571429</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14712,21 +16209,24 @@
         <f aca="false">$A296+1</f>
         <v>44199</v>
       </c>
+      <c r="B297" s="0" t="n">
+        <v>210304</v>
+      </c>
       <c r="D297" s="1" t="n">
         <f aca="false">B297+C297</f>
-        <v>0</v>
+        <v>210304</v>
       </c>
       <c r="E297" s="1" t="n">
         <f aca="false">D297-D296</f>
-        <v>0</v>
+        <v>2869</v>
       </c>
       <c r="F297" s="1" t="n">
         <f aca="false">(E295+E296+E297)/3</f>
-        <v>0</v>
+        <v>2554.33333333333</v>
       </c>
       <c r="G297" s="1" t="n">
         <f aca="false">(E291+E292+E293+E294+E295+E296+E297)/7</f>
-        <v>0</v>
+        <v>2521.28571428571</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14734,21 +16234,24 @@
         <f aca="false">$A297+1</f>
         <v>44200</v>
       </c>
+      <c r="B298" s="0" t="n">
+        <v>212850</v>
+      </c>
       <c r="D298" s="1" t="n">
         <f aca="false">B298+C298</f>
-        <v>0</v>
+        <v>212850</v>
       </c>
       <c r="E298" s="1" t="n">
         <f aca="false">D298-D297</f>
-        <v>0</v>
+        <v>2546</v>
       </c>
       <c r="F298" s="1" t="n">
         <f aca="false">(E296+E297+E298)/3</f>
-        <v>0</v>
+        <v>2467</v>
       </c>
       <c r="G298" s="1" t="n">
         <f aca="false">(E292+E293+E294+E295+E296+E297+E298)/7</f>
-        <v>0</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14756,21 +16259,24 @@
         <f aca="false">$A298+1</f>
         <v>44201</v>
       </c>
+      <c r="B299" s="0" t="n">
+        <v>215358</v>
+      </c>
       <c r="D299" s="1" t="n">
         <f aca="false">B299+C299</f>
-        <v>0</v>
+        <v>215358</v>
       </c>
       <c r="E299" s="1" t="n">
         <f aca="false">D299-D298</f>
-        <v>0</v>
+        <v>2508</v>
       </c>
       <c r="F299" s="1" t="n">
         <f aca="false">(E297+E298+E299)/3</f>
-        <v>0</v>
+        <v>2641</v>
       </c>
       <c r="G299" s="1" t="n">
         <f aca="false">(E293+E294+E295+E296+E297+E298+E299)/7</f>
-        <v>0</v>
+        <v>2578.14285714286</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14778,20 +16284,725 @@
         <f aca="false">$A299+1</f>
         <v>44202</v>
       </c>
+      <c r="B300" s="0" t="n">
+        <v>217999</v>
+      </c>
       <c r="D300" s="1" t="n">
         <f aca="false">B300+C300</f>
-        <v>0</v>
+        <v>217999</v>
       </c>
       <c r="E300" s="1" t="n">
         <f aca="false">D300-D299</f>
-        <v>0</v>
+        <v>2641</v>
       </c>
       <c r="F300" s="1" t="n">
         <f aca="false">(E298+E299+E300)/3</f>
-        <v>0</v>
+        <v>2565</v>
       </c>
       <c r="G300" s="1" t="n">
         <f aca="false">(E294+E295+E296+E297+E298+E299+E300)/7</f>
+        <v>2596.71428571429</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="2" t="n">
+        <f aca="false">$A300+1</f>
+        <v>44203</v>
+      </c>
+      <c r="B301" s="0" t="n">
+        <v>220518</v>
+      </c>
+      <c r="D301" s="1" t="n">
+        <f aca="false">B301+C301</f>
+        <v>220518</v>
+      </c>
+      <c r="E301" s="1" t="n">
+        <f aca="false">D301-D300</f>
+        <v>2519</v>
+      </c>
+      <c r="F301" s="1" t="n">
+        <f aca="false">(E299+E300+E301)/3</f>
+        <v>2556</v>
+      </c>
+      <c r="G301" s="1" t="n">
+        <f aca="false">(E295+E296+E297+E298+E299+E300+E301)/7</f>
+        <v>2553.85714285714</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="2" t="n">
+        <f aca="false">$A301+1</f>
+        <v>44204</v>
+      </c>
+      <c r="B302" s="0" t="n">
+        <v>223106</v>
+      </c>
+      <c r="D302" s="1" t="n">
+        <f aca="false">B302+C302</f>
+        <v>223106</v>
+      </c>
+      <c r="E302" s="1" t="n">
+        <f aca="false">D302-D301</f>
+        <v>2588</v>
+      </c>
+      <c r="F302" s="1" t="n">
+        <f aca="false">(E300+E301+E302)/3</f>
+        <v>2582.66666666667</v>
+      </c>
+      <c r="G302" s="1" t="n">
+        <f aca="false">(E296+E297+E298+E299+E300+E301+E302)/7</f>
+        <v>2522.42857142857</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="2" t="n">
+        <f aca="false">$A302+1</f>
+        <v>44205</v>
+      </c>
+      <c r="B303" s="0" t="n">
+        <v>226233</v>
+      </c>
+      <c r="D303" s="1" t="n">
+        <f aca="false">B303+C303</f>
+        <v>226233</v>
+      </c>
+      <c r="E303" s="1" t="n">
+        <f aca="false">D303-D302</f>
+        <v>3127</v>
+      </c>
+      <c r="F303" s="1" t="n">
+        <f aca="false">(E301+E302+E303)/3</f>
+        <v>2744.66666666667</v>
+      </c>
+      <c r="G303" s="1" t="n">
+        <f aca="false">(E297+E298+E299+E300+E301+E302+E303)/7</f>
+        <v>2685.42857142857</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="2" t="n">
+        <f aca="false">$A303+1</f>
+        <v>44206</v>
+      </c>
+      <c r="B304" s="0" t="n">
+        <v>228821</v>
+      </c>
+      <c r="D304" s="1" t="n">
+        <f aca="false">B304+C304</f>
+        <v>228821</v>
+      </c>
+      <c r="E304" s="1" t="n">
+        <f aca="false">D304-D303</f>
+        <v>2588</v>
+      </c>
+      <c r="F304" s="1" t="n">
+        <f aca="false">(E302+E303+E304)/3</f>
+        <v>2767.66666666667</v>
+      </c>
+      <c r="G304" s="1" t="n">
+        <f aca="false">(E298+E299+E300+E301+E302+E303+E304)/7</f>
+        <v>2645.28571428571</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="2" t="n">
+        <f aca="false">$A304+1</f>
+        <v>44207</v>
+      </c>
+      <c r="B305" s="0" t="n">
+        <v>230690</v>
+      </c>
+      <c r="D305" s="1" t="n">
+        <f aca="false">B305+C305</f>
+        <v>230690</v>
+      </c>
+      <c r="E305" s="1" t="n">
+        <f aca="false">D305-D304</f>
+        <v>1869</v>
+      </c>
+      <c r="F305" s="1" t="n">
+        <f aca="false">(E303+E304+E305)/3</f>
+        <v>2528</v>
+      </c>
+      <c r="G305" s="1" t="n">
+        <f aca="false">(E299+E300+E301+E302+E303+E304+E305)/7</f>
+        <v>2548.57142857143</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="2" t="n">
+        <f aca="false">$A305+1</f>
+        <v>44208</v>
+      </c>
+      <c r="B306" s="0" t="n">
+        <v>232624</v>
+      </c>
+      <c r="D306" s="1" t="n">
+        <f aca="false">B306+C306</f>
+        <v>232624</v>
+      </c>
+      <c r="E306" s="1" t="n">
+        <f aca="false">D306-D305</f>
+        <v>1934</v>
+      </c>
+      <c r="F306" s="1" t="n">
+        <f aca="false">(E304+E305+E306)/3</f>
+        <v>2130.33333333333</v>
+      </c>
+      <c r="G306" s="1" t="n">
+        <f aca="false">(E300+E301+E302+E303+E304+E305+E306)/7</f>
+        <v>2466.57142857143</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="2" t="n">
+        <f aca="false">$A306+1</f>
+        <v>44209</v>
+      </c>
+      <c r="B307" s="0" t="n">
+        <v>234695</v>
+      </c>
+      <c r="D307" s="1" t="n">
+        <f aca="false">B307+C307</f>
+        <v>234695</v>
+      </c>
+      <c r="E307" s="1" t="n">
+        <f aca="false">D307-D306</f>
+        <v>2071</v>
+      </c>
+      <c r="F307" s="1" t="n">
+        <f aca="false">(E305+E306+E307)/3</f>
+        <v>1958</v>
+      </c>
+      <c r="G307" s="1" t="n">
+        <f aca="false">(E301+E302+E303+E304+E305+E306+E307)/7</f>
+        <v>2385.14285714286</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="2" t="n">
+        <f aca="false">$A307+1</f>
+        <v>44210</v>
+      </c>
+      <c r="B308" s="0" t="n">
+        <v>236827</v>
+      </c>
+      <c r="D308" s="1" t="n">
+        <f aca="false">B308+C308</f>
+        <v>236827</v>
+      </c>
+      <c r="E308" s="1" t="n">
+        <f aca="false">D308-D307</f>
+        <v>2132</v>
+      </c>
+      <c r="F308" s="1" t="n">
+        <f aca="false">(E306+E307+E308)/3</f>
+        <v>2045.66666666667</v>
+      </c>
+      <c r="G308" s="1" t="n">
+        <f aca="false">(E302+E303+E304+E305+E306+E307+E308)/7</f>
+        <v>2329.85714285714</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="2" t="n">
+        <f aca="false">$A308+1</f>
+        <v>44211</v>
+      </c>
+      <c r="B309" s="0" t="n">
+        <v>238745</v>
+      </c>
+      <c r="D309" s="1" t="n">
+        <f aca="false">B309+C309</f>
+        <v>238745</v>
+      </c>
+      <c r="E309" s="1" t="n">
+        <f aca="false">D309-D308</f>
+        <v>1918</v>
+      </c>
+      <c r="F309" s="1" t="n">
+        <f aca="false">(E307+E308+E309)/3</f>
+        <v>2040.33333333333</v>
+      </c>
+      <c r="G309" s="1" t="n">
+        <f aca="false">(E303+E304+E305+E306+E307+E308+E309)/7</f>
+        <v>2234.14285714286</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="2" t="n">
+        <f aca="false">$A309+1</f>
+        <v>44212</v>
+      </c>
+      <c r="B310" s="0" t="n">
+        <v>240970</v>
+      </c>
+      <c r="D310" s="1" t="n">
+        <f aca="false">B310+C310</f>
+        <v>240970</v>
+      </c>
+      <c r="E310" s="1" t="n">
+        <f aca="false">D310-D309</f>
+        <v>2225</v>
+      </c>
+      <c r="F310" s="1" t="n">
+        <f aca="false">(E308+E309+E310)/3</f>
+        <v>2091.66666666667</v>
+      </c>
+      <c r="G310" s="1" t="n">
+        <f aca="false">(E304+E305+E306+E307+E308+E309+E310)/7</f>
+        <v>2105.28571428571</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="2" t="n">
+        <f aca="false">$A310+1</f>
+        <v>44213</v>
+      </c>
+      <c r="B311" s="0" t="n">
+        <v>242714</v>
+      </c>
+      <c r="D311" s="1" t="n">
+        <f aca="false">B311+C311</f>
+        <v>242714</v>
+      </c>
+      <c r="E311" s="1" t="n">
+        <f aca="false">D311-D310</f>
+        <v>1744</v>
+      </c>
+      <c r="F311" s="1" t="n">
+        <f aca="false">(E309+E310+E311)/3</f>
+        <v>1962.33333333333</v>
+      </c>
+      <c r="G311" s="1" t="n">
+        <f aca="false">(E305+E306+E307+E308+E309+E310+E311)/7</f>
+        <v>1984.71428571429</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="2" t="n">
+        <f aca="false">$A311+1</f>
+        <v>44214</v>
+      </c>
+      <c r="B312" s="0" t="n">
+        <v>244348</v>
+      </c>
+      <c r="D312" s="1" t="n">
+        <f aca="false">B312+C312</f>
+        <v>244348</v>
+      </c>
+      <c r="E312" s="1" t="n">
+        <f aca="false">D312-D311</f>
+        <v>1634</v>
+      </c>
+      <c r="F312" s="1" t="n">
+        <f aca="false">(E310+E311+E312)/3</f>
+        <v>1867.66666666667</v>
+      </c>
+      <c r="G312" s="1" t="n">
+        <f aca="false">(E306+E307+E308+E309+E310+E311+E312)/7</f>
+        <v>1951.14285714286</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="2" t="n">
+        <f aca="false">$A312+1</f>
+        <v>44215</v>
+      </c>
+      <c r="B313" s="0" t="n">
+        <v>245734</v>
+      </c>
+      <c r="D313" s="1" t="n">
+        <f aca="false">B313+C313</f>
+        <v>245734</v>
+      </c>
+      <c r="E313" s="1" t="n">
+        <f aca="false">D313-D312</f>
+        <v>1386</v>
+      </c>
+      <c r="F313" s="1" t="n">
+        <f aca="false">(E311+E312+E313)/3</f>
+        <v>1588</v>
+      </c>
+      <c r="G313" s="1" t="n">
+        <f aca="false">(E307+E308+E309+E310+E311+E312+E313)/7</f>
+        <v>1872.85714285714</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="2" t="n">
+        <f aca="false">$A313+1</f>
+        <v>44216</v>
+      </c>
+      <c r="B314" s="0" t="n">
+        <v>247236</v>
+      </c>
+      <c r="D314" s="1" t="n">
+        <f aca="false">B314+C314</f>
+        <v>247236</v>
+      </c>
+      <c r="E314" s="1" t="n">
+        <f aca="false">D314-D313</f>
+        <v>1502</v>
+      </c>
+      <c r="F314" s="1" t="n">
+        <f aca="false">(E312+E313+E314)/3</f>
+        <v>1507.33333333333</v>
+      </c>
+      <c r="G314" s="1" t="n">
+        <f aca="false">(E308+E309+E310+E311+E312+E313+E314)/7</f>
+        <v>1791.57142857143</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="2" t="n">
+        <f aca="false">$A314+1</f>
+        <v>44217</v>
+      </c>
+      <c r="D315" s="1" t="n">
+        <f aca="false">B315+C315</f>
+        <v>0</v>
+      </c>
+      <c r="E315" s="1" t="n">
+        <f aca="false">D315-D314</f>
+        <v>-247236</v>
+      </c>
+      <c r="F315" s="1" t="n">
+        <f aca="false">(E313+E314+E315)/3</f>
+        <v>-81449.3333333333</v>
+      </c>
+      <c r="G315" s="1" t="n">
+        <f aca="false">(E309+E310+E311+E312+E313+E314+E315)/7</f>
+        <v>-33832.4285714286</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="2" t="n">
+        <f aca="false">$A315+1</f>
+        <v>44218</v>
+      </c>
+      <c r="D316" s="1" t="n">
+        <f aca="false">B316+C316</f>
+        <v>0</v>
+      </c>
+      <c r="E316" s="1" t="n">
+        <f aca="false">D316-D315</f>
+        <v>0</v>
+      </c>
+      <c r="F316" s="1" t="n">
+        <f aca="false">(E314+E315+E316)/3</f>
+        <v>-81911.3333333333</v>
+      </c>
+      <c r="G316" s="1" t="n">
+        <f aca="false">(E310+E311+E312+E313+E314+E315+E316)/7</f>
+        <v>-34106.4285714286</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="2" t="n">
+        <f aca="false">$A316+1</f>
+        <v>44219</v>
+      </c>
+      <c r="D317" s="1" t="n">
+        <f aca="false">B317+C317</f>
+        <v>0</v>
+      </c>
+      <c r="E317" s="1" t="n">
+        <f aca="false">D317-D316</f>
+        <v>0</v>
+      </c>
+      <c r="F317" s="1" t="n">
+        <f aca="false">(E315+E316+E317)/3</f>
+        <v>-82412</v>
+      </c>
+      <c r="G317" s="1" t="n">
+        <f aca="false">(E311+E312+E313+E314+E315+E316+E317)/7</f>
+        <v>-34424.2857142857</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="2" t="n">
+        <f aca="false">$A317+1</f>
+        <v>44220</v>
+      </c>
+      <c r="D318" s="1" t="n">
+        <f aca="false">B318+C318</f>
+        <v>0</v>
+      </c>
+      <c r="E318" s="1" t="n">
+        <f aca="false">D318-D317</f>
+        <v>0</v>
+      </c>
+      <c r="F318" s="1" t="n">
+        <f aca="false">(E316+E317+E318)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G318" s="1" t="n">
+        <f aca="false">(E312+E313+E314+E315+E316+E317+E318)/7</f>
+        <v>-34673.4285714286</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="2" t="n">
+        <f aca="false">$A318+1</f>
+        <v>44221</v>
+      </c>
+      <c r="D319" s="1" t="n">
+        <f aca="false">B319+C319</f>
+        <v>0</v>
+      </c>
+      <c r="E319" s="1" t="n">
+        <f aca="false">D319-D318</f>
+        <v>0</v>
+      </c>
+      <c r="F319" s="1" t="n">
+        <f aca="false">(E317+E318+E319)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G319" s="1" t="n">
+        <f aca="false">(E313+E314+E315+E316+E317+E318+E319)/7</f>
+        <v>-34906.8571428571</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="2" t="n">
+        <f aca="false">$A319+1</f>
+        <v>44222</v>
+      </c>
+      <c r="D320" s="1" t="n">
+        <f aca="false">B320+C320</f>
+        <v>0</v>
+      </c>
+      <c r="E320" s="1" t="n">
+        <f aca="false">D320-D319</f>
+        <v>0</v>
+      </c>
+      <c r="F320" s="1" t="n">
+        <f aca="false">(E318+E319+E320)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G320" s="1" t="n">
+        <f aca="false">(E314+E315+E316+E317+E318+E319+E320)/7</f>
+        <v>-35104.8571428571</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="2" t="n">
+        <f aca="false">$A320+1</f>
+        <v>44223</v>
+      </c>
+      <c r="D321" s="1" t="n">
+        <f aca="false">B321+C321</f>
+        <v>0</v>
+      </c>
+      <c r="E321" s="1" t="n">
+        <f aca="false">D321-D320</f>
+        <v>0</v>
+      </c>
+      <c r="F321" s="1" t="n">
+        <f aca="false">(E319+E320+E321)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G321" s="1" t="n">
+        <f aca="false">(E315+E316+E317+E318+E319+E320+E321)/7</f>
+        <v>-35319.4285714286</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="2" t="n">
+        <f aca="false">$A321+1</f>
+        <v>44224</v>
+      </c>
+      <c r="D322" s="1" t="n">
+        <f aca="false">B322+C322</f>
+        <v>0</v>
+      </c>
+      <c r="E322" s="1" t="n">
+        <f aca="false">D322-D321</f>
+        <v>0</v>
+      </c>
+      <c r="F322" s="1" t="n">
+        <f aca="false">(E320+E321+E322)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G322" s="1" t="n">
+        <f aca="false">(E316+E317+E318+E319+E320+E321+E322)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="2" t="n">
+        <f aca="false">$A322+1</f>
+        <v>44225</v>
+      </c>
+      <c r="D323" s="1" t="n">
+        <f aca="false">B323+C323</f>
+        <v>0</v>
+      </c>
+      <c r="E323" s="1" t="n">
+        <f aca="false">D323-D322</f>
+        <v>0</v>
+      </c>
+      <c r="F323" s="1" t="n">
+        <f aca="false">(E321+E322+E323)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G323" s="1" t="n">
+        <f aca="false">(E317+E318+E319+E320+E321+E322+E323)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="2" t="n">
+        <f aca="false">$A323+1</f>
+        <v>44226</v>
+      </c>
+      <c r="D324" s="1" t="n">
+        <f aca="false">B324+C324</f>
+        <v>0</v>
+      </c>
+      <c r="E324" s="1" t="n">
+        <f aca="false">D324-D323</f>
+        <v>0</v>
+      </c>
+      <c r="F324" s="1" t="n">
+        <f aca="false">(E322+E323+E324)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G324" s="1" t="n">
+        <f aca="false">(E318+E319+E320+E321+E322+E323+E324)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="2" t="n">
+        <f aca="false">$A324+1</f>
+        <v>44227</v>
+      </c>
+      <c r="D325" s="1" t="n">
+        <f aca="false">B325+C325</f>
+        <v>0</v>
+      </c>
+      <c r="E325" s="1" t="n">
+        <f aca="false">D325-D324</f>
+        <v>0</v>
+      </c>
+      <c r="F325" s="1" t="n">
+        <f aca="false">(E323+E324+E325)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G325" s="1" t="n">
+        <f aca="false">(E319+E320+E321+E322+E323+E324+E325)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="2" t="n">
+        <f aca="false">$A325+1</f>
+        <v>44228</v>
+      </c>
+      <c r="D326" s="1" t="n">
+        <f aca="false">B326+C326</f>
+        <v>0</v>
+      </c>
+      <c r="E326" s="1" t="n">
+        <f aca="false">D326-D325</f>
+        <v>0</v>
+      </c>
+      <c r="F326" s="1" t="n">
+        <f aca="false">(E324+E325+E326)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G326" s="1" t="n">
+        <f aca="false">(E320+E321+E322+E323+E324+E325+E326)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="2" t="n">
+        <f aca="false">$A326+1</f>
+        <v>44229</v>
+      </c>
+      <c r="D327" s="1" t="n">
+        <f aca="false">B327+C327</f>
+        <v>0</v>
+      </c>
+      <c r="E327" s="1" t="n">
+        <f aca="false">D327-D326</f>
+        <v>0</v>
+      </c>
+      <c r="F327" s="1" t="n">
+        <f aca="false">(E325+E326+E327)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G327" s="1" t="n">
+        <f aca="false">(E321+E322+E323+E324+E325+E326+E327)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="2" t="n">
+        <f aca="false">$A327+1</f>
+        <v>44230</v>
+      </c>
+      <c r="D328" s="1" t="n">
+        <f aca="false">B328+C328</f>
+        <v>0</v>
+      </c>
+      <c r="E328" s="1" t="n">
+        <f aca="false">D328-D327</f>
+        <v>0</v>
+      </c>
+      <c r="F328" s="1" t="n">
+        <f aca="false">(E326+E327+E328)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G328" s="1" t="n">
+        <f aca="false">(E322+E323+E324+E325+E326+E327+E328)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="2" t="n">
+        <f aca="false">$A328+1</f>
+        <v>44231</v>
+      </c>
+      <c r="D329" s="1" t="n">
+        <f aca="false">B329+C329</f>
+        <v>0</v>
+      </c>
+      <c r="E329" s="1" t="n">
+        <f aca="false">D329-D328</f>
+        <v>0</v>
+      </c>
+      <c r="F329" s="1" t="n">
+        <f aca="false">(E327+E328+E329)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G329" s="1" t="n">
+        <f aca="false">(E323+E324+E325+E326+E327+E328+E329)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="2" t="n">
+        <f aca="false">$A329+1</f>
+        <v>44232</v>
+      </c>
+      <c r="D330" s="1" t="n">
+        <f aca="false">B330+C330</f>
+        <v>0</v>
+      </c>
+      <c r="E330" s="1" t="n">
+        <f aca="false">D330-D329</f>
+        <v>0</v>
+      </c>
+      <c r="F330" s="1" t="n">
+        <f aca="false">(E328+E329+E330)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G330" s="1" t="n">
+        <f aca="false">(E324+E325+E326+E327+E328+E329+E330)/7</f>
         <v>0</v>
       </c>
     </row>

--- a/NombreDeCas.xlsx
+++ b/NombreDeCas.xlsx
@@ -342,9 +342,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$11:$A$298</c:f>
+              <c:f>Feuil1!$A$11:$A$391</c:f>
               <c:strCache>
-                <c:ptCount val="288"/>
+                <c:ptCount val="381"/>
                 <c:pt idx="0">
                   <c:v>23-mars</c:v>
                 </c:pt>
@@ -1208,16 +1208,295 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>04-janv.</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>05-janv.</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>06-janv.</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>07-janv.</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>08-janv.</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>09-janv.</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>10-janv.</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>11-janv.</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>12-janv.</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>13-janv.</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>14-janv.</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>15-janv.</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>16-janv.</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>17-janv.</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>18-janv.</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>19-janv.</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>20-janv.</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>21-janv.</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>22-janv.</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>23-janv.</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>24-janv.</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>25-janv.</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>26-janv.</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>27-janv.</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>28-janv.</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>29-janv.</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>30-janv.</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>31-janv.</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>01-févr.</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>02-févr.</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>03-févr.</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>04-févr.</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>05-févr.</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>06-févr.</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>07-févr.</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>08-févr.</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>09-févr.</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>10-févr.</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>11-févr.</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>12-févr.</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>13-févr.</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>14-févr.</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>15-févr.</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>16-févr.</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>17-févr.</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>18-févr.</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>19-févr.</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>20-févr.</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>21-févr.</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>22-févr.</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>23-févr.</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>24-févr.</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>25-févr.</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>26-févr.</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>27-févr.</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>28-févr.</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>01-mars</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>02-mars</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>03-mars</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>04-mars</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>05-mars</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>06-mars</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>07-mars</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>08-mars</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>09-mars</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>10-mars</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>11-mars</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>12-mars</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>13-mars</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>14-mars</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>15-mars</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>16-mars</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>17-mars</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>18-mars</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>19-mars</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>20-mars</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>21-mars</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>22-mars</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>23-mars</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>24-mars</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>25-mars</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>26-mars</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>27-mars</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>28-mars</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>29-mars</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>30-mars</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>31-mars</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>01-avr.</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>02-avr.</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>03-avr.</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>04-avr.</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>05-avr.</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>06-avr.</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>07-avr.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$D$11:$D$298</c:f>
+              <c:f>Feuil1!$D$11:$D$391</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="288"/>
+                <c:ptCount val="381"/>
                 <c:pt idx="0">
                   <c:v>628</c:v>
                 </c:pt>
@@ -2081,6 +2360,285 @@
                 </c:pt>
                 <c:pt idx="287">
                   <c:v>212850</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>215358</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>217999</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>220518</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>223106</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>226233</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>228821</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>230690</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>232624</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>234695</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>236827</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>238745</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>240970</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>242714</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>244348</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>245734</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>247236</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>248860</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>250491</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>252176</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>253633</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>254836</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>256002</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>257330</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>258698</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>259993</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>261360</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>262583</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>263473</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>264526</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>265579</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>266672</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>267773</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>268977</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>270058</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>270911</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>271737</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>272726</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>273847</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>274831</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>275880</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>276790</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>277518</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>278187</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>278987</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>279887</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>280687</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>281456</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>282122</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>282927</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>283666</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>284472</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>285330</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>286145</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>287003</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>287740</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>288353</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>288941</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>289670</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>290377</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>291175</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>291924</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>292631</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>293210</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>293860</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>294652</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>295390</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>296143</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>296918</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>297592</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>298186</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>298747</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>299450</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>300152</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>300916</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>301691</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>302339</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>303051</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>303707</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>304490</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>305435</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>306385</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>307394</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>308311</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>309202</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>310066</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>311091</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>312362</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>313676</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>314958</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>316112</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>317364</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>318532</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>319802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2088,11 +2646,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="5257190"/>
-        <c:axId val="79032723"/>
+        <c:axId val="68830570"/>
+        <c:axId val="37595773"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="5257190"/>
+        <c:axId val="68830570"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2124,7 +2682,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79032723"/>
+        <c:crossAx val="37595773"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2132,7 +2690,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79032723"/>
+        <c:axId val="37595773"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2171,7 +2729,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5257190"/>
+        <c:crossAx val="68830570"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2282,9 +2840,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$3:$A$298</c:f>
+              <c:f>Feuil1!$A$3:$A$391</c:f>
               <c:strCache>
-                <c:ptCount val="296"/>
+                <c:ptCount val="389"/>
                 <c:pt idx="0">
                   <c:v>15-mars</c:v>
                 </c:pt>
@@ -3172,16 +3730,295 @@
                 </c:pt>
                 <c:pt idx="295">
                   <c:v>04-janv.</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>05-janv.</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>06-janv.</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>07-janv.</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>08-janv.</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>09-janv.</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>10-janv.</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>11-janv.</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>12-janv.</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>13-janv.</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>14-janv.</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>15-janv.</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>16-janv.</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>17-janv.</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>18-janv.</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>19-janv.</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>20-janv.</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>21-janv.</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>22-janv.</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>23-janv.</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>24-janv.</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>25-janv.</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>26-janv.</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>27-janv.</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>28-janv.</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>29-janv.</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>30-janv.</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>31-janv.</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>01-févr.</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>02-févr.</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>03-févr.</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>04-févr.</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>05-févr.</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>06-févr.</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>07-févr.</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>08-févr.</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>09-févr.</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>10-févr.</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>11-févr.</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>12-févr.</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>13-févr.</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>14-févr.</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>15-févr.</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>16-févr.</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>17-févr.</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>18-févr.</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>19-févr.</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>20-févr.</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>21-févr.</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>22-févr.</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>23-févr.</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>24-févr.</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>25-févr.</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>26-févr.</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>27-févr.</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>28-févr.</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>01-mars</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>02-mars</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>03-mars</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>04-mars</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>05-mars</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>06-mars</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>07-mars</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>08-mars</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>09-mars</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>10-mars</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>11-mars</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>12-mars</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>13-mars</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>14-mars</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>15-mars</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>16-mars</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>17-mars</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>18-mars</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>19-mars</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>20-mars</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>21-mars</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>22-mars</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>23-mars</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>24-mars</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>25-mars</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>26-mars</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>27-mars</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>28-mars</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>29-mars</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>30-mars</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>31-mars</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>01-avr.</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>02-avr.</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>03-avr.</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>04-avr.</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>05-avr.</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>06-avr.</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>07-avr.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$E$3:$E$298</c:f>
+              <c:f>Feuil1!$E$3:$E$391</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="296"/>
+                <c:ptCount val="389"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -4069,6 +4906,285 @@
                 </c:pt>
                 <c:pt idx="295">
                   <c:v>2546</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2508</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2641</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2519</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2588</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>3127</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2588</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1869</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2071</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2132</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1918</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2225</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1744</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1634</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1386</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1502</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1631</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1685</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1457</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1203</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>1166</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>1328</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1368</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>1295</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1367</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>1223</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>1053</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>1053</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>1093</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>1204</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>853</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>826</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>728</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>739</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>806</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>738</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>753</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>674</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>648</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>712</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>945</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>917</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>891</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>1271</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1314</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>1282</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>1154</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>1252</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>1168</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>1270</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4076,11 +5192,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="86187282"/>
-        <c:axId val="49761413"/>
+        <c:axId val="22127452"/>
+        <c:axId val="95456762"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86187282"/>
+        <c:axId val="22127452"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4112,7 +5228,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49761413"/>
+        <c:crossAx val="95456762"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4120,7 +5236,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49761413"/>
+        <c:axId val="95456762"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4159,7 +5275,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86187282"/>
+        <c:crossAx val="22127452"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4245,7 +5361,79 @@
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="310"/>
+            <c:invertIfNegative val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="311"/>
+            <c:invertIfNegative val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="310"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="311"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -4271,9 +5459,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$5:$A$298</c:f>
+              <c:f>Feuil1!$A$5:$A$391</c:f>
               <c:strCache>
-                <c:ptCount val="294"/>
+                <c:ptCount val="387"/>
                 <c:pt idx="0">
                   <c:v>17-mars</c:v>
                 </c:pt>
@@ -5155,16 +6343,295 @@
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>04-janv.</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>05-janv.</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>06-janv.</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>07-janv.</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>08-janv.</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>09-janv.</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>10-janv.</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>11-janv.</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>12-janv.</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>13-janv.</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>14-janv.</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>15-janv.</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>16-janv.</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>17-janv.</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>18-janv.</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>19-janv.</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>20-janv.</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>21-janv.</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>22-janv.</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>23-janv.</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>24-janv.</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>25-janv.</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>26-janv.</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>27-janv.</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>28-janv.</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>29-janv.</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>30-janv.</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>31-janv.</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>01-févr.</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>02-févr.</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>03-févr.</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>04-févr.</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>05-févr.</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>06-févr.</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>07-févr.</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>08-févr.</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>09-févr.</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>10-févr.</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>11-févr.</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>12-févr.</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>13-févr.</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>14-févr.</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>15-févr.</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>16-févr.</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>17-févr.</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>18-févr.</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>19-févr.</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>20-févr.</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>21-févr.</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>22-févr.</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>23-févr.</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>24-févr.</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>25-févr.</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>26-févr.</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>27-févr.</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>28-févr.</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>01-mars</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>02-mars</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>03-mars</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>04-mars</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>05-mars</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>06-mars</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>07-mars</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>08-mars</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>09-mars</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>10-mars</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>11-mars</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>12-mars</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>13-mars</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>14-mars</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>15-mars</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>16-mars</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>17-mars</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>18-mars</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>19-mars</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>20-mars</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>21-mars</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>22-mars</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>23-mars</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>24-mars</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>25-mars</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>26-mars</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>27-mars</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>28-mars</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>29-mars</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>30-mars</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>31-mars</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>01-avr.</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>02-avr.</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>03-avr.</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>04-avr.</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>05-avr.</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>06-avr.</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>07-avr.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$F$5:$F$298</c:f>
+              <c:f>Feuil1!$F$5:$F$391</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="294"/>
+                <c:ptCount val="387"/>
                 <c:pt idx="0">
                   <c:v>16.6666666666667</c:v>
                 </c:pt>
@@ -6046,6 +7513,285 @@
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>2467</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2641</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2565</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2556</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2582.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2744.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2767.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2528</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2130.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1958</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2045.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2040.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2091.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1962.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1867.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1588</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1507.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1504</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1585.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1646.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1591</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1448.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1275.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1232.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>1287.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>1330.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1343.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>1295</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1160</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>1055.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>998.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>1066.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>1082.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>1132.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1128.66666666667</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>889.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>978.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1031.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1051.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>895.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>732.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>789.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>833.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>746.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>736.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>783.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>826.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>843.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>803.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>736</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>643.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>674.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>744.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>751.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>751.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>678.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>645.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>673.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>726.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>755.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>609.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>619.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>655.333333333333</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>711.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>717</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>794.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>892.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>958.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>939</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>890.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>926.666666666667</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>1053.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1203.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>1289</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>1229.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>1191.33333333333</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>1230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6053,11 +7799,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="78820550"/>
-        <c:axId val="8332950"/>
+        <c:axId val="91425977"/>
+        <c:axId val="71307819"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78820550"/>
+        <c:axId val="91425977"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6089,7 +7835,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8332950"/>
+        <c:crossAx val="71307819"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6097,7 +7843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8332950"/>
+        <c:axId val="71307819"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6136,7 +7882,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78820550"/>
+        <c:crossAx val="91425977"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6224,7 +7970,79 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
+            <c:idx val="84"/>
+            <c:invertIfNegative val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="180"/>
+            <c:invertIfNegative val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="202"/>
+            <c:invertIfNegative val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="225"/>
+            <c:invertIfNegative val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="294"/>
+            <c:invertIfNegative val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="295"/>
+            <c:invertIfNegative val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ed7d31"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="337"/>
             <c:invertIfNegative val="0"/>
             <c:spPr>
               <a:solidFill>
@@ -6237,7 +8055,151 @@
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
+              <c:idx val="84"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="180"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
               <c:idx val="202"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="225"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="294"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="295"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:solidFill>
+                        <a:srgbClr val="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="Calibri"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator>; </c:separator>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="337"/>
               <c:txPr>
                 <a:bodyPr/>
                 <a:lstStyle/>
@@ -6285,9 +8247,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Feuil1!$A$9:$A$298</c:f>
+              <c:f>Feuil1!$A$9:$A$391</c:f>
               <c:strCache>
-                <c:ptCount val="290"/>
+                <c:ptCount val="383"/>
                 <c:pt idx="0">
                   <c:v>21-mars</c:v>
                 </c:pt>
@@ -7157,16 +9119,295 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>04-janv.</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>05-janv.</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>06-janv.</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>07-janv.</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>08-janv.</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>09-janv.</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>10-janv.</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>11-janv.</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>12-janv.</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>13-janv.</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>14-janv.</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>15-janv.</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>16-janv.</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>17-janv.</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>18-janv.</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>19-janv.</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>20-janv.</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>21-janv.</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>22-janv.</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>23-janv.</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>24-janv.</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>25-janv.</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>26-janv.</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>27-janv.</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>28-janv.</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>29-janv.</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>30-janv.</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>31-janv.</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>01-févr.</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>02-févr.</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>03-févr.</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>04-févr.</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>05-févr.</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>06-févr.</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>07-févr.</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>08-févr.</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>09-févr.</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>10-févr.</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>11-févr.</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>12-févr.</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>13-févr.</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>14-févr.</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>15-févr.</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>16-févr.</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>17-févr.</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>18-févr.</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>19-févr.</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>20-févr.</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>21-févr.</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>22-févr.</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>23-févr.</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>24-févr.</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>25-févr.</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>26-févr.</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>27-févr.</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>28-févr.</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>01-mars</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>02-mars</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>03-mars</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>04-mars</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>05-mars</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>06-mars</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>07-mars</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>08-mars</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>09-mars</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>10-mars</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>11-mars</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>12-mars</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>13-mars</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>14-mars</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>15-mars</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>16-mars</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>17-mars</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>18-mars</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>19-mars</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>20-mars</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>21-mars</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>22-mars</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>23-mars</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>24-mars</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>25-mars</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>26-mars</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>27-mars</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>28-mars</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>29-mars</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>30-mars</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>31-mars</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>01-avr.</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>02-avr.</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>03-avr.</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>04-avr.</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>05-avr.</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>06-avr.</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>07-avr.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$G$9:$G$298</c:f>
+              <c:f>Feuil1!$G$9:$G$391</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="290"/>
+                <c:ptCount val="383"/>
                 <c:pt idx="0">
                   <c:v>22.4285714285714</c:v>
                 </c:pt>
@@ -8036,6 +10277,285 @@
                 </c:pt>
                 <c:pt idx="289">
                   <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2578.14285714286</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2596.71428571429</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2553.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2522.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2685.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2645.28571428571</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2548.57142857143</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2466.57142857143</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2385.14285714286</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2329.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2234.14285714286</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2105.28571428571</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1984.71428571429</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1951.14285714286</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1872.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1791.57142857143</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1719</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1678</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1600.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1559.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1498.28571428571</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1466.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1442</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1405.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1357.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1312</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1278.57142857143</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>1233.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>1217.71428571429</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1178.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>1139.14285714286</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1111.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>1088.14285714286</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>1067.85714285714</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>1062.57142857143</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>1030.14285714286</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>1008.28571428571</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>986.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>961.714285714286</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>943.857142857143</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>921.428571428572</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>894.428571428571</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>862.857142857143</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>836.571428571429</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>796.571428571429</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>761.714285714286</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>772.714285714286</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>782.714285714286</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>783.571428571429</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>777.571428571429</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>779.714285714286</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>792.428571428571</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>802.571428571429</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>775.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>753.571428571429</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>742.571428571429</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>721</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>718.571428571429</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>703</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>698.714285714286</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>693.857142857143</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>702.714285714286</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>711.714285714286</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>716.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>709.714285714286</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>713.428571428571</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>708.714285714286</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>710.857142857143</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>698.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>685.428571428571</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>680.285714285714</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>681.857142857143</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>681.857142857143</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>678.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>708.571428571429</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>754.714285714286</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>781.285714285714</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>814.714285714286</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>853.142857142857</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>878.714285714286</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>908.428571428571</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>989.571428571429</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>1041.57142857143</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>1080.57142857143</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>1114.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>1166</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1209.42857142857</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>1244.42857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8043,11 +10563,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="27955286"/>
-        <c:axId val="58841941"/>
+        <c:axId val="63779308"/>
+        <c:axId val="1305771"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="27955286"/>
+        <c:axId val="63779308"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8079,7 +10599,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58841941"/>
+        <c:crossAx val="1305771"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8087,7 +10607,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58841941"/>
+        <c:axId val="1305771"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8126,7 +10646,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27955286"/>
+        <c:crossAx val="63779308"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8161,13 +10681,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>428760</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>402840</xdr:colOff>
+      <xdr:colOff>382680</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8175,8 +10695,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7926840" y="1717920"/>
-        <a:ext cx="5597640" cy="2717280"/>
+        <a:off x="7926840" y="1718280"/>
+        <a:ext cx="5577480" cy="2697120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8191,13 +10711,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>647640</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>621720</xdr:colOff>
+      <xdr:colOff>601560</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8205,8 +10725,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13769280" y="1727280"/>
-        <a:ext cx="5597640" cy="2717280"/>
+        <a:off x="13769280" y="1727640"/>
+        <a:ext cx="5577480" cy="2697120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8219,15 +10739,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>3600</xdr:colOff>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>728640</xdr:colOff>
+      <xdr:colOff>708840</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8235,8 +10755,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8438760" y="5146920"/>
-        <a:ext cx="10097640" cy="3126960"/>
+        <a:off x="8439120" y="5147280"/>
+        <a:ext cx="10077480" cy="3106800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8249,15 +10769,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>3600</xdr:colOff>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>717120</xdr:colOff>
+      <xdr:colOff>697320</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>118800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8265,8 +10785,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8438760" y="8575920"/>
-        <a:ext cx="10086120" cy="3126960"/>
+        <a:off x="8439120" y="8576280"/>
+        <a:ext cx="10065960" cy="3162960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8284,10 +10804,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J330"/>
+  <dimension ref="A1:J451"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A301" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B315" activeCellId="0" sqref="B315"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E37" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T72" activeCellId="0" sqref="T72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16659,21 +19179,24 @@
         <f aca="false">$A314+1</f>
         <v>44217</v>
       </c>
+      <c r="B315" s="0" t="n">
+        <v>248860</v>
+      </c>
       <c r="D315" s="1" t="n">
         <f aca="false">B315+C315</f>
-        <v>0</v>
+        <v>248860</v>
       </c>
       <c r="E315" s="1" t="n">
         <f aca="false">D315-D314</f>
-        <v>-247236</v>
+        <v>1624</v>
       </c>
       <c r="F315" s="1" t="n">
         <f aca="false">(E313+E314+E315)/3</f>
-        <v>-81449.3333333333</v>
+        <v>1504</v>
       </c>
       <c r="G315" s="1" t="n">
         <f aca="false">(E309+E310+E311+E312+E313+E314+E315)/7</f>
-        <v>-33832.4285714286</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16681,21 +19204,24 @@
         <f aca="false">$A315+1</f>
         <v>44218</v>
       </c>
+      <c r="B316" s="0" t="n">
+        <v>250491</v>
+      </c>
       <c r="D316" s="1" t="n">
         <f aca="false">B316+C316</f>
-        <v>0</v>
+        <v>250491</v>
       </c>
       <c r="E316" s="1" t="n">
         <f aca="false">D316-D315</f>
-        <v>0</v>
+        <v>1631</v>
       </c>
       <c r="F316" s="1" t="n">
         <f aca="false">(E314+E315+E316)/3</f>
-        <v>-81911.3333333333</v>
+        <v>1585.66666666667</v>
       </c>
       <c r="G316" s="1" t="n">
         <f aca="false">(E310+E311+E312+E313+E314+E315+E316)/7</f>
-        <v>-34106.4285714286</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16703,21 +19229,24 @@
         <f aca="false">$A316+1</f>
         <v>44219</v>
       </c>
+      <c r="B317" s="0" t="n">
+        <v>252176</v>
+      </c>
       <c r="D317" s="1" t="n">
         <f aca="false">B317+C317</f>
-        <v>0</v>
+        <v>252176</v>
       </c>
       <c r="E317" s="1" t="n">
         <f aca="false">D317-D316</f>
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="F317" s="1" t="n">
         <f aca="false">(E315+E316+E317)/3</f>
-        <v>-82412</v>
+        <v>1646.66666666667</v>
       </c>
       <c r="G317" s="1" t="n">
         <f aca="false">(E311+E312+E313+E314+E315+E316+E317)/7</f>
-        <v>-34424.2857142857</v>
+        <v>1600.85714285714</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16725,21 +19254,24 @@
         <f aca="false">$A317+1</f>
         <v>44220</v>
       </c>
+      <c r="B318" s="0" t="n">
+        <v>253633</v>
+      </c>
       <c r="D318" s="1" t="n">
         <f aca="false">B318+C318</f>
-        <v>0</v>
+        <v>253633</v>
       </c>
       <c r="E318" s="1" t="n">
         <f aca="false">D318-D317</f>
-        <v>0</v>
+        <v>1457</v>
       </c>
       <c r="F318" s="1" t="n">
         <f aca="false">(E316+E317+E318)/3</f>
-        <v>0</v>
+        <v>1591</v>
       </c>
       <c r="G318" s="1" t="n">
         <f aca="false">(E312+E313+E314+E315+E316+E317+E318)/7</f>
-        <v>-34673.4285714286</v>
+        <v>1559.85714285714</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16747,21 +19279,24 @@
         <f aca="false">$A318+1</f>
         <v>44221</v>
       </c>
+      <c r="B319" s="0" t="n">
+        <v>254836</v>
+      </c>
       <c r="D319" s="1" t="n">
         <f aca="false">B319+C319</f>
-        <v>0</v>
+        <v>254836</v>
       </c>
       <c r="E319" s="1" t="n">
         <f aca="false">D319-D318</f>
-        <v>0</v>
+        <v>1203</v>
       </c>
       <c r="F319" s="1" t="n">
         <f aca="false">(E317+E318+E319)/3</f>
-        <v>0</v>
+        <v>1448.33333333333</v>
       </c>
       <c r="G319" s="1" t="n">
         <f aca="false">(E313+E314+E315+E316+E317+E318+E319)/7</f>
-        <v>-34906.8571428571</v>
+        <v>1498.28571428571</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16769,21 +19304,24 @@
         <f aca="false">$A319+1</f>
         <v>44222</v>
       </c>
+      <c r="B320" s="0" t="n">
+        <v>256002</v>
+      </c>
       <c r="D320" s="1" t="n">
         <f aca="false">B320+C320</f>
-        <v>0</v>
+        <v>256002</v>
       </c>
       <c r="E320" s="1" t="n">
         <f aca="false">D320-D319</f>
-        <v>0</v>
+        <v>1166</v>
       </c>
       <c r="F320" s="1" t="n">
         <f aca="false">(E318+E319+E320)/3</f>
-        <v>0</v>
+        <v>1275.33333333333</v>
       </c>
       <c r="G320" s="1" t="n">
         <f aca="false">(E314+E315+E316+E317+E318+E319+E320)/7</f>
-        <v>-35104.8571428571</v>
+        <v>1466.85714285714</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16791,21 +19329,24 @@
         <f aca="false">$A320+1</f>
         <v>44223</v>
       </c>
+      <c r="B321" s="0" t="n">
+        <v>257330</v>
+      </c>
       <c r="D321" s="1" t="n">
         <f aca="false">B321+C321</f>
-        <v>0</v>
+        <v>257330</v>
       </c>
       <c r="E321" s="1" t="n">
         <f aca="false">D321-D320</f>
-        <v>0</v>
+        <v>1328</v>
       </c>
       <c r="F321" s="1" t="n">
         <f aca="false">(E319+E320+E321)/3</f>
-        <v>0</v>
+        <v>1232.33333333333</v>
       </c>
       <c r="G321" s="1" t="n">
         <f aca="false">(E315+E316+E317+E318+E319+E320+E321)/7</f>
-        <v>-35319.4285714286</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16813,21 +19354,24 @@
         <f aca="false">$A321+1</f>
         <v>44224</v>
       </c>
+      <c r="B322" s="0" t="n">
+        <v>258698</v>
+      </c>
       <c r="D322" s="1" t="n">
         <f aca="false">B322+C322</f>
-        <v>0</v>
+        <v>258698</v>
       </c>
       <c r="E322" s="1" t="n">
         <f aca="false">D322-D321</f>
-        <v>0</v>
+        <v>1368</v>
       </c>
       <c r="F322" s="1" t="n">
         <f aca="false">(E320+E321+E322)/3</f>
-        <v>0</v>
+        <v>1287.33333333333</v>
       </c>
       <c r="G322" s="1" t="n">
         <f aca="false">(E316+E317+E318+E319+E320+E321+E322)/7</f>
-        <v>0</v>
+        <v>1405.42857142857</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16835,21 +19379,24 @@
         <f aca="false">$A322+1</f>
         <v>44225</v>
       </c>
+      <c r="B323" s="0" t="n">
+        <v>259993</v>
+      </c>
       <c r="D323" s="1" t="n">
         <f aca="false">B323+C323</f>
-        <v>0</v>
+        <v>259993</v>
       </c>
       <c r="E323" s="1" t="n">
         <f aca="false">D323-D322</f>
-        <v>0</v>
+        <v>1295</v>
       </c>
       <c r="F323" s="1" t="n">
         <f aca="false">(E321+E322+E323)/3</f>
-        <v>0</v>
+        <v>1330.33333333333</v>
       </c>
       <c r="G323" s="1" t="n">
         <f aca="false">(E317+E318+E319+E320+E321+E322+E323)/7</f>
-        <v>0</v>
+        <v>1357.42857142857</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16857,21 +19404,24 @@
         <f aca="false">$A323+1</f>
         <v>44226</v>
       </c>
+      <c r="B324" s="0" t="n">
+        <v>261360</v>
+      </c>
       <c r="D324" s="1" t="n">
         <f aca="false">B324+C324</f>
-        <v>0</v>
+        <v>261360</v>
       </c>
       <c r="E324" s="1" t="n">
         <f aca="false">D324-D323</f>
-        <v>0</v>
+        <v>1367</v>
       </c>
       <c r="F324" s="1" t="n">
         <f aca="false">(E322+E323+E324)/3</f>
-        <v>0</v>
+        <v>1343.33333333333</v>
       </c>
       <c r="G324" s="1" t="n">
         <f aca="false">(E318+E319+E320+E321+E322+E323+E324)/7</f>
-        <v>0</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16879,21 +19429,24 @@
         <f aca="false">$A324+1</f>
         <v>44227</v>
       </c>
+      <c r="B325" s="0" t="n">
+        <v>262583</v>
+      </c>
       <c r="D325" s="1" t="n">
         <f aca="false">B325+C325</f>
-        <v>0</v>
+        <v>262583</v>
       </c>
       <c r="E325" s="1" t="n">
         <f aca="false">D325-D324</f>
-        <v>0</v>
+        <v>1223</v>
       </c>
       <c r="F325" s="1" t="n">
         <f aca="false">(E323+E324+E325)/3</f>
-        <v>0</v>
+        <v>1295</v>
       </c>
       <c r="G325" s="1" t="n">
         <f aca="false">(E319+E320+E321+E322+E323+E324+E325)/7</f>
-        <v>0</v>
+        <v>1278.57142857143</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16901,21 +19454,24 @@
         <f aca="false">$A325+1</f>
         <v>44228</v>
       </c>
+      <c r="B326" s="0" t="n">
+        <v>263473</v>
+      </c>
       <c r="D326" s="1" t="n">
         <f aca="false">B326+C326</f>
-        <v>0</v>
+        <v>263473</v>
       </c>
       <c r="E326" s="1" t="n">
         <f aca="false">D326-D325</f>
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="F326" s="1" t="n">
         <f aca="false">(E324+E325+E326)/3</f>
-        <v>0</v>
+        <v>1160</v>
       </c>
       <c r="G326" s="1" t="n">
         <f aca="false">(E320+E321+E322+E323+E324+E325+E326)/7</f>
-        <v>0</v>
+        <v>1233.85714285714</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16923,21 +19479,24 @@
         <f aca="false">$A326+1</f>
         <v>44229</v>
       </c>
+      <c r="B327" s="0" t="n">
+        <v>264526</v>
+      </c>
       <c r="D327" s="1" t="n">
         <f aca="false">B327+C327</f>
-        <v>0</v>
+        <v>264526</v>
       </c>
       <c r="E327" s="1" t="n">
         <f aca="false">D327-D326</f>
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="F327" s="1" t="n">
         <f aca="false">(E325+E326+E327)/3</f>
-        <v>0</v>
+        <v>1055.33333333333</v>
       </c>
       <c r="G327" s="1" t="n">
         <f aca="false">(E321+E322+E323+E324+E325+E326+E327)/7</f>
-        <v>0</v>
+        <v>1217.71428571429</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16945,21 +19504,24 @@
         <f aca="false">$A327+1</f>
         <v>44230</v>
       </c>
+      <c r="B328" s="0" t="n">
+        <v>265579</v>
+      </c>
       <c r="D328" s="1" t="n">
         <f aca="false">B328+C328</f>
-        <v>0</v>
+        <v>265579</v>
       </c>
       <c r="E328" s="1" t="n">
         <f aca="false">D328-D327</f>
-        <v>0</v>
+        <v>1053</v>
       </c>
       <c r="F328" s="1" t="n">
         <f aca="false">(E326+E327+E328)/3</f>
-        <v>0</v>
+        <v>998.666666666667</v>
       </c>
       <c r="G328" s="1" t="n">
         <f aca="false">(E322+E323+E324+E325+E326+E327+E328)/7</f>
-        <v>0</v>
+        <v>1178.42857142857</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16967,21 +19529,24 @@
         <f aca="false">$A328+1</f>
         <v>44231</v>
       </c>
+      <c r="B329" s="0" t="n">
+        <v>266672</v>
+      </c>
       <c r="D329" s="1" t="n">
         <f aca="false">B329+C329</f>
-        <v>0</v>
+        <v>266672</v>
       </c>
       <c r="E329" s="1" t="n">
         <f aca="false">D329-D328</f>
-        <v>0</v>
+        <v>1093</v>
       </c>
       <c r="F329" s="1" t="n">
         <f aca="false">(E327+E328+E329)/3</f>
-        <v>0</v>
+        <v>1066.33333333333</v>
       </c>
       <c r="G329" s="1" t="n">
         <f aca="false">(E323+E324+E325+E326+E327+E328+E329)/7</f>
-        <v>0</v>
+        <v>1139.14285714286</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16989,20 +19554,2877 @@
         <f aca="false">$A329+1</f>
         <v>44232</v>
       </c>
+      <c r="B330" s="0" t="n">
+        <v>267773</v>
+      </c>
       <c r="D330" s="1" t="n">
         <f aca="false">B330+C330</f>
-        <v>0</v>
+        <v>267773</v>
       </c>
       <c r="E330" s="1" t="n">
         <f aca="false">D330-D329</f>
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="F330" s="1" t="n">
         <f aca="false">(E328+E329+E330)/3</f>
-        <v>0</v>
+        <v>1082.33333333333</v>
       </c>
       <c r="G330" s="1" t="n">
         <f aca="false">(E324+E325+E326+E327+E328+E329+E330)/7</f>
+        <v>1111.42857142857</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="2" t="n">
+        <f aca="false">$A330+1</f>
+        <v>44233</v>
+      </c>
+      <c r="B331" s="0" t="n">
+        <v>268977</v>
+      </c>
+      <c r="D331" s="1" t="n">
+        <f aca="false">B331+C331</f>
+        <v>268977</v>
+      </c>
+      <c r="E331" s="1" t="n">
+        <f aca="false">D331-D330</f>
+        <v>1204</v>
+      </c>
+      <c r="F331" s="1" t="n">
+        <f aca="false">(E329+E330+E331)/3</f>
+        <v>1132.66666666667</v>
+      </c>
+      <c r="G331" s="1" t="n">
+        <f aca="false">(E325+E326+E327+E328+E329+E330+E331)/7</f>
+        <v>1088.14285714286</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="2" t="n">
+        <f aca="false">$A331+1</f>
+        <v>44234</v>
+      </c>
+      <c r="B332" s="0" t="n">
+        <v>270058</v>
+      </c>
+      <c r="D332" s="1" t="n">
+        <f aca="false">B332+C332</f>
+        <v>270058</v>
+      </c>
+      <c r="E332" s="1" t="n">
+        <f aca="false">D332-D331</f>
+        <v>1081</v>
+      </c>
+      <c r="F332" s="1" t="n">
+        <f aca="false">(E330+E331+E332)/3</f>
+        <v>1128.66666666667</v>
+      </c>
+      <c r="G332" s="1" t="n">
+        <f aca="false">(E326+E327+E328+E329+E330+E331+E332)/7</f>
+        <v>1067.85714285714</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="2" t="n">
+        <f aca="false">$A332+1</f>
+        <v>44235</v>
+      </c>
+      <c r="B333" s="0" t="n">
+        <v>270911</v>
+      </c>
+      <c r="D333" s="1" t="n">
+        <f aca="false">B333+C333</f>
+        <v>270911</v>
+      </c>
+      <c r="E333" s="1" t="n">
+        <f aca="false">D333-D332</f>
+        <v>853</v>
+      </c>
+      <c r="F333" s="1" t="n">
+        <f aca="false">(E331+E332+E333)/3</f>
+        <v>1046</v>
+      </c>
+      <c r="G333" s="1" t="n">
+        <f aca="false">(E327+E328+E329+E330+E331+E332+E333)/7</f>
+        <v>1062.57142857143</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="2" t="n">
+        <f aca="false">$A333+1</f>
+        <v>44236</v>
+      </c>
+      <c r="B334" s="0" t="n">
+        <v>271737</v>
+      </c>
+      <c r="D334" s="1" t="n">
+        <f aca="false">B334+C334</f>
+        <v>271737</v>
+      </c>
+      <c r="E334" s="1" t="n">
+        <f aca="false">D334-D333</f>
+        <v>826</v>
+      </c>
+      <c r="F334" s="1" t="n">
+        <f aca="false">(E332+E333+E334)/3</f>
+        <v>920</v>
+      </c>
+      <c r="G334" s="1" t="n">
+        <f aca="false">(E328+E329+E330+E331+E332+E333+E334)/7</f>
+        <v>1030.14285714286</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="2" t="n">
+        <f aca="false">$A334+1</f>
+        <v>44237</v>
+      </c>
+      <c r="B335" s="0" t="n">
+        <v>272726</v>
+      </c>
+      <c r="D335" s="1" t="n">
+        <f aca="false">B335+C335</f>
+        <v>272726</v>
+      </c>
+      <c r="E335" s="1" t="n">
+        <f aca="false">D335-D334</f>
+        <v>989</v>
+      </c>
+      <c r="F335" s="1" t="n">
+        <f aca="false">(E333+E334+E335)/3</f>
+        <v>889.333333333333</v>
+      </c>
+      <c r="G335" s="1" t="n">
+        <f aca="false">(E329+E330+E331+E332+E333+E334+E335)/7</f>
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="2" t="n">
+        <f aca="false">$A335+1</f>
+        <v>44238</v>
+      </c>
+      <c r="B336" s="0" t="n">
+        <v>273847</v>
+      </c>
+      <c r="D336" s="1" t="n">
+        <f aca="false">B336+C336</f>
+        <v>273847</v>
+      </c>
+      <c r="E336" s="1" t="n">
+        <f aca="false">D336-D335</f>
+        <v>1121</v>
+      </c>
+      <c r="F336" s="1" t="n">
+        <f aca="false">(E334+E335+E336)/3</f>
+        <v>978.666666666667</v>
+      </c>
+      <c r="G336" s="1" t="n">
+        <f aca="false">(E330+E331+E332+E333+E334+E335+E336)/7</f>
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="2" t="n">
+        <f aca="false">$A336+1</f>
+        <v>44239</v>
+      </c>
+      <c r="B337" s="0" t="n">
+        <v>274831</v>
+      </c>
+      <c r="D337" s="1" t="n">
+        <f aca="false">B337+C337</f>
+        <v>274831</v>
+      </c>
+      <c r="E337" s="1" t="n">
+        <f aca="false">D337-D336</f>
+        <v>984</v>
+      </c>
+      <c r="F337" s="1" t="n">
+        <f aca="false">(E335+E336+E337)/3</f>
+        <v>1031.33333333333</v>
+      </c>
+      <c r="G337" s="1" t="n">
+        <f aca="false">(E331+E332+E333+E334+E335+E336+E337)/7</f>
+        <v>1008.28571428571</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="2" t="n">
+        <f aca="false">$A337+1</f>
+        <v>44240</v>
+      </c>
+      <c r="B338" s="0" t="n">
+        <v>275880</v>
+      </c>
+      <c r="D338" s="1" t="n">
+        <f aca="false">B338+C338</f>
+        <v>275880</v>
+      </c>
+      <c r="E338" s="1" t="n">
+        <f aca="false">D338-D337</f>
+        <v>1049</v>
+      </c>
+      <c r="F338" s="1" t="n">
+        <f aca="false">(E336+E337+E338)/3</f>
+        <v>1051.33333333333</v>
+      </c>
+      <c r="G338" s="1" t="n">
+        <f aca="false">(E332+E333+E334+E335+E336+E337+E338)/7</f>
+        <v>986.142857142857</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="2" t="n">
+        <f aca="false">$A338+1</f>
+        <v>44241</v>
+      </c>
+      <c r="B339" s="0" t="n">
+        <v>276790</v>
+      </c>
+      <c r="D339" s="1" t="n">
+        <f aca="false">B339+C339</f>
+        <v>276790</v>
+      </c>
+      <c r="E339" s="1" t="n">
+        <f aca="false">D339-D338</f>
+        <v>910</v>
+      </c>
+      <c r="F339" s="1" t="n">
+        <f aca="false">(E337+E338+E339)/3</f>
+        <v>981</v>
+      </c>
+      <c r="G339" s="1" t="n">
+        <f aca="false">(E333+E334+E335+E336+E337+E338+E339)/7</f>
+        <v>961.714285714286</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="2" t="n">
+        <f aca="false">$A339+1</f>
+        <v>44242</v>
+      </c>
+      <c r="B340" s="0" t="n">
+        <v>277518</v>
+      </c>
+      <c r="D340" s="1" t="n">
+        <f aca="false">B340+C340</f>
+        <v>277518</v>
+      </c>
+      <c r="E340" s="1" t="n">
+        <f aca="false">D340-D339</f>
+        <v>728</v>
+      </c>
+      <c r="F340" s="1" t="n">
+        <f aca="false">(E338+E339+E340)/3</f>
+        <v>895.666666666667</v>
+      </c>
+      <c r="G340" s="1" t="n">
+        <f aca="false">(E334+E335+E336+E337+E338+E339+E340)/7</f>
+        <v>943.857142857143</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="2" t="n">
+        <f aca="false">$A340+1</f>
+        <v>44243</v>
+      </c>
+      <c r="B341" s="0" t="n">
+        <v>278187</v>
+      </c>
+      <c r="D341" s="1" t="n">
+        <f aca="false">B341+C341</f>
+        <v>278187</v>
+      </c>
+      <c r="E341" s="1" t="n">
+        <f aca="false">D341-D340</f>
+        <v>669</v>
+      </c>
+      <c r="F341" s="1" t="n">
+        <f aca="false">(E339+E340+E341)/3</f>
+        <v>769</v>
+      </c>
+      <c r="G341" s="1" t="n">
+        <f aca="false">(E335+E336+E337+E338+E339+E340+E341)/7</f>
+        <v>921.428571428572</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="2" t="n">
+        <f aca="false">$A341+1</f>
+        <v>44244</v>
+      </c>
+      <c r="B342" s="0" t="n">
+        <v>278987</v>
+      </c>
+      <c r="D342" s="1" t="n">
+        <f aca="false">B342+C342</f>
+        <v>278987</v>
+      </c>
+      <c r="E342" s="1" t="n">
+        <f aca="false">D342-D341</f>
+        <v>800</v>
+      </c>
+      <c r="F342" s="1" t="n">
+        <f aca="false">(E340+E341+E342)/3</f>
+        <v>732.333333333333</v>
+      </c>
+      <c r="G342" s="1" t="n">
+        <f aca="false">(E336+E337+E338+E339+E340+E341+E342)/7</f>
+        <v>894.428571428571</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="2" t="n">
+        <f aca="false">$A342+1</f>
+        <v>44245</v>
+      </c>
+      <c r="B343" s="0" t="n">
+        <v>279887</v>
+      </c>
+      <c r="D343" s="1" t="n">
+        <f aca="false">B343+C343</f>
+        <v>279887</v>
+      </c>
+      <c r="E343" s="1" t="n">
+        <f aca="false">D343-D342</f>
+        <v>900</v>
+      </c>
+      <c r="F343" s="1" t="n">
+        <f aca="false">(E341+E342+E343)/3</f>
+        <v>789.666666666667</v>
+      </c>
+      <c r="G343" s="1" t="n">
+        <f aca="false">(E337+E338+E339+E340+E341+E342+E343)/7</f>
+        <v>862.857142857143</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="2" t="n">
+        <f aca="false">$A343+1</f>
+        <v>44246</v>
+      </c>
+      <c r="B344" s="0" t="n">
+        <v>280687</v>
+      </c>
+      <c r="D344" s="1" t="n">
+        <f aca="false">B344+C344</f>
+        <v>280687</v>
+      </c>
+      <c r="E344" s="1" t="n">
+        <f aca="false">D344-D343</f>
+        <v>800</v>
+      </c>
+      <c r="F344" s="1" t="n">
+        <f aca="false">(E342+E343+E344)/3</f>
+        <v>833.333333333333</v>
+      </c>
+      <c r="G344" s="1" t="n">
+        <f aca="false">(E338+E339+E340+E341+E342+E343+E344)/7</f>
+        <v>836.571428571429</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="2" t="n">
+        <f aca="false">$A344+1</f>
+        <v>44247</v>
+      </c>
+      <c r="B345" s="0" t="n">
+        <v>281456</v>
+      </c>
+      <c r="D345" s="1" t="n">
+        <f aca="false">B345+C345</f>
+        <v>281456</v>
+      </c>
+      <c r="E345" s="1" t="n">
+        <f aca="false">D345-D344</f>
+        <v>769</v>
+      </c>
+      <c r="F345" s="1" t="n">
+        <f aca="false">(E343+E344+E345)/3</f>
+        <v>823</v>
+      </c>
+      <c r="G345" s="1" t="n">
+        <f aca="false">(E339+E340+E341+E342+E343+E344+E345)/7</f>
+        <v>796.571428571429</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="2" t="n">
+        <f aca="false">$A345+1</f>
+        <v>44248</v>
+      </c>
+      <c r="B346" s="0" t="n">
+        <v>282122</v>
+      </c>
+      <c r="D346" s="1" t="n">
+        <f aca="false">B346+C346</f>
+        <v>282122</v>
+      </c>
+      <c r="E346" s="1" t="n">
+        <f aca="false">D346-D345</f>
+        <v>666</v>
+      </c>
+      <c r="F346" s="1" t="n">
+        <f aca="false">(E344+E345+E346)/3</f>
+        <v>745</v>
+      </c>
+      <c r="G346" s="1" t="n">
+        <f aca="false">(E340+E341+E342+E343+E344+E345+E346)/7</f>
+        <v>761.714285714286</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="2" t="n">
+        <f aca="false">$A346+1</f>
+        <v>44249</v>
+      </c>
+      <c r="B347" s="0" t="n">
+        <v>282927</v>
+      </c>
+      <c r="D347" s="1" t="n">
+        <f aca="false">B347+C347</f>
+        <v>282927</v>
+      </c>
+      <c r="E347" s="1" t="n">
+        <f aca="false">D347-D346</f>
+        <v>805</v>
+      </c>
+      <c r="F347" s="1" t="n">
+        <f aca="false">(E345+E346+E347)/3</f>
+        <v>746.666666666667</v>
+      </c>
+      <c r="G347" s="1" t="n">
+        <f aca="false">(E341+E342+E343+E344+E345+E346+E347)/7</f>
+        <v>772.714285714286</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="2" t="n">
+        <f aca="false">$A347+1</f>
+        <v>44250</v>
+      </c>
+      <c r="B348" s="0" t="n">
+        <v>283666</v>
+      </c>
+      <c r="D348" s="1" t="n">
+        <f aca="false">B348+C348</f>
+        <v>283666</v>
+      </c>
+      <c r="E348" s="1" t="n">
+        <f aca="false">D348-D347</f>
+        <v>739</v>
+      </c>
+      <c r="F348" s="1" t="n">
+        <f aca="false">(E346+E347+E348)/3</f>
+        <v>736.666666666667</v>
+      </c>
+      <c r="G348" s="1" t="n">
+        <f aca="false">(E342+E343+E344+E345+E346+E347+E348)/7</f>
+        <v>782.714285714286</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="2" t="n">
+        <f aca="false">$A348+1</f>
+        <v>44251</v>
+      </c>
+      <c r="B349" s="0" t="n">
+        <v>284472</v>
+      </c>
+      <c r="D349" s="1" t="n">
+        <f aca="false">B349+C349</f>
+        <v>284472</v>
+      </c>
+      <c r="E349" s="1" t="n">
+        <f aca="false">D349-D348</f>
+        <v>806</v>
+      </c>
+      <c r="F349" s="1" t="n">
+        <f aca="false">(E347+E348+E349)/3</f>
+        <v>783.333333333333</v>
+      </c>
+      <c r="G349" s="1" t="n">
+        <f aca="false">(E343+E344+E345+E346+E347+E348+E349)/7</f>
+        <v>783.571428571429</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="2" t="n">
+        <f aca="false">$A349+1</f>
+        <v>44252</v>
+      </c>
+      <c r="B350" s="0" t="n">
+        <v>285330</v>
+      </c>
+      <c r="D350" s="1" t="n">
+        <f aca="false">B350+C350</f>
+        <v>285330</v>
+      </c>
+      <c r="E350" s="1" t="n">
+        <f aca="false">D350-D349</f>
+        <v>858</v>
+      </c>
+      <c r="F350" s="1" t="n">
+        <f aca="false">(E348+E349+E350)/3</f>
+        <v>801</v>
+      </c>
+      <c r="G350" s="1" t="n">
+        <f aca="false">(E344+E345+E346+E347+E348+E349+E350)/7</f>
+        <v>777.571428571429</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="2" t="n">
+        <f aca="false">$A350+1</f>
+        <v>44253</v>
+      </c>
+      <c r="B351" s="0" t="n">
+        <f aca="false">285330+815</f>
+        <v>286145</v>
+      </c>
+      <c r="D351" s="1" t="n">
+        <f aca="false">B351+C351</f>
+        <v>286145</v>
+      </c>
+      <c r="E351" s="1" t="n">
+        <f aca="false">D351-D350</f>
+        <v>815</v>
+      </c>
+      <c r="F351" s="1" t="n">
+        <f aca="false">(E349+E350+E351)/3</f>
+        <v>826.333333333333</v>
+      </c>
+      <c r="G351" s="1" t="n">
+        <f aca="false">(E345+E346+E347+E348+E349+E350+E351)/7</f>
+        <v>779.714285714286</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="2" t="n">
+        <f aca="false">$A351+1</f>
+        <v>44254</v>
+      </c>
+      <c r="B352" s="0" t="n">
+        <v>287003</v>
+      </c>
+      <c r="D352" s="1" t="n">
+        <f aca="false">B352+C352</f>
+        <v>287003</v>
+      </c>
+      <c r="E352" s="1" t="n">
+        <f aca="false">D352-D351</f>
+        <v>858</v>
+      </c>
+      <c r="F352" s="1" t="n">
+        <f aca="false">(E350+E351+E352)/3</f>
+        <v>843.666666666667</v>
+      </c>
+      <c r="G352" s="1" t="n">
+        <f aca="false">(E346+E347+E348+E349+E350+E351+E352)/7</f>
+        <v>792.428571428571</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="2" t="n">
+        <f aca="false">$A352+1</f>
+        <v>44255</v>
+      </c>
+      <c r="B353" s="0" t="n">
+        <v>287740</v>
+      </c>
+      <c r="D353" s="1" t="n">
+        <f aca="false">B353+C353</f>
+        <v>287740</v>
+      </c>
+      <c r="E353" s="1" t="n">
+        <f aca="false">D353-D352</f>
+        <v>737</v>
+      </c>
+      <c r="F353" s="1" t="n">
+        <f aca="false">(E351+E352+E353)/3</f>
+        <v>803.333333333333</v>
+      </c>
+      <c r="G353" s="1" t="n">
+        <f aca="false">(E347+E348+E349+E350+E351+E352+E353)/7</f>
+        <v>802.571428571429</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="2" t="n">
+        <f aca="false">$A353+1</f>
+        <v>44256</v>
+      </c>
+      <c r="B354" s="0" t="n">
+        <v>288353</v>
+      </c>
+      <c r="D354" s="1" t="n">
+        <f aca="false">B354+C354</f>
+        <v>288353</v>
+      </c>
+      <c r="E354" s="1" t="n">
+        <f aca="false">D354-D353</f>
+        <v>613</v>
+      </c>
+      <c r="F354" s="1" t="n">
+        <f aca="false">(E352+E353+E354)/3</f>
+        <v>736</v>
+      </c>
+      <c r="G354" s="1" t="n">
+        <f aca="false">(E348+E349+E350+E351+E352+E353+E354)/7</f>
+        <v>775.142857142857</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="2" t="n">
+        <f aca="false">$A354+1</f>
+        <v>44257</v>
+      </c>
+      <c r="B355" s="0" t="n">
+        <v>288941</v>
+      </c>
+      <c r="D355" s="1" t="n">
+        <f aca="false">B355+C355</f>
+        <v>288941</v>
+      </c>
+      <c r="E355" s="1" t="n">
+        <f aca="false">D355-D354</f>
+        <v>588</v>
+      </c>
+      <c r="F355" s="1" t="n">
+        <f aca="false">(E353+E354+E355)/3</f>
+        <v>646</v>
+      </c>
+      <c r="G355" s="1" t="n">
+        <f aca="false">(E349+E350+E351+E352+E353+E354+E355)/7</f>
+        <v>753.571428571429</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="2" t="n">
+        <f aca="false">$A355+1</f>
+        <v>44258</v>
+      </c>
+      <c r="B356" s="0" t="n">
+        <v>289670</v>
+      </c>
+      <c r="D356" s="1" t="n">
+        <f aca="false">B356+C356</f>
+        <v>289670</v>
+      </c>
+      <c r="E356" s="1" t="n">
+        <f aca="false">D356-D355</f>
+        <v>729</v>
+      </c>
+      <c r="F356" s="1" t="n">
+        <f aca="false">(E354+E355+E356)/3</f>
+        <v>643.333333333333</v>
+      </c>
+      <c r="G356" s="1" t="n">
+        <f aca="false">(E350+E351+E352+E353+E354+E355+E356)/7</f>
+        <v>742.571428571429</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="2" t="n">
+        <f aca="false">$A356+1</f>
+        <v>44259</v>
+      </c>
+      <c r="B357" s="0" t="n">
+        <v>290377</v>
+      </c>
+      <c r="D357" s="1" t="n">
+        <f aca="false">B357+C357</f>
+        <v>290377</v>
+      </c>
+      <c r="E357" s="1" t="n">
+        <f aca="false">D357-D356</f>
+        <v>707</v>
+      </c>
+      <c r="F357" s="1" t="n">
+        <f aca="false">(E355+E356+E357)/3</f>
+        <v>674.666666666667</v>
+      </c>
+      <c r="G357" s="1" t="n">
+        <f aca="false">(E351+E352+E353+E354+E355+E356+E357)/7</f>
+        <v>721</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="2" t="n">
+        <f aca="false">$A357+1</f>
+        <v>44260</v>
+      </c>
+      <c r="B358" s="0" t="n">
+        <v>291175</v>
+      </c>
+      <c r="D358" s="1" t="n">
+        <f aca="false">B358+C358</f>
+        <v>291175</v>
+      </c>
+      <c r="E358" s="1" t="n">
+        <f aca="false">D358-D357</f>
+        <v>798</v>
+      </c>
+      <c r="F358" s="1" t="n">
+        <f aca="false">(E356+E357+E358)/3</f>
+        <v>744.666666666667</v>
+      </c>
+      <c r="G358" s="1" t="n">
+        <f aca="false">(E352+E353+E354+E355+E356+E357+E358)/7</f>
+        <v>718.571428571429</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="2" t="n">
+        <f aca="false">$A358+1</f>
+        <v>44261</v>
+      </c>
+      <c r="B359" s="0" t="n">
+        <v>291924</v>
+      </c>
+      <c r="D359" s="1" t="n">
+        <f aca="false">B359+C359</f>
+        <v>291924</v>
+      </c>
+      <c r="E359" s="1" t="n">
+        <f aca="false">D359-D358</f>
+        <v>749</v>
+      </c>
+      <c r="F359" s="1" t="n">
+        <f aca="false">(E357+E358+E359)/3</f>
+        <v>751.333333333333</v>
+      </c>
+      <c r="G359" s="1" t="n">
+        <f aca="false">(E353+E354+E355+E356+E357+E358+E359)/7</f>
+        <v>703</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="2" t="n">
+        <f aca="false">$A359+1</f>
+        <v>44262</v>
+      </c>
+      <c r="B360" s="0" t="n">
+        <v>292631</v>
+      </c>
+      <c r="D360" s="1" t="n">
+        <f aca="false">B360+C360</f>
+        <v>292631</v>
+      </c>
+      <c r="E360" s="1" t="n">
+        <f aca="false">D360-D359</f>
+        <v>707</v>
+      </c>
+      <c r="F360" s="1" t="n">
+        <f aca="false">(E358+E359+E360)/3</f>
+        <v>751.333333333333</v>
+      </c>
+      <c r="G360" s="1" t="n">
+        <f aca="false">(E354+E355+E356+E357+E358+E359+E360)/7</f>
+        <v>698.714285714286</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="2" t="n">
+        <f aca="false">$A360+1</f>
+        <v>44263</v>
+      </c>
+      <c r="B361" s="0" t="n">
+        <v>293210</v>
+      </c>
+      <c r="D361" s="1" t="n">
+        <f aca="false">B361+C361</f>
+        <v>293210</v>
+      </c>
+      <c r="E361" s="1" t="n">
+        <f aca="false">D361-D360</f>
+        <v>579</v>
+      </c>
+      <c r="F361" s="1" t="n">
+        <f aca="false">(E359+E360+E361)/3</f>
+        <v>678.333333333333</v>
+      </c>
+      <c r="G361" s="1" t="n">
+        <f aca="false">(E355+E356+E357+E358+E359+E360+E361)/7</f>
+        <v>693.857142857143</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="2" t="n">
+        <f aca="false">$A361+1</f>
+        <v>44264</v>
+      </c>
+      <c r="B362" s="0" t="n">
+        <f aca="false">B361+650</f>
+        <v>293860</v>
+      </c>
+      <c r="D362" s="1" t="n">
+        <f aca="false">B362+C362</f>
+        <v>293860</v>
+      </c>
+      <c r="E362" s="1" t="n">
+        <f aca="false">D362-D361</f>
+        <v>650</v>
+      </c>
+      <c r="F362" s="1" t="n">
+        <f aca="false">(E360+E361+E362)/3</f>
+        <v>645.333333333333</v>
+      </c>
+      <c r="G362" s="1" t="n">
+        <f aca="false">(E356+E357+E358+E359+E360+E361+E362)/7</f>
+        <v>702.714285714286</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="2" t="n">
+        <f aca="false">$A362+1</f>
+        <v>44265</v>
+      </c>
+      <c r="B363" s="0" t="n">
+        <v>294652</v>
+      </c>
+      <c r="D363" s="1" t="n">
+        <f aca="false">B363+C363</f>
+        <v>294652</v>
+      </c>
+      <c r="E363" s="1" t="n">
+        <f aca="false">D363-D362</f>
+        <v>792</v>
+      </c>
+      <c r="F363" s="1" t="n">
+        <f aca="false">(E361+E362+E363)/3</f>
+        <v>673.666666666667</v>
+      </c>
+      <c r="G363" s="1" t="n">
+        <f aca="false">(E357+E358+E359+E360+E361+E362+E363)/7</f>
+        <v>711.714285714286</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="2" t="n">
+        <f aca="false">$A363+1</f>
+        <v>44266</v>
+      </c>
+      <c r="B364" s="0" t="n">
+        <v>295390</v>
+      </c>
+      <c r="D364" s="1" t="n">
+        <f aca="false">B364+C364</f>
+        <v>295390</v>
+      </c>
+      <c r="E364" s="1" t="n">
+        <f aca="false">D364-D363</f>
+        <v>738</v>
+      </c>
+      <c r="F364" s="1" t="n">
+        <f aca="false">(E362+E363+E364)/3</f>
+        <v>726.666666666667</v>
+      </c>
+      <c r="G364" s="1" t="n">
+        <f aca="false">(E358+E359+E360+E361+E362+E363+E364)/7</f>
+        <v>716.142857142857</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="2" t="n">
+        <f aca="false">$A364+1</f>
+        <v>44267</v>
+      </c>
+      <c r="B365" s="0" t="n">
+        <v>296143</v>
+      </c>
+      <c r="D365" s="1" t="n">
+        <f aca="false">B365+C365</f>
+        <v>296143</v>
+      </c>
+      <c r="E365" s="1" t="n">
+        <f aca="false">D365-D364</f>
+        <v>753</v>
+      </c>
+      <c r="F365" s="1" t="n">
+        <f aca="false">(E363+E364+E365)/3</f>
+        <v>761</v>
+      </c>
+      <c r="G365" s="1" t="n">
+        <f aca="false">(E359+E360+E361+E362+E363+E364+E365)/7</f>
+        <v>709.714285714286</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="2" t="n">
+        <f aca="false">$A365+1</f>
+        <v>44268</v>
+      </c>
+      <c r="B366" s="0" t="n">
+        <v>296918</v>
+      </c>
+      <c r="D366" s="1" t="n">
+        <f aca="false">B366+C366</f>
+        <v>296918</v>
+      </c>
+      <c r="E366" s="1" t="n">
+        <f aca="false">D366-D365</f>
+        <v>775</v>
+      </c>
+      <c r="F366" s="1" t="n">
+        <f aca="false">(E364+E365+E366)/3</f>
+        <v>755.333333333333</v>
+      </c>
+      <c r="G366" s="1" t="n">
+        <f aca="false">(E360+E361+E362+E363+E364+E365+E366)/7</f>
+        <v>713.428571428571</v>
+      </c>
+      <c r="H366" s="0" t="n">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="2" t="n">
+        <f aca="false">$A366+1</f>
+        <v>44269</v>
+      </c>
+      <c r="B367" s="0" t="n">
+        <v>297592</v>
+      </c>
+      <c r="D367" s="1" t="n">
+        <f aca="false">B367+C367</f>
+        <v>297592</v>
+      </c>
+      <c r="E367" s="1" t="n">
+        <f aca="false">D367-D366</f>
+        <v>674</v>
+      </c>
+      <c r="F367" s="1" t="n">
+        <f aca="false">(E365+E366+E367)/3</f>
+        <v>734</v>
+      </c>
+      <c r="G367" s="1" t="n">
+        <f aca="false">(E361+E362+E363+E364+E365+E366+E367)/7</f>
+        <v>708.714285714286</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="2" t="n">
+        <f aca="false">$A367+1</f>
+        <v>44270</v>
+      </c>
+      <c r="B368" s="0" t="n">
+        <v>298186</v>
+      </c>
+      <c r="D368" s="1" t="n">
+        <f aca="false">B368+C368</f>
+        <v>298186</v>
+      </c>
+      <c r="E368" s="1" t="n">
+        <f aca="false">D368-D367</f>
+        <v>594</v>
+      </c>
+      <c r="F368" s="1" t="n">
+        <f aca="false">(E366+E367+E368)/3</f>
+        <v>681</v>
+      </c>
+      <c r="G368" s="1" t="n">
+        <f aca="false">(E362+E363+E364+E365+E366+E367+E368)/7</f>
+        <v>710.857142857143</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="2" t="n">
+        <f aca="false">$A368+1</f>
+        <v>44271</v>
+      </c>
+      <c r="B369" s="0" t="n">
+        <f aca="false">B368+561</f>
+        <v>298747</v>
+      </c>
+      <c r="D369" s="1" t="n">
+        <f aca="false">B369+C369</f>
+        <v>298747</v>
+      </c>
+      <c r="E369" s="1" t="n">
+        <f aca="false">D369-D368</f>
+        <v>561</v>
+      </c>
+      <c r="F369" s="1" t="n">
+        <f aca="false">(E367+E368+E369)/3</f>
+        <v>609.666666666667</v>
+      </c>
+      <c r="G369" s="1" t="n">
+        <f aca="false">(E363+E364+E365+E366+E367+E368+E369)/7</f>
+        <v>698.142857142857</v>
+      </c>
+      <c r="H369" s="0" t="n">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="2" t="n">
+        <f aca="false">$A369+1</f>
+        <v>44272</v>
+      </c>
+      <c r="B370" s="0" t="n">
+        <v>299450</v>
+      </c>
+      <c r="D370" s="1" t="n">
+        <f aca="false">B370+C370</f>
+        <v>299450</v>
+      </c>
+      <c r="E370" s="1" t="n">
+        <f aca="false">D370-D369</f>
+        <v>703</v>
+      </c>
+      <c r="F370" s="1" t="n">
+        <f aca="false">(E368+E369+E370)/3</f>
+        <v>619.333333333333</v>
+      </c>
+      <c r="G370" s="1" t="n">
+        <f aca="false">(E364+E365+E366+E367+E368+E369+E370)/7</f>
+        <v>685.428571428571</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="2" t="n">
+        <f aca="false">$A370+1</f>
+        <v>44273</v>
+      </c>
+      <c r="B371" s="0" t="n">
+        <v>300152</v>
+      </c>
+      <c r="D371" s="1" t="n">
+        <f aca="false">B371+C371</f>
+        <v>300152</v>
+      </c>
+      <c r="E371" s="1" t="n">
+        <f aca="false">D371-D370</f>
+        <v>702</v>
+      </c>
+      <c r="F371" s="1" t="n">
+        <f aca="false">(E369+E370+E371)/3</f>
+        <v>655.333333333333</v>
+      </c>
+      <c r="G371" s="1" t="n">
+        <f aca="false">(E365+E366+E367+E368+E369+E370+E371)/7</f>
+        <v>680.285714285714</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="2" t="n">
+        <f aca="false">$A371+1</f>
+        <v>44274</v>
+      </c>
+      <c r="B372" s="0" t="n">
+        <v>300916</v>
+      </c>
+      <c r="D372" s="1" t="n">
+        <f aca="false">B372+C372</f>
+        <v>300916</v>
+      </c>
+      <c r="E372" s="1" t="n">
+        <f aca="false">D372-D371</f>
+        <v>764</v>
+      </c>
+      <c r="F372" s="1" t="n">
+        <f aca="false">(E370+E371+E372)/3</f>
+        <v>723</v>
+      </c>
+      <c r="G372" s="1" t="n">
+        <f aca="false">(E366+E367+E368+E369+E370+E371+E372)/7</f>
+        <v>681.857142857143</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="2" t="n">
+        <f aca="false">$A372+1</f>
+        <v>44275</v>
+      </c>
+      <c r="B373" s="0" t="n">
+        <v>301691</v>
+      </c>
+      <c r="D373" s="1" t="n">
+        <f aca="false">B373+C373</f>
+        <v>301691</v>
+      </c>
+      <c r="E373" s="1" t="n">
+        <f aca="false">D373-D372</f>
+        <v>775</v>
+      </c>
+      <c r="F373" s="1" t="n">
+        <f aca="false">(E371+E372+E373)/3</f>
+        <v>747</v>
+      </c>
+      <c r="G373" s="1" t="n">
+        <f aca="false">(E367+E368+E369+E370+E371+E372+E373)/7</f>
+        <v>681.857142857143</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="2" t="n">
+        <f aca="false">$A373+1</f>
+        <v>44276</v>
+      </c>
+      <c r="B374" s="0" t="n">
+        <v>302339</v>
+      </c>
+      <c r="D374" s="1" t="n">
+        <f aca="false">B374+C374</f>
+        <v>302339</v>
+      </c>
+      <c r="E374" s="1" t="n">
+        <f aca="false">D374-D373</f>
+        <v>648</v>
+      </c>
+      <c r="F374" s="1" t="n">
+        <f aca="false">(E372+E373+E374)/3</f>
+        <v>729</v>
+      </c>
+      <c r="G374" s="1" t="n">
+        <f aca="false">(E368+E369+E370+E371+E372+E373+E374)/7</f>
+        <v>678.142857142857</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="2" t="n">
+        <f aca="false">$A374+1</f>
+        <v>44277</v>
+      </c>
+      <c r="B375" s="0" t="n">
+        <v>303051</v>
+      </c>
+      <c r="D375" s="1" t="n">
+        <f aca="false">B375+C375</f>
+        <v>303051</v>
+      </c>
+      <c r="E375" s="1" t="n">
+        <f aca="false">D375-D374</f>
+        <v>712</v>
+      </c>
+      <c r="F375" s="1" t="n">
+        <f aca="false">(E373+E374+E375)/3</f>
+        <v>711.666666666667</v>
+      </c>
+      <c r="G375" s="1" t="n">
+        <f aca="false">(E369+E370+E371+E372+E373+E374+E375)/7</f>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="2" t="n">
+        <f aca="false">$A375+1</f>
+        <v>44278</v>
+      </c>
+      <c r="B376" s="0" t="n">
+        <v>303707</v>
+      </c>
+      <c r="D376" s="1" t="n">
+        <f aca="false">B376+C376</f>
+        <v>303707</v>
+      </c>
+      <c r="E376" s="1" t="n">
+        <f aca="false">D376-D375</f>
+        <v>656</v>
+      </c>
+      <c r="F376" s="1" t="n">
+        <f aca="false">(E374+E375+E376)/3</f>
+        <v>672</v>
+      </c>
+      <c r="G376" s="1" t="n">
+        <f aca="false">(E370+E371+E372+E373+E374+E375+E376)/7</f>
+        <v>708.571428571429</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="2" t="n">
+        <f aca="false">$A376+1</f>
+        <v>44279</v>
+      </c>
+      <c r="B377" s="0" t="n">
+        <v>304490</v>
+      </c>
+      <c r="D377" s="1" t="n">
+        <f aca="false">B377+C377</f>
+        <v>304490</v>
+      </c>
+      <c r="E377" s="1" t="n">
+        <f aca="false">D377-D376</f>
+        <v>783</v>
+      </c>
+      <c r="F377" s="1" t="n">
+        <f aca="false">(E375+E376+E377)/3</f>
+        <v>717</v>
+      </c>
+      <c r="G377" s="1" t="n">
+        <f aca="false">(E371+E372+E373+E374+E375+E376+E377)/7</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="2" t="n">
+        <f aca="false">$A377+1</f>
+        <v>44280</v>
+      </c>
+      <c r="B378" s="0" t="n">
+        <v>305435</v>
+      </c>
+      <c r="D378" s="1" t="n">
+        <f aca="false">B378+C378</f>
+        <v>305435</v>
+      </c>
+      <c r="E378" s="1" t="n">
+        <f aca="false">D378-D377</f>
+        <v>945</v>
+      </c>
+      <c r="F378" s="1" t="n">
+        <f aca="false">(E376+E377+E378)/3</f>
+        <v>794.666666666667</v>
+      </c>
+      <c r="G378" s="1" t="n">
+        <f aca="false">(E372+E373+E374+E375+E376+E377+E378)/7</f>
+        <v>754.714285714286</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="2" t="n">
+        <f aca="false">$A378+1</f>
+        <v>44281</v>
+      </c>
+      <c r="B379" s="0" t="n">
+        <v>306385</v>
+      </c>
+      <c r="D379" s="1" t="n">
+        <f aca="false">B379+C379</f>
+        <v>306385</v>
+      </c>
+      <c r="E379" s="1" t="n">
+        <f aca="false">D379-D378</f>
+        <v>950</v>
+      </c>
+      <c r="F379" s="1" t="n">
+        <f aca="false">(E377+E378+E379)/3</f>
+        <v>892.666666666667</v>
+      </c>
+      <c r="G379" s="1" t="n">
+        <f aca="false">(E373+E374+E375+E376+E377+E378+E379)/7</f>
+        <v>781.285714285714</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="2" t="n">
+        <f aca="false">$A379+1</f>
+        <v>44282</v>
+      </c>
+      <c r="B380" s="0" t="n">
+        <v>307394</v>
+      </c>
+      <c r="D380" s="1" t="n">
+        <f aca="false">B380+C380</f>
+        <v>307394</v>
+      </c>
+      <c r="E380" s="1" t="n">
+        <f aca="false">D380-D379</f>
+        <v>1009</v>
+      </c>
+      <c r="F380" s="1" t="n">
+        <f aca="false">(E378+E379+E380)/3</f>
+        <v>968</v>
+      </c>
+      <c r="G380" s="1" t="n">
+        <f aca="false">(E374+E375+E376+E377+E378+E379+E380)/7</f>
+        <v>814.714285714286</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="2" t="n">
+        <f aca="false">$A380+1</f>
+        <v>44283</v>
+      </c>
+      <c r="B381" s="0" t="n">
+        <v>308311</v>
+      </c>
+      <c r="D381" s="1" t="n">
+        <f aca="false">B381+C381</f>
+        <v>308311</v>
+      </c>
+      <c r="E381" s="1" t="n">
+        <f aca="false">D381-D380</f>
+        <v>917</v>
+      </c>
+      <c r="F381" s="1" t="n">
+        <f aca="false">(E379+E380+E381)/3</f>
+        <v>958.666666666667</v>
+      </c>
+      <c r="G381" s="1" t="n">
+        <f aca="false">(E375+E376+E377+E378+E379+E380+E381)/7</f>
+        <v>853.142857142857</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="2" t="n">
+        <f aca="false">$A381+1</f>
+        <v>44284</v>
+      </c>
+      <c r="B382" s="0" t="n">
+        <v>309202</v>
+      </c>
+      <c r="D382" s="1" t="n">
+        <f aca="false">B382+C382</f>
+        <v>309202</v>
+      </c>
+      <c r="E382" s="1" t="n">
+        <f aca="false">D382-D381</f>
+        <v>891</v>
+      </c>
+      <c r="F382" s="1" t="n">
+        <f aca="false">(E380+E381+E382)/3</f>
+        <v>939</v>
+      </c>
+      <c r="G382" s="1" t="n">
+        <f aca="false">(E376+E377+E378+E379+E380+E381+E382)/7</f>
+        <v>878.714285714286</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="2" t="n">
+        <f aca="false">$A382+1</f>
+        <v>44285</v>
+      </c>
+      <c r="B383" s="1" t="n">
+        <v>310066</v>
+      </c>
+      <c r="D383" s="1" t="n">
+        <f aca="false">B383+C383</f>
+        <v>310066</v>
+      </c>
+      <c r="E383" s="1" t="n">
+        <f aca="false">B383-D382</f>
+        <v>864</v>
+      </c>
+      <c r="F383" s="1" t="n">
+        <f aca="false">(E381+E382+E383)/3</f>
+        <v>890.666666666667</v>
+      </c>
+      <c r="G383" s="1" t="n">
+        <f aca="false">(E377+E378+E379+E380+E381+E382+E383)/7</f>
+        <v>908.428571428571</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="2" t="n">
+        <f aca="false">$A383+1</f>
+        <v>44286</v>
+      </c>
+      <c r="B384" s="1" t="n">
+        <v>311091</v>
+      </c>
+      <c r="D384" s="1" t="n">
+        <f aca="false">B384+C384</f>
+        <v>311091</v>
+      </c>
+      <c r="E384" s="1" t="n">
+        <f aca="false">B384-B383</f>
+        <v>1025</v>
+      </c>
+      <c r="F384" s="1" t="n">
+        <f aca="false">(E382+E383+E384)/3</f>
+        <v>926.666666666667</v>
+      </c>
+      <c r="G384" s="1" t="n">
+        <f aca="false">(E378+E379+E380+E381+E382+E383+E384)/7</f>
+        <v>943</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="2" t="n">
+        <f aca="false">$A384+1</f>
+        <v>44287</v>
+      </c>
+      <c r="B385" s="0" t="n">
+        <v>312362</v>
+      </c>
+      <c r="D385" s="1" t="n">
+        <f aca="false">B385+C385</f>
+        <v>312362</v>
+      </c>
+      <c r="E385" s="1" t="n">
+        <f aca="false">D385-B384</f>
+        <v>1271</v>
+      </c>
+      <c r="F385" s="1" t="n">
+        <f aca="false">(E383+E384+E385)/3</f>
+        <v>1053.33333333333</v>
+      </c>
+      <c r="G385" s="1" t="n">
+        <f aca="false">(E379+E380+E381+E382+E383+E384+E385)/7</f>
+        <v>989.571428571429</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="2" t="n">
+        <f aca="false">$A385+1</f>
+        <v>44288</v>
+      </c>
+      <c r="B386" s="0" t="n">
+        <v>313676</v>
+      </c>
+      <c r="D386" s="1" t="n">
+        <f aca="false">B386+C386</f>
+        <v>313676</v>
+      </c>
+      <c r="E386" s="1" t="n">
+        <f aca="false">D386-D385</f>
+        <v>1314</v>
+      </c>
+      <c r="F386" s="1" t="n">
+        <f aca="false">(E384+E385+E386)/3</f>
+        <v>1203.33333333333</v>
+      </c>
+      <c r="G386" s="1" t="n">
+        <f aca="false">(E380+E381+E382+E383+E384+E385+E386)/7</f>
+        <v>1041.57142857143</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="2" t="n">
+        <f aca="false">$A386+1</f>
+        <v>44289</v>
+      </c>
+      <c r="B387" s="0" t="n">
+        <v>314958</v>
+      </c>
+      <c r="D387" s="1" t="n">
+        <f aca="false">B387+C387</f>
+        <v>314958</v>
+      </c>
+      <c r="E387" s="1" t="n">
+        <f aca="false">D387-D386</f>
+        <v>1282</v>
+      </c>
+      <c r="F387" s="1" t="n">
+        <f aca="false">(E385+E386+E387)/3</f>
+        <v>1289</v>
+      </c>
+      <c r="G387" s="1" t="n">
+        <f aca="false">(E381+E382+E383+E384+E385+E386+E387)/7</f>
+        <v>1080.57142857143</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="2" t="n">
+        <f aca="false">$A387+1</f>
+        <v>44290</v>
+      </c>
+      <c r="B388" s="0" t="n">
+        <v>316112</v>
+      </c>
+      <c r="D388" s="1" t="n">
+        <f aca="false">B388+C388</f>
+        <v>316112</v>
+      </c>
+      <c r="E388" s="1" t="n">
+        <f aca="false">D388-D387</f>
+        <v>1154</v>
+      </c>
+      <c r="F388" s="1" t="n">
+        <f aca="false">(E386+E387+E388)/3</f>
+        <v>1250</v>
+      </c>
+      <c r="G388" s="1" t="n">
+        <f aca="false">(E382+E383+E384+E385+E386+E387+E388)/7</f>
+        <v>1114.42857142857</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="2" t="n">
+        <f aca="false">$A388+1</f>
+        <v>44291</v>
+      </c>
+      <c r="B389" s="0" t="n">
+        <v>317364</v>
+      </c>
+      <c r="D389" s="1" t="n">
+        <f aca="false">B389+C389</f>
+        <v>317364</v>
+      </c>
+      <c r="E389" s="1" t="n">
+        <f aca="false">D389-D388</f>
+        <v>1252</v>
+      </c>
+      <c r="F389" s="1" t="n">
+        <f aca="false">(E387+E388+E389)/3</f>
+        <v>1229.33333333333</v>
+      </c>
+      <c r="G389" s="1" t="n">
+        <f aca="false">(E383+E384+E385+E386+E387+E388+E389)/7</f>
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="2" t="n">
+        <f aca="false">$A389+1</f>
+        <v>44292</v>
+      </c>
+      <c r="B390" s="0" t="n">
+        <v>318532</v>
+      </c>
+      <c r="D390" s="1" t="n">
+        <f aca="false">B390+C390</f>
+        <v>318532</v>
+      </c>
+      <c r="E390" s="1" t="n">
+        <f aca="false">D390-D389</f>
+        <v>1168</v>
+      </c>
+      <c r="F390" s="1" t="n">
+        <f aca="false">(E388+E389+E390)/3</f>
+        <v>1191.33333333333</v>
+      </c>
+      <c r="G390" s="1" t="n">
+        <f aca="false">(E384+E385+E386+E387+E388+E389+E390)/7</f>
+        <v>1209.42857142857</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="2" t="n">
+        <f aca="false">$A390+1</f>
+        <v>44293</v>
+      </c>
+      <c r="B391" s="0" t="n">
+        <v>319802</v>
+      </c>
+      <c r="D391" s="1" t="n">
+        <f aca="false">B391+C391</f>
+        <v>319802</v>
+      </c>
+      <c r="E391" s="1" t="n">
+        <f aca="false">D391-D390</f>
+        <v>1270</v>
+      </c>
+      <c r="F391" s="1" t="n">
+        <f aca="false">(E389+E390+E391)/3</f>
+        <v>1230</v>
+      </c>
+      <c r="G391" s="1" t="n">
+        <f aca="false">(E385+E386+E387+E388+E389+E390+E391)/7</f>
+        <v>1244.42857142857</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="2" t="n">
+        <f aca="false">$A391+1</f>
+        <v>44294</v>
+      </c>
+      <c r="D392" s="1" t="n">
+        <f aca="false">B392+C392</f>
+        <v>0</v>
+      </c>
+      <c r="E392" s="1" t="n">
+        <f aca="false">D392-D391</f>
+        <v>-319802</v>
+      </c>
+      <c r="F392" s="1" t="n">
+        <f aca="false">(E390+E391+E392)/3</f>
+        <v>-105788</v>
+      </c>
+      <c r="G392" s="1" t="n">
+        <f aca="false">(E386+E387+E388+E389+E390+E391+E392)/7</f>
+        <v>-44623.1428571429</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="2" t="n">
+        <f aca="false">$A392+1</f>
+        <v>44295</v>
+      </c>
+      <c r="D393" s="1" t="n">
+        <f aca="false">B393+C393</f>
+        <v>0</v>
+      </c>
+      <c r="E393" s="1" t="n">
+        <f aca="false">D393-D392</f>
+        <v>0</v>
+      </c>
+      <c r="F393" s="1" t="n">
+        <f aca="false">(E391+E392+E393)/3</f>
+        <v>-106177.333333333</v>
+      </c>
+      <c r="G393" s="1" t="n">
+        <f aca="false">(E387+E388+E389+E390+E391+E392+E393)/7</f>
+        <v>-44810.8571428571</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="2" t="n">
+        <f aca="false">$A393+1</f>
+        <v>44296</v>
+      </c>
+      <c r="D394" s="1" t="n">
+        <f aca="false">B394+C394</f>
+        <v>0</v>
+      </c>
+      <c r="E394" s="1" t="n">
+        <f aca="false">D394-D393</f>
+        <v>0</v>
+      </c>
+      <c r="F394" s="1" t="n">
+        <f aca="false">(E392+E393+E394)/3</f>
+        <v>-106600.666666667</v>
+      </c>
+      <c r="G394" s="1" t="n">
+        <f aca="false">(E388+E389+E390+E391+E392+E393+E394)/7</f>
+        <v>-44994</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="2" t="n">
+        <f aca="false">$A394+1</f>
+        <v>44297</v>
+      </c>
+      <c r="D395" s="1" t="n">
+        <f aca="false">B395+C395</f>
+        <v>0</v>
+      </c>
+      <c r="E395" s="1" t="n">
+        <f aca="false">D395-D394</f>
+        <v>0</v>
+      </c>
+      <c r="F395" s="1" t="n">
+        <f aca="false">(E393+E394+E395)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G395" s="1" t="n">
+        <f aca="false">(E389+E390+E391+E392+E393+E394+E395)/7</f>
+        <v>-45158.8571428571</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="2" t="n">
+        <f aca="false">$A395+1</f>
+        <v>44298</v>
+      </c>
+      <c r="D396" s="1" t="n">
+        <f aca="false">B396+C396</f>
+        <v>0</v>
+      </c>
+      <c r="E396" s="1" t="n">
+        <f aca="false">D396-D395</f>
+        <v>0</v>
+      </c>
+      <c r="F396" s="1" t="n">
+        <f aca="false">(E394+E395+E396)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G396" s="1" t="n">
+        <f aca="false">(E390+E391+E392+E393+E394+E395+E396)/7</f>
+        <v>-45337.7142857143</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="2" t="n">
+        <f aca="false">$A396+1</f>
+        <v>44299</v>
+      </c>
+      <c r="D397" s="1" t="n">
+        <f aca="false">B397+C397</f>
+        <v>0</v>
+      </c>
+      <c r="E397" s="1" t="n">
+        <f aca="false">D397-D396</f>
+        <v>0</v>
+      </c>
+      <c r="F397" s="1" t="n">
+        <f aca="false">(E395+E396+E397)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G397" s="1" t="n">
+        <f aca="false">(E391+E392+E393+E394+E395+E396+E397)/7</f>
+        <v>-45504.5714285714</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="2" t="n">
+        <f aca="false">$A397+1</f>
+        <v>44300</v>
+      </c>
+      <c r="D398" s="1" t="n">
+        <f aca="false">B398+C398</f>
+        <v>0</v>
+      </c>
+      <c r="E398" s="1" t="n">
+        <f aca="false">D398-D397</f>
+        <v>0</v>
+      </c>
+      <c r="F398" s="1" t="n">
+        <f aca="false">(E396+E397+E398)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G398" s="1" t="n">
+        <f aca="false">(E392+E393+E394+E395+E396+E397+E398)/7</f>
+        <v>-45686</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="2" t="n">
+        <f aca="false">$A398+1</f>
+        <v>44301</v>
+      </c>
+      <c r="D399" s="1" t="n">
+        <f aca="false">B399+C399</f>
+        <v>0</v>
+      </c>
+      <c r="E399" s="1" t="n">
+        <f aca="false">D399-D398</f>
+        <v>0</v>
+      </c>
+      <c r="F399" s="1" t="n">
+        <f aca="false">(E397+E398+E399)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G399" s="1" t="n">
+        <f aca="false">(E393+E394+E395+E396+E397+E398+E399)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="2" t="n">
+        <f aca="false">$A399+1</f>
+        <v>44302</v>
+      </c>
+      <c r="D400" s="1" t="n">
+        <f aca="false">B400+C400</f>
+        <v>0</v>
+      </c>
+      <c r="E400" s="1" t="n">
+        <f aca="false">D400-D399</f>
+        <v>0</v>
+      </c>
+      <c r="F400" s="1" t="n">
+        <f aca="false">(E398+E399+E400)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G400" s="1" t="n">
+        <f aca="false">(E394+E395+E396+E397+E398+E399+E400)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="2" t="n">
+        <f aca="false">$A400+1</f>
+        <v>44303</v>
+      </c>
+      <c r="D401" s="1" t="n">
+        <f aca="false">B401+C401</f>
+        <v>0</v>
+      </c>
+      <c r="E401" s="1" t="n">
+        <f aca="false">D401-D400</f>
+        <v>0</v>
+      </c>
+      <c r="F401" s="1" t="n">
+        <f aca="false">(E399+E400+E401)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G401" s="1" t="n">
+        <f aca="false">(E395+E396+E397+E398+E399+E400+E401)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="2" t="n">
+        <f aca="false">$A401+1</f>
+        <v>44304</v>
+      </c>
+      <c r="D402" s="1" t="n">
+        <f aca="false">B402+C402</f>
+        <v>0</v>
+      </c>
+      <c r="E402" s="1" t="n">
+        <f aca="false">D402-D401</f>
+        <v>0</v>
+      </c>
+      <c r="F402" s="1" t="n">
+        <f aca="false">(E400+E401+E402)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G402" s="1" t="n">
+        <f aca="false">(E396+E397+E398+E399+E400+E401+E402)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="2" t="n">
+        <f aca="false">$A402+1</f>
+        <v>44305</v>
+      </c>
+      <c r="D403" s="1" t="n">
+        <f aca="false">B403+C403</f>
+        <v>0</v>
+      </c>
+      <c r="E403" s="1" t="n">
+        <f aca="false">D403-D402</f>
+        <v>0</v>
+      </c>
+      <c r="F403" s="1" t="n">
+        <f aca="false">(E401+E402+E403)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G403" s="1" t="n">
+        <f aca="false">(E397+E398+E399+E400+E401+E402+E403)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="2" t="n">
+        <f aca="false">$A403+1</f>
+        <v>44306</v>
+      </c>
+      <c r="D404" s="1" t="n">
+        <f aca="false">B404+C404</f>
+        <v>0</v>
+      </c>
+      <c r="E404" s="1" t="n">
+        <f aca="false">D404-D403</f>
+        <v>0</v>
+      </c>
+      <c r="F404" s="1" t="n">
+        <f aca="false">(E402+E403+E404)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G404" s="1" t="n">
+        <f aca="false">(E398+E399+E400+E401+E402+E403+E404)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="2" t="n">
+        <f aca="false">$A404+1</f>
+        <v>44307</v>
+      </c>
+      <c r="D405" s="1" t="n">
+        <f aca="false">B405+C405</f>
+        <v>0</v>
+      </c>
+      <c r="E405" s="1" t="n">
+        <f aca="false">D405-D404</f>
+        <v>0</v>
+      </c>
+      <c r="F405" s="1" t="n">
+        <f aca="false">(E403+E404+E405)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G405" s="1" t="n">
+        <f aca="false">(E399+E400+E401+E402+E403+E404+E405)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="2" t="n">
+        <f aca="false">$A405+1</f>
+        <v>44308</v>
+      </c>
+      <c r="D406" s="1" t="n">
+        <f aca="false">B406+C406</f>
+        <v>0</v>
+      </c>
+      <c r="E406" s="1" t="n">
+        <f aca="false">D406-D405</f>
+        <v>0</v>
+      </c>
+      <c r="F406" s="1" t="n">
+        <f aca="false">(E404+E405+E406)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G406" s="1" t="n">
+        <f aca="false">(E400+E401+E402+E403+E404+E405+E406)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="2" t="n">
+        <f aca="false">$A406+1</f>
+        <v>44309</v>
+      </c>
+      <c r="D407" s="1" t="n">
+        <f aca="false">B407+C407</f>
+        <v>0</v>
+      </c>
+      <c r="E407" s="1" t="n">
+        <f aca="false">D407-D406</f>
+        <v>0</v>
+      </c>
+      <c r="F407" s="1" t="n">
+        <f aca="false">(E405+E406+E407)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G407" s="1" t="n">
+        <f aca="false">(E401+E402+E403+E404+E405+E406+E407)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="2" t="n">
+        <f aca="false">$A407+1</f>
+        <v>44310</v>
+      </c>
+      <c r="D408" s="1" t="n">
+        <f aca="false">B408+C408</f>
+        <v>0</v>
+      </c>
+      <c r="E408" s="1" t="n">
+        <f aca="false">D408-D407</f>
+        <v>0</v>
+      </c>
+      <c r="F408" s="1" t="n">
+        <f aca="false">(E406+E407+E408)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G408" s="1" t="n">
+        <f aca="false">(E402+E403+E404+E405+E406+E407+E408)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="2" t="n">
+        <f aca="false">$A408+1</f>
+        <v>44311</v>
+      </c>
+      <c r="D409" s="1" t="n">
+        <f aca="false">B409+C409</f>
+        <v>0</v>
+      </c>
+      <c r="E409" s="1" t="n">
+        <f aca="false">D409-D408</f>
+        <v>0</v>
+      </c>
+      <c r="F409" s="1" t="n">
+        <f aca="false">(E407+E408+E409)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G409" s="1" t="n">
+        <f aca="false">(E403+E404+E405+E406+E407+E408+E409)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="2" t="n">
+        <f aca="false">$A409+1</f>
+        <v>44312</v>
+      </c>
+      <c r="D410" s="1" t="n">
+        <f aca="false">B410+C410</f>
+        <v>0</v>
+      </c>
+      <c r="E410" s="1" t="n">
+        <f aca="false">D410-D409</f>
+        <v>0</v>
+      </c>
+      <c r="F410" s="1" t="n">
+        <f aca="false">(E408+E409+E410)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G410" s="1" t="n">
+        <f aca="false">(E404+E405+E406+E407+E408+E409+E410)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="2" t="n">
+        <f aca="false">$A410+1</f>
+        <v>44313</v>
+      </c>
+      <c r="D411" s="1" t="n">
+        <f aca="false">B411+C411</f>
+        <v>0</v>
+      </c>
+      <c r="E411" s="1" t="n">
+        <f aca="false">D411-D410</f>
+        <v>0</v>
+      </c>
+      <c r="F411" s="1" t="n">
+        <f aca="false">(E409+E410+E411)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G411" s="1" t="n">
+        <f aca="false">(E405+E406+E407+E408+E409+E410+E411)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="2" t="n">
+        <f aca="false">$A411+1</f>
+        <v>44314</v>
+      </c>
+      <c r="D412" s="1" t="n">
+        <f aca="false">B412+C412</f>
+        <v>0</v>
+      </c>
+      <c r="E412" s="1" t="n">
+        <f aca="false">D412-D411</f>
+        <v>0</v>
+      </c>
+      <c r="F412" s="1" t="n">
+        <f aca="false">(E410+E411+E412)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G412" s="1" t="n">
+        <f aca="false">(E406+E407+E408+E409+E410+E411+E412)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="2" t="n">
+        <f aca="false">$A412+1</f>
+        <v>44315</v>
+      </c>
+      <c r="D413" s="1" t="n">
+        <f aca="false">B413+C413</f>
+        <v>0</v>
+      </c>
+      <c r="E413" s="1" t="n">
+        <f aca="false">D413-D412</f>
+        <v>0</v>
+      </c>
+      <c r="F413" s="1" t="n">
+        <f aca="false">(E411+E412+E413)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G413" s="1" t="n">
+        <f aca="false">(E407+E408+E409+E410+E411+E412+E413)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="2" t="n">
+        <f aca="false">$A413+1</f>
+        <v>44316</v>
+      </c>
+      <c r="D414" s="1" t="n">
+        <f aca="false">B414+C414</f>
+        <v>0</v>
+      </c>
+      <c r="E414" s="1" t="n">
+        <f aca="false">D414-D413</f>
+        <v>0</v>
+      </c>
+      <c r="F414" s="1" t="n">
+        <f aca="false">(E412+E413+E414)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G414" s="1" t="n">
+        <f aca="false">(E408+E409+E410+E411+E412+E413+E414)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="2" t="n">
+        <f aca="false">$A414+1</f>
+        <v>44317</v>
+      </c>
+      <c r="D415" s="1" t="n">
+        <f aca="false">B415+C415</f>
+        <v>0</v>
+      </c>
+      <c r="E415" s="1" t="n">
+        <f aca="false">D415-D414</f>
+        <v>0</v>
+      </c>
+      <c r="F415" s="1" t="n">
+        <f aca="false">(E413+E414+E415)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G415" s="1" t="n">
+        <f aca="false">(E409+E410+E411+E412+E413+E414+E415)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="2" t="n">
+        <f aca="false">$A415+1</f>
+        <v>44318</v>
+      </c>
+      <c r="D416" s="1" t="n">
+        <f aca="false">B416+C416</f>
+        <v>0</v>
+      </c>
+      <c r="E416" s="1" t="n">
+        <f aca="false">D416-D415</f>
+        <v>0</v>
+      </c>
+      <c r="F416" s="1" t="n">
+        <f aca="false">(E414+E415+E416)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G416" s="1" t="n">
+        <f aca="false">(E410+E411+E412+E413+E414+E415+E416)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="2" t="n">
+        <f aca="false">$A416+1</f>
+        <v>44319</v>
+      </c>
+      <c r="D417" s="1" t="n">
+        <f aca="false">B417+C417</f>
+        <v>0</v>
+      </c>
+      <c r="E417" s="1" t="n">
+        <f aca="false">D417-D416</f>
+        <v>0</v>
+      </c>
+      <c r="F417" s="1" t="n">
+        <f aca="false">(E415+E416+E417)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G417" s="1" t="n">
+        <f aca="false">(E411+E412+E413+E414+E415+E416+E417)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="2" t="n">
+        <f aca="false">$A417+1</f>
+        <v>44320</v>
+      </c>
+      <c r="D418" s="1" t="n">
+        <f aca="false">B418+C418</f>
+        <v>0</v>
+      </c>
+      <c r="E418" s="1" t="n">
+        <f aca="false">D418-D417</f>
+        <v>0</v>
+      </c>
+      <c r="F418" s="1" t="n">
+        <f aca="false">(E416+E417+E418)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G418" s="1" t="n">
+        <f aca="false">(E412+E413+E414+E415+E416+E417+E418)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="2" t="n">
+        <f aca="false">$A418+1</f>
+        <v>44321</v>
+      </c>
+      <c r="D419" s="1" t="n">
+        <f aca="false">B419+C419</f>
+        <v>0</v>
+      </c>
+      <c r="E419" s="1" t="n">
+        <f aca="false">D419-D418</f>
+        <v>0</v>
+      </c>
+      <c r="F419" s="1" t="n">
+        <f aca="false">(E417+E418+E419)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G419" s="1" t="n">
+        <f aca="false">(E413+E414+E415+E416+E417+E418+E419)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="2" t="n">
+        <f aca="false">$A419+1</f>
+        <v>44322</v>
+      </c>
+      <c r="D420" s="1" t="n">
+        <f aca="false">B420+C420</f>
+        <v>0</v>
+      </c>
+      <c r="E420" s="1" t="n">
+        <f aca="false">D420-D419</f>
+        <v>0</v>
+      </c>
+      <c r="F420" s="1" t="n">
+        <f aca="false">(E418+E419+E420)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G420" s="1" t="n">
+        <f aca="false">(E414+E415+E416+E417+E418+E419+E420)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="2" t="n">
+        <f aca="false">$A420+1</f>
+        <v>44323</v>
+      </c>
+      <c r="D421" s="1" t="n">
+        <f aca="false">B421+C421</f>
+        <v>0</v>
+      </c>
+      <c r="E421" s="1" t="n">
+        <f aca="false">D421-D420</f>
+        <v>0</v>
+      </c>
+      <c r="F421" s="1" t="n">
+        <f aca="false">(E419+E420+E421)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G421" s="1" t="n">
+        <f aca="false">(E415+E416+E417+E418+E419+E420+E421)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="2" t="n">
+        <f aca="false">$A421+1</f>
+        <v>44324</v>
+      </c>
+      <c r="D422" s="1" t="n">
+        <f aca="false">B422+C422</f>
+        <v>0</v>
+      </c>
+      <c r="E422" s="1" t="n">
+        <f aca="false">D422-D421</f>
+        <v>0</v>
+      </c>
+      <c r="F422" s="1" t="n">
+        <f aca="false">(E420+E421+E422)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G422" s="1" t="n">
+        <f aca="false">(E416+E417+E418+E419+E420+E421+E422)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="2" t="n">
+        <f aca="false">$A422+1</f>
+        <v>44325</v>
+      </c>
+      <c r="D423" s="1" t="n">
+        <f aca="false">B423+C423</f>
+        <v>0</v>
+      </c>
+      <c r="E423" s="1" t="n">
+        <f aca="false">D423-D422</f>
+        <v>0</v>
+      </c>
+      <c r="F423" s="1" t="n">
+        <f aca="false">(E421+E422+E423)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G423" s="1" t="n">
+        <f aca="false">(E417+E418+E419+E420+E421+E422+E423)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="2" t="n">
+        <f aca="false">$A423+1</f>
+        <v>44326</v>
+      </c>
+      <c r="D424" s="1" t="n">
+        <f aca="false">B424+C424</f>
+        <v>0</v>
+      </c>
+      <c r="E424" s="1" t="n">
+        <f aca="false">D424-D423</f>
+        <v>0</v>
+      </c>
+      <c r="F424" s="1" t="n">
+        <f aca="false">(E422+E423+E424)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G424" s="1" t="n">
+        <f aca="false">(E418+E419+E420+E421+E422+E423+E424)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="2" t="n">
+        <f aca="false">$A424+1</f>
+        <v>44327</v>
+      </c>
+      <c r="D425" s="1" t="n">
+        <f aca="false">B425+C425</f>
+        <v>0</v>
+      </c>
+      <c r="E425" s="1" t="n">
+        <f aca="false">D425-D424</f>
+        <v>0</v>
+      </c>
+      <c r="F425" s="1" t="n">
+        <f aca="false">(E423+E424+E425)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G425" s="1" t="n">
+        <f aca="false">(E419+E420+E421+E422+E423+E424+E425)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="2" t="n">
+        <f aca="false">$A425+1</f>
+        <v>44328</v>
+      </c>
+      <c r="D426" s="1" t="n">
+        <f aca="false">B426+C426</f>
+        <v>0</v>
+      </c>
+      <c r="E426" s="1" t="n">
+        <f aca="false">D426-D425</f>
+        <v>0</v>
+      </c>
+      <c r="F426" s="1" t="n">
+        <f aca="false">(E424+E425+E426)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G426" s="1" t="n">
+        <f aca="false">(E420+E421+E422+E423+E424+E425+E426)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="2" t="n">
+        <f aca="false">$A426+1</f>
+        <v>44329</v>
+      </c>
+      <c r="D427" s="1" t="n">
+        <f aca="false">B427+C427</f>
+        <v>0</v>
+      </c>
+      <c r="E427" s="1" t="n">
+        <f aca="false">D427-D426</f>
+        <v>0</v>
+      </c>
+      <c r="F427" s="1" t="n">
+        <f aca="false">(E425+E426+E427)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G427" s="1" t="n">
+        <f aca="false">(E421+E422+E423+E424+E425+E426+E427)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="2" t="n">
+        <f aca="false">$A427+1</f>
+        <v>44330</v>
+      </c>
+      <c r="D428" s="1" t="n">
+        <f aca="false">B428+C428</f>
+        <v>0</v>
+      </c>
+      <c r="E428" s="1" t="n">
+        <f aca="false">D428-D427</f>
+        <v>0</v>
+      </c>
+      <c r="F428" s="1" t="n">
+        <f aca="false">(E426+E427+E428)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G428" s="1" t="n">
+        <f aca="false">(E422+E423+E424+E425+E426+E427+E428)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="2" t="n">
+        <f aca="false">$A428+1</f>
+        <v>44331</v>
+      </c>
+      <c r="D429" s="1" t="n">
+        <f aca="false">B429+C429</f>
+        <v>0</v>
+      </c>
+      <c r="E429" s="1" t="n">
+        <f aca="false">D429-D428</f>
+        <v>0</v>
+      </c>
+      <c r="F429" s="1" t="n">
+        <f aca="false">(E427+E428+E429)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G429" s="1" t="n">
+        <f aca="false">(E423+E424+E425+E426+E427+E428+E429)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="2" t="n">
+        <f aca="false">$A429+1</f>
+        <v>44332</v>
+      </c>
+      <c r="D430" s="1" t="n">
+        <f aca="false">B430+C430</f>
+        <v>0</v>
+      </c>
+      <c r="E430" s="1" t="n">
+        <f aca="false">D430-D429</f>
+        <v>0</v>
+      </c>
+      <c r="F430" s="1" t="n">
+        <f aca="false">(E428+E429+E430)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G430" s="1" t="n">
+        <f aca="false">(E424+E425+E426+E427+E428+E429+E430)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="2" t="n">
+        <f aca="false">$A430+1</f>
+        <v>44333</v>
+      </c>
+      <c r="D431" s="1" t="n">
+        <f aca="false">B431+C431</f>
+        <v>0</v>
+      </c>
+      <c r="E431" s="1" t="n">
+        <f aca="false">D431-D430</f>
+        <v>0</v>
+      </c>
+      <c r="F431" s="1" t="n">
+        <f aca="false">(E429+E430+E431)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G431" s="1" t="n">
+        <f aca="false">(E425+E426+E427+E428+E429+E430+E431)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="2" t="n">
+        <f aca="false">$A431+1</f>
+        <v>44334</v>
+      </c>
+      <c r="D432" s="1" t="n">
+        <f aca="false">B432+C432</f>
+        <v>0</v>
+      </c>
+      <c r="E432" s="1" t="n">
+        <f aca="false">D432-D431</f>
+        <v>0</v>
+      </c>
+      <c r="F432" s="1" t="n">
+        <f aca="false">(E430+E431+E432)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G432" s="1" t="n">
+        <f aca="false">(E426+E427+E428+E429+E430+E431+E432)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="2" t="n">
+        <f aca="false">$A432+1</f>
+        <v>44335</v>
+      </c>
+      <c r="D433" s="1" t="n">
+        <f aca="false">B433+C433</f>
+        <v>0</v>
+      </c>
+      <c r="E433" s="1" t="n">
+        <f aca="false">D433-D432</f>
+        <v>0</v>
+      </c>
+      <c r="F433" s="1" t="n">
+        <f aca="false">(E431+E432+E433)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G433" s="1" t="n">
+        <f aca="false">(E427+E428+E429+E430+E431+E432+E433)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="2" t="n">
+        <f aca="false">$A433+1</f>
+        <v>44336</v>
+      </c>
+      <c r="D434" s="1" t="n">
+        <f aca="false">B434+C434</f>
+        <v>0</v>
+      </c>
+      <c r="E434" s="1" t="n">
+        <f aca="false">D434-D433</f>
+        <v>0</v>
+      </c>
+      <c r="F434" s="1" t="n">
+        <f aca="false">(E432+E433+E434)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G434" s="1" t="n">
+        <f aca="false">(E428+E429+E430+E431+E432+E433+E434)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="2" t="n">
+        <f aca="false">$A434+1</f>
+        <v>44337</v>
+      </c>
+      <c r="D435" s="1" t="n">
+        <f aca="false">B435+C435</f>
+        <v>0</v>
+      </c>
+      <c r="E435" s="1" t="n">
+        <f aca="false">D435-D434</f>
+        <v>0</v>
+      </c>
+      <c r="F435" s="1" t="n">
+        <f aca="false">(E433+E434+E435)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G435" s="1" t="n">
+        <f aca="false">(E429+E430+E431+E432+E433+E434+E435)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="2" t="n">
+        <f aca="false">$A435+1</f>
+        <v>44338</v>
+      </c>
+      <c r="D436" s="1" t="n">
+        <f aca="false">B436+C436</f>
+        <v>0</v>
+      </c>
+      <c r="E436" s="1" t="n">
+        <f aca="false">D436-D435</f>
+        <v>0</v>
+      </c>
+      <c r="F436" s="1" t="n">
+        <f aca="false">(E434+E435+E436)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G436" s="1" t="n">
+        <f aca="false">(E430+E431+E432+E433+E434+E435+E436)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="2" t="n">
+        <f aca="false">$A436+1</f>
+        <v>44339</v>
+      </c>
+      <c r="D437" s="1" t="n">
+        <f aca="false">B437+C437</f>
+        <v>0</v>
+      </c>
+      <c r="E437" s="1" t="n">
+        <f aca="false">D437-D436</f>
+        <v>0</v>
+      </c>
+      <c r="F437" s="1" t="n">
+        <f aca="false">(E435+E436+E437)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G437" s="1" t="n">
+        <f aca="false">(E431+E432+E433+E434+E435+E436+E437)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="2" t="n">
+        <f aca="false">$A437+1</f>
+        <v>44340</v>
+      </c>
+      <c r="D438" s="1" t="n">
+        <f aca="false">B438+C438</f>
+        <v>0</v>
+      </c>
+      <c r="E438" s="1" t="n">
+        <f aca="false">D438-D437</f>
+        <v>0</v>
+      </c>
+      <c r="F438" s="1" t="n">
+        <f aca="false">(E436+E437+E438)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G438" s="1" t="n">
+        <f aca="false">(E432+E433+E434+E435+E436+E437+E438)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="2" t="n">
+        <f aca="false">$A438+1</f>
+        <v>44341</v>
+      </c>
+      <c r="D439" s="1" t="n">
+        <f aca="false">B439+C439</f>
+        <v>0</v>
+      </c>
+      <c r="E439" s="1" t="n">
+        <f aca="false">D439-D438</f>
+        <v>0</v>
+      </c>
+      <c r="F439" s="1" t="n">
+        <f aca="false">(E437+E438+E439)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G439" s="1" t="n">
+        <f aca="false">(E433+E434+E435+E436+E437+E438+E439)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="2" t="n">
+        <f aca="false">$A439+1</f>
+        <v>44342</v>
+      </c>
+      <c r="D440" s="1" t="n">
+        <f aca="false">B440+C440</f>
+        <v>0</v>
+      </c>
+      <c r="E440" s="1" t="n">
+        <f aca="false">D440-D439</f>
+        <v>0</v>
+      </c>
+      <c r="F440" s="1" t="n">
+        <f aca="false">(E438+E439+E440)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G440" s="1" t="n">
+        <f aca="false">(E434+E435+E436+E437+E438+E439+E440)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="2" t="n">
+        <f aca="false">$A440+1</f>
+        <v>44343</v>
+      </c>
+      <c r="D441" s="1" t="n">
+        <f aca="false">B441+C441</f>
+        <v>0</v>
+      </c>
+      <c r="E441" s="1" t="n">
+        <f aca="false">D441-D440</f>
+        <v>0</v>
+      </c>
+      <c r="F441" s="1" t="n">
+        <f aca="false">(E439+E440+E441)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G441" s="1" t="n">
+        <f aca="false">(E435+E436+E437+E438+E439+E440+E441)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="2" t="n">
+        <f aca="false">$A441+1</f>
+        <v>44344</v>
+      </c>
+      <c r="D442" s="1" t="n">
+        <f aca="false">B442+C442</f>
+        <v>0</v>
+      </c>
+      <c r="E442" s="1" t="n">
+        <f aca="false">D442-D441</f>
+        <v>0</v>
+      </c>
+      <c r="F442" s="1" t="n">
+        <f aca="false">(E440+E441+E442)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G442" s="1" t="n">
+        <f aca="false">(E436+E437+E438+E439+E440+E441+E442)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="2" t="n">
+        <f aca="false">$A442+1</f>
+        <v>44345</v>
+      </c>
+      <c r="D443" s="1" t="n">
+        <f aca="false">B443+C443</f>
+        <v>0</v>
+      </c>
+      <c r="E443" s="1" t="n">
+        <f aca="false">D443-D442</f>
+        <v>0</v>
+      </c>
+      <c r="F443" s="1" t="n">
+        <f aca="false">(E441+E442+E443)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G443" s="1" t="n">
+        <f aca="false">(E437+E438+E439+E440+E441+E442+E443)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="2" t="n">
+        <f aca="false">$A443+1</f>
+        <v>44346</v>
+      </c>
+      <c r="D444" s="1" t="n">
+        <f aca="false">B444+C444</f>
+        <v>0</v>
+      </c>
+      <c r="E444" s="1" t="n">
+        <f aca="false">D444-D443</f>
+        <v>0</v>
+      </c>
+      <c r="F444" s="1" t="n">
+        <f aca="false">(E442+E443+E444)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G444" s="1" t="n">
+        <f aca="false">(E438+E439+E440+E441+E442+E443+E444)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="2" t="n">
+        <f aca="false">$A444+1</f>
+        <v>44347</v>
+      </c>
+      <c r="D445" s="1" t="n">
+        <f aca="false">B445+C445</f>
+        <v>0</v>
+      </c>
+      <c r="E445" s="1" t="n">
+        <f aca="false">D445-D444</f>
+        <v>0</v>
+      </c>
+      <c r="F445" s="1" t="n">
+        <f aca="false">(E443+E444+E445)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G445" s="1" t="n">
+        <f aca="false">(E439+E440+E441+E442+E443+E444+E445)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="2" t="n">
+        <f aca="false">$A445+1</f>
+        <v>44348</v>
+      </c>
+      <c r="D446" s="1" t="n">
+        <f aca="false">B446+C446</f>
+        <v>0</v>
+      </c>
+      <c r="E446" s="1" t="n">
+        <f aca="false">D446-D445</f>
+        <v>0</v>
+      </c>
+      <c r="F446" s="1" t="n">
+        <f aca="false">(E444+E445+E446)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G446" s="1" t="n">
+        <f aca="false">(E440+E441+E442+E443+E444+E445+E446)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="2" t="n">
+        <f aca="false">$A446+1</f>
+        <v>44349</v>
+      </c>
+      <c r="D447" s="1" t="n">
+        <f aca="false">B447+C447</f>
+        <v>0</v>
+      </c>
+      <c r="E447" s="1" t="n">
+        <f aca="false">D447-D446</f>
+        <v>0</v>
+      </c>
+      <c r="F447" s="1" t="n">
+        <f aca="false">(E445+E446+E447)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G447" s="1" t="n">
+        <f aca="false">(E441+E442+E443+E444+E445+E446+E447)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="2" t="n">
+        <f aca="false">$A447+1</f>
+        <v>44350</v>
+      </c>
+      <c r="D448" s="1" t="n">
+        <f aca="false">B448+C448</f>
+        <v>0</v>
+      </c>
+      <c r="E448" s="1" t="n">
+        <f aca="false">D448-D447</f>
+        <v>0</v>
+      </c>
+      <c r="F448" s="1" t="n">
+        <f aca="false">(E446+E447+E448)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G448" s="1" t="n">
+        <f aca="false">(E442+E443+E444+E445+E446+E447+E448)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="2" t="n">
+        <f aca="false">$A448+1</f>
+        <v>44351</v>
+      </c>
+      <c r="D449" s="1" t="n">
+        <f aca="false">B449+C449</f>
+        <v>0</v>
+      </c>
+      <c r="E449" s="1" t="n">
+        <f aca="false">D449-D448</f>
+        <v>0</v>
+      </c>
+      <c r="F449" s="1" t="n">
+        <f aca="false">(E447+E448+E449)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G449" s="1" t="n">
+        <f aca="false">(E443+E444+E445+E446+E447+E448+E449)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="2" t="n">
+        <f aca="false">$A449+1</f>
+        <v>44352</v>
+      </c>
+      <c r="D450" s="1" t="n">
+        <f aca="false">B450+C450</f>
+        <v>0</v>
+      </c>
+      <c r="E450" s="1" t="n">
+        <f aca="false">D450-D449</f>
+        <v>0</v>
+      </c>
+      <c r="F450" s="1" t="n">
+        <f aca="false">(E448+E449+E450)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G450" s="1" t="n">
+        <f aca="false">(E444+E445+E446+E447+E448+E449+E450)/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="2" t="n">
+        <f aca="false">$A450+1</f>
+        <v>44353</v>
+      </c>
+      <c r="D451" s="1" t="n">
+        <f aca="false">B451+C451</f>
+        <v>0</v>
+      </c>
+      <c r="E451" s="1" t="n">
+        <f aca="false">D451-D450</f>
+        <v>0</v>
+      </c>
+      <c r="F451" s="1" t="n">
+        <f aca="false">(E449+E450+E451)/3</f>
+        <v>0</v>
+      </c>
+      <c r="G451" s="1" t="n">
+        <f aca="false">(E445+E446+E447+E448+E449+E450+E451)/7</f>
         <v>0</v>
       </c>
     </row>
